--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="168">
   <si>
     <t>ID caso de prueba</t>
   </si>
@@ -220,13 +220,316 @@
   </si>
   <si>
     <t>Realizar otra prueba a futuro</t>
+  </si>
+  <si>
+    <t>Caso de prueba 11</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda logearse si no ingresa un nombre</t>
+  </si>
+  <si>
+    <t>Ingresar Usuario "dogui"</t>
+  </si>
+  <si>
+    <t>/////////////////////</t>
+  </si>
+  <si>
+    <t>Pop-up "Completa este campo"</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda ingresar  si no ingresó una contraseña</t>
+  </si>
+  <si>
+    <t>Ingresar contraseña "revision"</t>
+  </si>
+  <si>
+    <t>Pagina principal del sitio</t>
+  </si>
+  <si>
+    <t>Pagina principal del sitio y credenciales que no se encuentren en la base de datos</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda ingresar con datos incorrectos</t>
+  </si>
+  <si>
+    <t>Escribir usuario "dogui"</t>
+  </si>
+  <si>
+    <t>Escribir contraseña "pythonrulz"</t>
+  </si>
+  <si>
+    <t>Mensaje de error "Usuario o Clave Incorrecta"</t>
+  </si>
+  <si>
+    <t>Que el usuario puedra ingresar al sistema si tiene un usuario válido</t>
+  </si>
+  <si>
+    <t>Acceso al panel "projects"</t>
+  </si>
+  <si>
+    <t>Caso de prueba 12</t>
+  </si>
+  <si>
+    <t>Caso de prueba 13</t>
+  </si>
+  <si>
+    <t>Caso de prueba 14</t>
+  </si>
+  <si>
+    <t>Caso de prueba 15</t>
+  </si>
+  <si>
+    <t>Caso de prueba 16</t>
+  </si>
+  <si>
+    <t>Caso de prueba 17</t>
+  </si>
+  <si>
+    <t>Caso de prueba 18</t>
+  </si>
+  <si>
+    <t>Caso de prueba 19</t>
+  </si>
+  <si>
+    <t>Caso de prueba 20</t>
+  </si>
+  <si>
+    <t>Caso de prueba 21</t>
+  </si>
+  <si>
+    <t>Caso de prueba 22</t>
+  </si>
+  <si>
+    <t>Pagina principal y credenciales registradas en la base de datos</t>
+  </si>
+  <si>
+    <t>Que el sistema no permite ingresar caracteres especiales/ no permitidos</t>
+  </si>
+  <si>
+    <t>Pagina principal del Sistema</t>
+  </si>
+  <si>
+    <t>Ingresar String -""""''|'||''|??-</t>
+  </si>
+  <si>
+    <t>Ingresar contraseña "prueba"</t>
+  </si>
+  <si>
+    <t>Mensaje de error "Caracteres no permitidos"</t>
+  </si>
+  <si>
+    <t>Error operacional de sqlite3</t>
+  </si>
+  <si>
+    <t>No aprobado</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda registrarse si no ingresa un Username</t>
+  </si>
+  <si>
+    <t>Pagina de Registro del Sistema</t>
+  </si>
+  <si>
+    <t>Ingresar Contraseña "prueba"</t>
+  </si>
+  <si>
+    <t>Pop-Up "Completa este campo"</t>
+  </si>
+  <si>
+    <t>Caso de prueba 23</t>
+  </si>
+  <si>
+    <t>Caso de prueba 24</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda registrarse si no ingresa una Contraseña</t>
+  </si>
+  <si>
+    <t>Pagina de Registro del sistema</t>
+  </si>
+  <si>
+    <t>Ingresar usuario "holacomova"</t>
+  </si>
+  <si>
+    <t>Ingresar Contraseña "prueba" en el campo "Confirmar Contraseña"</t>
+  </si>
+  <si>
+    <t>Ingresar Correo</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda registrarse si no ingresa un E-Mail</t>
+  </si>
+  <si>
+    <t>Ingresar Contraseña</t>
+  </si>
+  <si>
+    <t>Ingresar E-Mail</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda registrarse si las contraseñas no coinciden</t>
+  </si>
+  <si>
+    <t>Ingresar usuario "hmerlino"</t>
+  </si>
+  <si>
+    <t>Ingresar contraseña "python4ever"</t>
+  </si>
+  <si>
+    <t>Ingresar E-Mail "hmerlino@gmail.com</t>
+  </si>
+  <si>
+    <t>Confirmar Contraseña</t>
+  </si>
+  <si>
+    <t>Mensaje de error "Contraseñas no coinciden"</t>
+  </si>
+  <si>
+    <t>Usuario registrado Correctamente</t>
+  </si>
+  <si>
+    <t>Caso de prueba a determinar</t>
+  </si>
+  <si>
+    <t>Que un usuario pueda registrarse en el sistema</t>
+  </si>
+  <si>
+    <t>Ingresar usuario "juancito"</t>
+  </si>
+  <si>
+    <t>Ingresar contraseña "juanelmejor"</t>
+  </si>
+  <si>
+    <t>Ingresar e-mail "juanp@gmail.com"</t>
+  </si>
+  <si>
+    <t>Confirmar contraseña</t>
+  </si>
+  <si>
+    <t>Pagina de login con leyenda "Usuario Registrado Correctamente"</t>
+  </si>
+  <si>
+    <t>Pagina de registro del sistema</t>
+  </si>
+  <si>
+    <t>Que un usuario pueda registrarse en el sistema si el nombre de usuario ya está ocupado</t>
+  </si>
+  <si>
+    <t>Ingresar usuario "dogui"</t>
+  </si>
+  <si>
+    <t>Ingresar e-mail "gcontento@gmail.com"</t>
+  </si>
+  <si>
+    <t>Mensaje de error con la leyenda "Ese usuario ya se encuentra registado"</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda registrarse si ese mail ya lo registró otro usuario</t>
+  </si>
+  <si>
+    <t>Mensaje de error con leyenda "El E-Mail ya esta registrado por otro usuario"</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda registrarse si ingresa caracteres especiales/ no permitidos</t>
+  </si>
+  <si>
+    <t>Pagina de registro del sistema y un usuario ya registrado</t>
+  </si>
+  <si>
+    <t>Pagina de registro del sistema y un usuario que posea el username deseado ya registrado</t>
+  </si>
+  <si>
+    <t>Ingresar Usuario " """""''''´´´´?? "</t>
+  </si>
+  <si>
+    <t>Ingresar contraseña " ´´´'???? "</t>
+  </si>
+  <si>
+    <t>Ingresar e-mail</t>
+  </si>
+  <si>
+    <t>Mensaje de error con leyenda: " Ese nombre de usuario contiene caracteres invalidos"</t>
+  </si>
+  <si>
+    <t>firstProject</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda crear un proyecto de nombre nulo</t>
+  </si>
+  <si>
+    <t>Usuario logeado y pagina de creacion de primer proyecto</t>
+  </si>
+  <si>
+    <t>Click en "nuevo proyecto"</t>
+  </si>
+  <si>
+    <t>Click en "crear proyecto</t>
+  </si>
+  <si>
+    <t>Mensaje con leyenda "Completa este campo"</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda crear un proyecto sin descripcion</t>
+  </si>
+  <si>
+    <t>Usuario logeado y nombre elegido para el proyecto</t>
+  </si>
+  <si>
+    <t>Click en "crear" sin ingresar una descripcion</t>
+  </si>
+  <si>
+    <t>Mensaje con Leyenda "completa este campo"</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda crear un proyecto cuyo nombre contenga caracteres inválidos/reservados</t>
+  </si>
+  <si>
+    <t>Pantalla de creacion de primer proyecto y usuario logeado</t>
+  </si>
+  <si>
+    <t>Click en "nuevo Proyecto"</t>
+  </si>
+  <si>
+    <t>Ingresar descripcion</t>
+  </si>
+  <si>
+    <t>Ingresar criterios de inclusion y exclusión</t>
+  </si>
+  <si>
+    <t>Click en Crear</t>
+  </si>
+  <si>
+    <t>Mensaje de error con Leyenda "El nombre del proyecto posee caracteres ilegales"</t>
+  </si>
+  <si>
+    <t>Ingresar nombre " |||||||||¿'¿'¿'¬¬¬¬?!?!?!?}}+´´´´´´{{{ "</t>
+  </si>
+  <si>
+    <t>Error operacional de sqlite3 (near ¿)</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda ingresar caracteres invalidos/reservados en la descripcion de su proyecto</t>
+  </si>
+  <si>
+    <t>Ingresar descripcion " |||||||||¿'¿'¿'¬¬¬¬?!?!?!?}}+´´´´´´{{{ "</t>
+  </si>
+  <si>
+    <t>Ingresar Nombre "minería basica"</t>
+  </si>
+  <si>
+    <t>Click en crear</t>
+  </si>
+  <si>
+    <t>Mensaje con leyenda "La descripción posee caracteres invalidos"</t>
+  </si>
+  <si>
+    <t>Error operacional de sqlite3 (near ||)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +576,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -294,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -416,11 +725,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -455,28 +790,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,6 +813,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -509,20 +850,35 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +1152,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J229" sqref="J229:K229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +1171,7 @@
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="19" customWidth="1"/>
+    <col min="6" max="6" width="8" style="36" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="4" customWidth="1"/>
     <col min="9" max="11" width="16.28515625" style="1" customWidth="1"/>
@@ -823,161 +1179,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="32"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="28"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="15"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="33"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="9"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="25"/>
+      <c r="H5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="25"/>
+      <c r="H6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="25"/>
+      <c r="H7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="H8" s="18" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="H9" s="30" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="H9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="H10" s="18" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="H11" s="30" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="H11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1136,56 +1492,56 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="H18" s="18" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="H18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="10"/>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="10"/>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -1197,163 +1553,163 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="14"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="25" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="32"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="9"/>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22" t="s">
+      <c r="I25" s="19"/>
+      <c r="J25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="23"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="9"/>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22" t="s">
+      <c r="I26" s="19"/>
+      <c r="J26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="23"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="9"/>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="H28" s="20" t="s">
+      <c r="D28" s="25"/>
+      <c r="H28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="H29" s="18" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="H29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="H30" s="30" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="H30" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="H31" s="18" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="H31" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="H32" s="30" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="H32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1385,25 +1741,25 @@
       <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
       </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1489,107 +1845,107 @@
       <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H38" s="6">
         <v>5</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="14" t="s">
         <v>58</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="34" t="s">
+      <c r="K38" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="H39" s="18" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="H39" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="10"/>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13" t="s">
+      <c r="I40" s="16"/>
+      <c r="J40" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="13"/>
+      <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="10"/>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13" t="s">
+      <c r="I41" s="16"/>
+      <c r="J41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="13"/>
+      <c r="K41" s="17"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="14"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="25" t="s">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="32"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="28"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="15"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="29"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="33"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="31"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -1604,122 +1960,134 @@
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="23"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="9"/>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22" t="s">
+      <c r="I46" s="19"/>
+      <c r="J46" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="23"/>
+      <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="23"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="25"/>
       <c r="E47" s="9"/>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="23"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="25"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="H48" s="20" t="s">
+      <c r="D48" s="25"/>
+      <c r="H48" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22" t="s">
+      <c r="I48" s="19"/>
+      <c r="J48" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="23"/>
+      <c r="K48" s="25"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="H49" s="20" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="H49" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="23"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="H50" s="18" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="H50" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="A51" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="H51" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="H52" s="18" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="H52" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
+      <c r="A53" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="H53" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -1747,273 +2115,345 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>1</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H55" s="6">
         <v>1</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I55" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="H56" s="6">
         <v>2</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="37" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>3</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E57" s="11"/>
       <c r="H57" s="6">
         <v>3</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>4</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H58" s="6">
         <v>4</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>5</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H59" s="6">
         <v>5</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="H60" s="18" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="H60" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13" t="s">
+      <c r="B61" s="16"/>
+      <c r="C61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="H61" s="12" t="s">
+      <c r="D61" s="17"/>
+      <c r="H61" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13" t="s">
+      <c r="I61" s="16"/>
+      <c r="J61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="13"/>
+      <c r="K61" s="17"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="13"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="10"/>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13" t="s">
+      <c r="I62" s="16"/>
+      <c r="J62" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="13"/>
+      <c r="K62" s="17"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="14"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="25" t="s">
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="32"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="28"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="30"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="15"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="29"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="33"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="31"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="23"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="9"/>
-      <c r="H67" s="20" t="s">
+      <c r="H67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="22" t="s">
+      <c r="I67" s="19"/>
+      <c r="J67" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="23"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="23"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="25"/>
       <c r="E68" s="9"/>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="23"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="25"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="H69" s="20" t="s">
+      <c r="D69" s="25"/>
+      <c r="H69" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="22" t="s">
+      <c r="I69" s="19"/>
+      <c r="J69" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="23"/>
+      <c r="K69" s="25"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="23"/>
-      <c r="H70" s="20" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="H70" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="23"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="25"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="H71" s="18" t="s">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="H71" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="A72" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="H72" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="23"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="H73" s="18" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="H73" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
+      <c r="A74" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="H74" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="23"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -2041,273 +2481,341 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>1</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="B76" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H76" s="6">
         <v>1</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I76" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>2</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H77" s="6">
         <v>2</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I77" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>3</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="H78" s="6">
         <v>3</v>
       </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K78" s="37" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>4</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H79" s="6">
         <v>4</v>
       </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>5</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H80" s="6">
         <v>5</v>
       </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="H81" s="18" t="s">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="H81" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13" t="s">
+      <c r="B82" s="16"/>
+      <c r="C82" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="H82" s="12" t="s">
+      <c r="D82" s="17"/>
+      <c r="H82" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="13" t="s">
+      <c r="I82" s="16"/>
+      <c r="J82" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K82" s="13"/>
+      <c r="K82" s="17"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13" t="s">
+      <c r="B83" s="16"/>
+      <c r="C83" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="13"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="10"/>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="13" t="s">
+      <c r="I83" s="16"/>
+      <c r="J83" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="13"/>
+      <c r="K83" s="17"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="14"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="25" t="s">
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="32"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="28"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="30"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="15"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="29"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="33"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="31"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="22" t="s">
+      <c r="B88" s="19"/>
+      <c r="C88" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="23"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="9"/>
-      <c r="H88" s="20" t="s">
+      <c r="H88" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="22" t="s">
+      <c r="I88" s="19"/>
+      <c r="J88" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K88" s="23"/>
+      <c r="K88" s="25"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="23"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="25"/>
       <c r="E89" s="9"/>
-      <c r="H89" s="20" t="s">
+      <c r="H89" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="21"/>
-      <c r="J89" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K89" s="23"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89" s="25"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22" t="s">
+      <c r="B90" s="19"/>
+      <c r="C90" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="23"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="9"/>
-      <c r="H90" s="20" t="s">
+      <c r="H90" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I90" s="21"/>
-      <c r="J90" s="22" t="s">
+      <c r="I90" s="19"/>
+      <c r="J90" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K90" s="23"/>
+      <c r="K90" s="25"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="H91" s="20" t="s">
+      <c r="B91" s="19"/>
+      <c r="C91" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="25"/>
+      <c r="H91" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I91" s="21"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="23"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K91" s="25"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="H92" s="18" t="s">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="H92" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
+      <c r="A93" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="H94" s="18" t="s">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="H94" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
+      <c r="A95" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -2335,13 +2843,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>1</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="B97" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H97" s="6">
         <v>1</v>
       </c>
@@ -2349,13 +2863,19 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>2</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="B98" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H98" s="6">
         <v>2</v>
       </c>
@@ -2363,13 +2883,19 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>3</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>99</v>
+      </c>
       <c r="H99" s="6">
         <v>3</v>
       </c>
@@ -2381,9 +2907,15 @@
       <c r="A100" s="6">
         <v>4</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H100" s="6">
         <v>4</v>
       </c>
@@ -2395,9 +2927,15 @@
       <c r="A101" s="6">
         <v>5</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H101" s="6">
         <v>5</v>
       </c>
@@ -2406,59 +2944,3017 @@
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="H102" s="18" t="s">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="H102" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13" t="s">
+      <c r="B103" s="16"/>
+      <c r="C103" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="10"/>
+      <c r="H103" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="16"/>
+      <c r="J103" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="10"/>
-      <c r="H103" s="12" t="s">
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="10"/>
+      <c r="H104" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="16"/>
+      <c r="J104" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="32"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="30"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="28"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="33"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="31"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="19"/>
+      <c r="C108" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="25"/>
+      <c r="E108" s="9"/>
+      <c r="H108" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" s="19"/>
+      <c r="J108" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K108" s="25"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="25"/>
+      <c r="H109" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="19"/>
+      <c r="J109" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K109" s="25"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" s="25"/>
+      <c r="H110" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" s="19"/>
+      <c r="J110" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" s="25"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="25"/>
+      <c r="H111" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I111" s="19"/>
+      <c r="J111" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K111" s="25"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="H112" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="H113" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="23"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="H114" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="23"/>
+      <c r="H115" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
+        <v>1</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="12">
+        <v>1</v>
+      </c>
+      <c r="I117" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
+        <v>2</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" s="12">
+        <v>2</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
+        <v>3</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H119" s="12">
+        <v>3</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J119" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K119" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" s="12">
+        <v>4</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="12">
+        <v>5</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="H122" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="20"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="12"/>
-      <c r="J103" s="13" t="s">
+      <c r="B123" s="16"/>
+      <c r="C123" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K103" s="13"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="D123" s="17"/>
+      <c r="E123" s="10"/>
+      <c r="H123" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="16"/>
+      <c r="J123" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" s="17"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13" t="s">
+      <c r="B124" s="16"/>
+      <c r="C124" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="10"/>
-      <c r="H104" s="12" t="s">
+      <c r="D124" s="17"/>
+      <c r="E124" s="10"/>
+      <c r="H124" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="12"/>
-      <c r="J104" s="13" t="s">
+      <c r="I124" s="16"/>
+      <c r="J124" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="13"/>
+      <c r="K124" s="17"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="32"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="32"/>
+    </row>
+    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="28"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="33"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="33"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="25"/>
+      <c r="E129" s="9"/>
+      <c r="H129" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" s="19"/>
+      <c r="J129" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K129" s="25"/>
+      <c r="L129" s="9"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="9"/>
+      <c r="H130" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130" s="19"/>
+      <c r="J130" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K130" s="25"/>
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="25"/>
+      <c r="E131" s="9"/>
+      <c r="H131" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I131" s="19"/>
+      <c r="J131" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K131" s="25"/>
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" s="25"/>
+      <c r="H132" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I132" s="19"/>
+      <c r="J132" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K132" s="25"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="H133" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I133" s="20"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="H134" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="23"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="H135" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I135" s="20"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="H136" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="12">
+        <v>1</v>
+      </c>
+      <c r="B138" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H138" s="12"/>
+      <c r="I138" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="12">
+        <v>2</v>
+      </c>
+      <c r="B139" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H139" s="12">
+        <v>2</v>
+      </c>
+      <c r="I139" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
+        <v>3</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H140" s="12">
+        <v>3</v>
+      </c>
+      <c r="I140" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D141" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H141" s="12">
+        <v>4</v>
+      </c>
+      <c r="I141" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H142" s="12">
+        <v>5</v>
+      </c>
+      <c r="I142" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J142" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="K142" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="H143" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="20"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="16"/>
+      <c r="C144" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="10"/>
+      <c r="H144" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="16"/>
+      <c r="J144" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="K144" s="17"/>
+      <c r="L144" s="10"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="16"/>
+      <c r="C145" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="17"/>
+      <c r="E145" s="10"/>
+      <c r="H145" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="16"/>
+      <c r="J145" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K145" s="17"/>
+      <c r="L145" s="10"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I147" s="27"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="32"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="28"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="33"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="19"/>
+      <c r="C150" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="25"/>
+      <c r="E150" s="9"/>
+      <c r="H150" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I150" s="19"/>
+      <c r="J150" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K150" s="25"/>
+      <c r="L150" s="9"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="19"/>
+      <c r="C151" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D151" s="25"/>
+      <c r="E151" s="9"/>
+      <c r="H151" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I151" s="19"/>
+      <c r="J151" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151" s="25"/>
+      <c r="L151" s="9"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" s="25"/>
+      <c r="E152" s="9"/>
+      <c r="H152" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I152" s="19"/>
+      <c r="J152" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152" s="25"/>
+      <c r="L152" s="9"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="19"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="25"/>
+      <c r="H153" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I153" s="19"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="25"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="H154" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I154" s="20"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="H155" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I155" s="22"/>
+      <c r="J155" s="22"/>
+      <c r="K155" s="23"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="H156" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I156" s="20"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="H157" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I157" s="22"/>
+      <c r="J157" s="22"/>
+      <c r="K157" s="23"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
+        <v>1</v>
+      </c>
+      <c r="B159" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H159" s="12">
+        <v>1</v>
+      </c>
+      <c r="I159" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
+        <v>2</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H160" s="12">
+        <v>2</v>
+      </c>
+      <c r="I160" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
+        <v>3</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H161" s="12">
+        <v>3</v>
+      </c>
+      <c r="I161" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
+        <v>4</v>
+      </c>
+      <c r="B162" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H162" s="12">
+        <v>4</v>
+      </c>
+      <c r="I162" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
+        <v>5</v>
+      </c>
+      <c r="B163" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D163" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H163" s="12">
+        <v>5</v>
+      </c>
+      <c r="I163" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J163" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K163" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="H164" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="16"/>
+      <c r="C165" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="17"/>
+      <c r="E165" s="10"/>
+      <c r="H165" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165" s="16"/>
+      <c r="J165" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K165" s="17"/>
+      <c r="L165" s="10"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="16"/>
+      <c r="C166" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="17"/>
+      <c r="E166" s="10"/>
+      <c r="H166" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="16"/>
+      <c r="J166" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K166" s="17"/>
+      <c r="L166" s="10"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="32"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="28"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="33"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="28"/>
+      <c r="I169" s="29"/>
+      <c r="J169" s="29"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="33"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="19"/>
+      <c r="C171" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="25"/>
+      <c r="E171" s="9"/>
+      <c r="H171" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I171" s="19"/>
+      <c r="J171" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K171" s="25"/>
+      <c r="L171" s="9"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="19"/>
+      <c r="C172" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" s="25"/>
+      <c r="E172" s="9"/>
+      <c r="H172" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="19"/>
+      <c r="J172" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K172" s="25"/>
+      <c r="L172" s="9"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="19"/>
+      <c r="C173" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" s="25"/>
+      <c r="E173" s="9"/>
+      <c r="H173" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="19"/>
+      <c r="J173" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K173" s="25"/>
+      <c r="L173" s="9"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="19"/>
+      <c r="C174" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D174" s="25"/>
+      <c r="H174" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I174" s="19"/>
+      <c r="J174" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K174" s="25"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="H175" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+    </row>
+    <row r="176" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="23"/>
+      <c r="H176" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I176" s="22"/>
+      <c r="J176" s="22"/>
+      <c r="K176" s="23"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="H177" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I177" s="20"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="H178" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K179" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>1</v>
+      </c>
+      <c r="B180" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H180" s="12">
+        <v>1</v>
+      </c>
+      <c r="I180" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
+        <v>2</v>
+      </c>
+      <c r="B181" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H181" s="12">
+        <v>2</v>
+      </c>
+      <c r="I181" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <v>3</v>
+      </c>
+      <c r="B182" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H182" s="12">
+        <v>3</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
+        <v>4</v>
+      </c>
+      <c r="B183" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H183" s="12">
+        <v>4</v>
+      </c>
+      <c r="I183" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>5</v>
+      </c>
+      <c r="B184" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D184" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H184" s="12">
+        <v>5</v>
+      </c>
+      <c r="I184" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J184" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="K184" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="H185" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I185" s="20"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" s="16"/>
+      <c r="C186" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D186" s="17"/>
+      <c r="E186" s="10"/>
+      <c r="H186" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I186" s="16"/>
+      <c r="J186" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K186" s="17"/>
+      <c r="L186" s="10"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="16"/>
+      <c r="C187" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D187" s="17"/>
+      <c r="E187" s="10"/>
+      <c r="H187" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I187" s="16"/>
+      <c r="J187" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K187" s="17"/>
+      <c r="L187" s="10"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="32"/>
+      <c r="H189" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+      <c r="K189" s="27"/>
+      <c r="L189" s="32"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="28"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="33"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="29"/>
+      <c r="J190" s="29"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="33"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" s="19"/>
+      <c r="C192" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="25"/>
+      <c r="E192" s="9"/>
+      <c r="H192" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I192" s="19"/>
+      <c r="J192" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K192" s="25"/>
+      <c r="L192" s="9"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="19"/>
+      <c r="C193" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" s="25"/>
+      <c r="E193" s="9"/>
+      <c r="H193" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I193" s="19"/>
+      <c r="J193" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K193" s="25"/>
+      <c r="L193" s="9"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="19"/>
+      <c r="C194" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="25"/>
+      <c r="E194" s="9"/>
+      <c r="H194" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I194" s="19"/>
+      <c r="J194" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K194" s="25"/>
+      <c r="L194" s="9"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="19"/>
+      <c r="C195" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D195" s="25"/>
+      <c r="H195" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I195" s="19"/>
+      <c r="J195" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K195" s="25"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="H196" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I196" s="20"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="H197" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="H198" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="H199" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J200" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K200" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <v>1</v>
+      </c>
+      <c r="B201" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H201" s="12">
+        <v>1</v>
+      </c>
+      <c r="I201" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="J201" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K201" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <v>2</v>
+      </c>
+      <c r="B202" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C202" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D202" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H202" s="12">
+        <v>2</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <v>3</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H203" s="12">
+        <v>3</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H204" s="12">
+        <v>4</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>5</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H205" s="12">
+        <v>5</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="H206" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I206" s="20"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="20"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" s="16"/>
+      <c r="C207" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="17"/>
+      <c r="E207" s="10"/>
+      <c r="H207" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I207" s="16"/>
+      <c r="J207" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K207" s="17"/>
+      <c r="L207" s="10"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="16"/>
+      <c r="C208" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="17"/>
+      <c r="E208" s="10"/>
+      <c r="H208" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I208" s="16"/>
+      <c r="J208" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K208" s="17"/>
+      <c r="L208" s="10"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="32"/>
+      <c r="H210" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I210" s="27"/>
+      <c r="J210" s="27"/>
+      <c r="K210" s="27"/>
+      <c r="L210" s="32"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="28"/>
+      <c r="B211" s="29"/>
+      <c r="C211" s="29"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="33"/>
+      <c r="H211" s="28"/>
+      <c r="I211" s="29"/>
+      <c r="J211" s="29"/>
+      <c r="K211" s="29"/>
+      <c r="L211" s="33"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B213" s="19"/>
+      <c r="C213" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="25"/>
+      <c r="E213" s="9"/>
+      <c r="H213" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I213" s="19"/>
+      <c r="J213" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K213" s="25"/>
+      <c r="L213" s="9"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="19"/>
+      <c r="C214" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" s="25"/>
+      <c r="E214" s="9"/>
+      <c r="H214" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I214" s="19"/>
+      <c r="J214" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K214" s="25"/>
+      <c r="L214" s="9"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="19"/>
+      <c r="C215" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D215" s="25"/>
+      <c r="E215" s="9"/>
+      <c r="H215" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I215" s="19"/>
+      <c r="J215" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K215" s="25"/>
+      <c r="L215" s="9"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="19"/>
+      <c r="C216" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D216" s="25"/>
+      <c r="H216" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I216" s="19"/>
+      <c r="J216" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K216" s="25"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="H217" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I217" s="20"/>
+      <c r="J217" s="20"/>
+      <c r="K217" s="20"/>
+    </row>
+    <row r="218" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="23"/>
+      <c r="H218" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I218" s="22"/>
+      <c r="J218" s="22"/>
+      <c r="K218" s="23"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="H219" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I219" s="20"/>
+      <c r="J219" s="20"/>
+      <c r="K219" s="20"/>
+    </row>
+    <row r="220" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
+      <c r="H220" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="17"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I221" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K221" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="12">
+        <v>1</v>
+      </c>
+      <c r="B222" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H222" s="12">
+        <v>1</v>
+      </c>
+      <c r="I222" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A223" s="12">
+        <v>2</v>
+      </c>
+      <c r="B223" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H223" s="12">
+        <v>2</v>
+      </c>
+      <c r="I223" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A224" s="12">
+        <v>3</v>
+      </c>
+      <c r="B224" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H224" s="12">
+        <v>3</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J224" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="K224" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="12">
+        <v>4</v>
+      </c>
+      <c r="B225" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H225" s="12">
+        <v>4</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="12">
+        <v>5</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D226" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H226" s="12">
+        <v>5</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="H227" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" s="20"/>
+      <c r="J227" s="20"/>
+      <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" s="16"/>
+      <c r="C228" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D228" s="17"/>
+      <c r="E228" s="10"/>
+      <c r="H228" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I228" s="16"/>
+      <c r="J228" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K228" s="17"/>
+      <c r="L228" s="10"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229" s="16"/>
+      <c r="C229" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D229" s="17"/>
+      <c r="E229" s="10"/>
+      <c r="H229" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I229" s="16"/>
+      <c r="J229" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K229" s="17"/>
+      <c r="L229" s="10"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B231" s="27"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="32"/>
+      <c r="H231" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I231" s="27"/>
+      <c r="J231" s="27"/>
+      <c r="K231" s="27"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="28"/>
+      <c r="B232" s="29"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="33"/>
+      <c r="H232" s="28"/>
+      <c r="I232" s="29"/>
+      <c r="J232" s="29"/>
+      <c r="K232" s="29"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" s="19"/>
+      <c r="C234" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="25"/>
+      <c r="E234" s="9"/>
+      <c r="H234" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I234" s="19"/>
+      <c r="J234" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K234" s="25"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="19"/>
+      <c r="C235" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" s="25"/>
+      <c r="E235" s="9"/>
+      <c r="H235" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I235" s="19"/>
+      <c r="J235" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K235" s="25"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="19"/>
+      <c r="C236" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" s="25"/>
+      <c r="E236" s="9"/>
+      <c r="H236" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I236" s="19"/>
+      <c r="J236" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K236" s="25"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="19"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="25"/>
+      <c r="H237" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I237" s="19"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="25"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="20"/>
+      <c r="H238" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I238" s="20"/>
+      <c r="J238" s="20"/>
+      <c r="K238" s="20"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="17"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="17"/>
+      <c r="D239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
+      <c r="H240" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I240" s="20"/>
+      <c r="J240" s="20"/>
+      <c r="K240" s="20"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="17"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
+      <c r="D241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I242" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J242" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K242" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="12">
+        <v>1</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="H243" s="12">
+        <v>1</v>
+      </c>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="12">
+        <v>2</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="H244" s="12">
+        <v>2</v>
+      </c>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="12">
+        <v>3</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="H245" s="12">
+        <v>3</v>
+      </c>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="12">
+        <v>4</v>
+      </c>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="H246" s="12">
+        <v>4</v>
+      </c>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="12">
+        <v>5</v>
+      </c>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="H247" s="12">
+        <v>5</v>
+      </c>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+      <c r="H248" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I248" s="20"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="20"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" s="16"/>
+      <c r="C249" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="17"/>
+      <c r="E249" s="10"/>
+      <c r="H249" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I249" s="16"/>
+      <c r="J249" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K249" s="17"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" s="16"/>
+      <c r="C250" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="17"/>
+      <c r="E250" s="10"/>
+      <c r="H250" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I250" s="16"/>
+      <c r="J250" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K250" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="458">
+    <mergeCell ref="H238:K238"/>
+    <mergeCell ref="H239:K239"/>
+    <mergeCell ref="H240:K240"/>
+    <mergeCell ref="H241:K241"/>
+    <mergeCell ref="H248:K248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="H231:K232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="A231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="H217:K217"/>
+    <mergeCell ref="H218:K218"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="H220:K220"/>
+    <mergeCell ref="H227:K227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="H210:K211"/>
+    <mergeCell ref="L210:L211"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="A210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="H189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="H196:K196"/>
+    <mergeCell ref="H197:K197"/>
+    <mergeCell ref="H198:K198"/>
+    <mergeCell ref="H199:K199"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="H178:K178"/>
+    <mergeCell ref="H185:K185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="H168:K169"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="H147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="A147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="H126:K127"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:K106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="F1:F1048576"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="H85:K86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="H64:K65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="H4:I4"/>
@@ -2483,173 +5979,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="H64:K65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="H85:K86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="F1:F1048576"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A90:B90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="120"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="209">
   <si>
     <t>ID caso de prueba</t>
   </si>
@@ -523,6 +523,129 @@
   </si>
   <si>
     <t>Error operacional de sqlite3 (near ||)</t>
+  </si>
+  <si>
+    <t>Caso de prueba 25</t>
+  </si>
+  <si>
+    <t>Caso de prueba 26</t>
+  </si>
+  <si>
+    <t>Caso de prueba 27</t>
+  </si>
+  <si>
+    <t>Caso de prueba 28</t>
+  </si>
+  <si>
+    <t>Caso de prueba 29</t>
+  </si>
+  <si>
+    <t>Caso de prueba 30</t>
+  </si>
+  <si>
+    <t>Caso de prueba 31</t>
+  </si>
+  <si>
+    <t>Caso de prueba 32</t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda realizar una busqueda si ingresa caracteres inválidos/reservados</t>
+  </si>
+  <si>
+    <t>Usuario logeado, proyecto creado y pagina de busqueda del sistema</t>
+  </si>
+  <si>
+    <t>Seleccionar un proyecto</t>
+  </si>
+  <si>
+    <t>Hacer click en "buscar articulos"</t>
+  </si>
+  <si>
+    <t>Acceso a modulo de busqueda</t>
+  </si>
+  <si>
+    <t>Click en Buscar</t>
+  </si>
+  <si>
+    <t>Escribir "?????+|+|+|+|{|||||" en busqueda 1</t>
+  </si>
+  <si>
+    <t>Mensaje de error con leyenda "solo se pueden incluir palabras en la busqueda"</t>
+  </si>
+  <si>
+    <t>ValueError: No JSON object could be decoded</t>
+  </si>
+  <si>
+    <t>Demostrar que el scrapping se realiza correctamente y los valores devueltos no son estáticos</t>
+  </si>
+  <si>
+    <t>Escribir "asdasdasdasd" en busqueda 1</t>
+  </si>
+  <si>
+    <t>Demostrar que el scrapping que se realiza correctamente y los resultados no son estaticos</t>
+  </si>
+  <si>
+    <t>Escribir "data mining AND software and XML"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click en buscar </t>
+  </si>
+  <si>
+    <t>Obtener resultados</t>
+  </si>
+  <si>
+    <t>Ningun resultado</t>
+  </si>
+  <si>
+    <t>Desmotrar el correcto funcionamiento de los campos de inclusión y exclusion de términos</t>
+  </si>
+  <si>
+    <t>Escribir "data" en include keyword y "mining" en exclude keyword</t>
+  </si>
+  <si>
+    <t>Clickear en los botones + y -</t>
+  </si>
+  <si>
+    <t>Terminos agregados a la busqueda principal (data AND NOT mining)</t>
+  </si>
+  <si>
+    <t>Demostrar que se pueden realizar busquedas multiples</t>
+  </si>
+  <si>
+    <t>Otro buscador</t>
+  </si>
+  <si>
+    <t>Terminos "data" y "mining" unidos por un AND</t>
+  </si>
+  <si>
+    <t>Crear una busqueda secundaria y una terciaria</t>
+  </si>
+  <si>
+    <t>Escribir "data" en Busqueda 1 y "mining" en Busqueda 2 y "123" en Busqueda 3</t>
+  </si>
+  <si>
+    <t>Terminos "data" ,"mining" y "123" unidos por un AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear una busqueda secundaria </t>
+  </si>
+  <si>
+    <t>Escribir "data" en Busqueda 1 y "|||¿¿??'M" en Busqueda 2</t>
+  </si>
+  <si>
+    <t>Que el sistema no admita caracteres ilegales en las busquedas que no sean la primera</t>
+  </si>
+  <si>
+    <t>Click en buscar</t>
+  </si>
+  <si>
+    <t>Mensaje de error con leyenda " Se detectaron caracteres ilegales"</t>
+  </si>
+  <si>
+    <t>sqlite3.OperationalError</t>
   </si>
 </sst>
 </file>
@@ -755,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -802,67 +925,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +945,81 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L250"/>
+  <dimension ref="A1:P335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J229" sqref="J229:K229"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1312,7 @@
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="36" customWidth="1"/>
+    <col min="6" max="6" width="8" style="46" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="4" customWidth="1"/>
     <col min="9" max="11" width="16.28515625" style="1" customWidth="1"/>
@@ -1179,161 +1320,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="32"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="37"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="30"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="33"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="31"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="38"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="9"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="34"/>
+      <c r="H5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="H6" s="18" t="s">
+      <c r="D6" s="34"/>
+      <c r="H6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="H7" s="18" t="s">
+      <c r="D7" s="34"/>
+      <c r="H7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="H8" s="20" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="H8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="H9" s="21" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="H9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="H10" s="20" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="H10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="H11" s="21" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="H11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1492,56 +1633,56 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="H18" s="20" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="H18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="10"/>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="28"/>
+      <c r="J19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="17"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="10"/>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="28"/>
+      <c r="J20" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="17"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -1553,163 +1694,163 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="32"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="27" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="33"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="31"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="38"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="9"/>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="24" t="s">
+      <c r="I25" s="32"/>
+      <c r="J25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="9"/>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="24" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="9"/>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="24" t="s">
+      <c r="I27" s="32"/>
+      <c r="J27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="H28" s="18" t="s">
+      <c r="D28" s="34"/>
+      <c r="H28" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="24" t="s">
+      <c r="I28" s="32"/>
+      <c r="J28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="25"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="H29" s="20" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="H29" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="H30" s="21" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="H30" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="H31" s="20" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="H31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="H32" s="21" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="H32" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -1868,84 +2009,84 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="H39" s="20" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="H39" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="10"/>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17" t="s">
+      <c r="I40" s="28"/>
+      <c r="J40" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="17"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="10"/>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17" t="s">
+      <c r="I41" s="28"/>
+      <c r="J41" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="17"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="32"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="27" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="37"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="30"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="33"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="31"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="38"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="43"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -1960,134 +2101,134 @@
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="24" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="9"/>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="24" t="s">
+      <c r="I46" s="32"/>
+      <c r="J46" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="25"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="24" t="s">
+      <c r="B47" s="32"/>
+      <c r="C47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="9"/>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="24" t="s">
+      <c r="I47" s="32"/>
+      <c r="J47" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K47" s="25"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="24" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="H48" s="18" t="s">
+      <c r="D48" s="34"/>
+      <c r="H48" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="24" t="s">
+      <c r="I48" s="32"/>
+      <c r="J48" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="25"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="24" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="H49" s="18" t="s">
+      <c r="D49" s="34"/>
+      <c r="H49" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="19"/>
-      <c r="J49" s="24" t="s">
+      <c r="I49" s="32"/>
+      <c r="J49" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="25"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="H50" s="20" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="H50" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="H51" s="21" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="H51" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="H52" s="20" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="H52" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="H53" s="17" t="s">
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="H53" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -2119,7 +2260,7 @@
       <c r="A55" s="6">
         <v>1</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2131,7 +2272,7 @@
       <c r="H55" s="6">
         <v>1</v>
       </c>
-      <c r="I55" s="37" t="s">
+      <c r="I55" s="18" t="s">
         <v>73</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -2141,17 +2282,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="18" t="s">
         <v>71</v>
       </c>
       <c r="H56" s="6">
@@ -2160,10 +2301,10 @@
       <c r="I56" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J56" s="37" t="s">
+      <c r="J56" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K56" s="37" t="s">
+      <c r="K56" s="18" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2247,213 +2388,213 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="H60" s="20" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="H60" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="28"/>
+      <c r="C61" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="H61" s="16" t="s">
+      <c r="D61" s="27"/>
+      <c r="H61" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="17" t="s">
+      <c r="I61" s="28"/>
+      <c r="J61" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="17"/>
+      <c r="K61" s="27"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17" t="s">
+      <c r="B62" s="28"/>
+      <c r="C62" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="17"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="10"/>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="17" t="s">
+      <c r="I62" s="28"/>
+      <c r="J62" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="17"/>
+      <c r="K62" s="27"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="32"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="27" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="37"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="30"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="42"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="33"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="31"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="38"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="43"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="24" t="s">
+      <c r="B67" s="32"/>
+      <c r="C67" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="25"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="9"/>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="19"/>
-      <c r="J67" s="24" t="s">
+      <c r="I67" s="32"/>
+      <c r="J67" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="25"/>
+      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="24" t="s">
+      <c r="B68" s="32"/>
+      <c r="C68" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="25"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="9"/>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="24" t="s">
+      <c r="I68" s="32"/>
+      <c r="J68" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K68" s="25"/>
+      <c r="K68" s="34"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="24" t="s">
+      <c r="B69" s="32"/>
+      <c r="C69" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="H69" s="18" t="s">
+      <c r="D69" s="34"/>
+      <c r="H69" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="19"/>
-      <c r="J69" s="24" t="s">
+      <c r="I69" s="32"/>
+      <c r="J69" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="25"/>
+      <c r="K69" s="34"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="24" t="s">
+      <c r="B70" s="32"/>
+      <c r="C70" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="H70" s="18" t="s">
+      <c r="D70" s="34"/>
+      <c r="H70" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="19"/>
-      <c r="J70" s="24" t="s">
+      <c r="I70" s="32"/>
+      <c r="J70" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K70" s="25"/>
+      <c r="K70" s="34"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="H71" s="20" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="H71" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
     </row>
     <row r="72" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="H72" s="21" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="H72" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="23"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="41"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="H73" s="20" t="s">
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="H73" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
     </row>
     <row r="74" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="H74" s="21" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
+      <c r="H74" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="23"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="41"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -2485,7 +2626,7 @@
       <c r="A76" s="6">
         <v>1</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2497,7 +2638,7 @@
       <c r="H76" s="6">
         <v>1</v>
       </c>
-      <c r="I76" s="37" t="s">
+      <c r="I76" s="18" t="s">
         <v>77</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -2511,7 +2652,7 @@
       <c r="A77" s="6">
         <v>2</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2523,7 +2664,7 @@
       <c r="H77" s="6">
         <v>2</v>
       </c>
-      <c r="I77" s="37" t="s">
+      <c r="I77" s="18" t="s">
         <v>78</v>
       </c>
       <c r="J77" s="2" t="s">
@@ -2540,10 +2681,10 @@
       <c r="B78" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="18" t="s">
         <v>79</v>
       </c>
       <c r="H78" s="6">
@@ -2552,10 +2693,10 @@
       <c r="I78" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J78" s="37" t="s">
+      <c r="J78" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K78" s="37" t="s">
+      <c r="K78" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2612,210 +2753,210 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="H81" s="20" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="H81" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17" t="s">
+      <c r="B82" s="28"/>
+      <c r="C82" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="H82" s="16" t="s">
+      <c r="D82" s="27"/>
+      <c r="H82" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="16"/>
-      <c r="J82" s="17" t="s">
+      <c r="I82" s="28"/>
+      <c r="J82" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K82" s="17"/>
+      <c r="K82" s="27"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17" t="s">
+      <c r="B83" s="28"/>
+      <c r="C83" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="17"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="10"/>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I83" s="16"/>
-      <c r="J83" s="17" t="s">
+      <c r="I83" s="28"/>
+      <c r="J83" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="17"/>
+      <c r="K83" s="27"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="32"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="27" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="37"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="30"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="33"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="31"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="38"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="43"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="24" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="25"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="9"/>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="24" t="s">
+      <c r="I88" s="32"/>
+      <c r="J88" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K88" s="25"/>
+      <c r="K88" s="34"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="24" t="s">
+      <c r="B89" s="32"/>
+      <c r="C89" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="25"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="9"/>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="19"/>
-      <c r="J89" s="24" t="s">
+      <c r="I89" s="32"/>
+      <c r="J89" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K89" s="25"/>
+      <c r="K89" s="34"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="24" t="s">
+      <c r="B90" s="32"/>
+      <c r="C90" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="25"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="9"/>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I90" s="19"/>
-      <c r="J90" s="24" t="s">
+      <c r="I90" s="32"/>
+      <c r="J90" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K90" s="25"/>
+      <c r="K90" s="34"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="24" t="s">
+      <c r="B91" s="32"/>
+      <c r="C91" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="H91" s="18" t="s">
+      <c r="D91" s="34"/>
+      <c r="H91" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I91" s="19"/>
-      <c r="J91" s="24" t="s">
+      <c r="I91" s="32"/>
+      <c r="J91" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K91" s="25"/>
+      <c r="K91" s="34"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="H92" s="20" t="s">
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="H92" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
     </row>
     <row r="93" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="H94" s="20" t="s">
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="H94" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
     </row>
     <row r="95" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -2847,7 +2988,7 @@
       <c r="A97" s="6">
         <v>1</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2867,7 +3008,7 @@
       <c r="A98" s="6">
         <v>2</v>
       </c>
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2890,10 +3031,10 @@
       <c r="B99" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C99" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D99" s="37" t="s">
+      <c r="D99" s="18" t="s">
         <v>99</v>
       </c>
       <c r="H99" s="6">
@@ -2944,213 +3085,213 @@
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="H102" s="20" t="s">
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="H102" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17" t="s">
+      <c r="B103" s="28"/>
+      <c r="C103" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="10"/>
-      <c r="H103" s="16" t="s">
+      <c r="H103" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="16"/>
-      <c r="J103" s="17" t="s">
+      <c r="I103" s="28"/>
+      <c r="J103" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K103" s="17"/>
+      <c r="K103" s="27"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17" t="s">
+      <c r="B104" s="28"/>
+      <c r="C104" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="17"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="10"/>
-      <c r="H104" s="16" t="s">
+      <c r="H104" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="16"/>
-      <c r="J104" s="17" t="s">
+      <c r="I104" s="28"/>
+      <c r="J104" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="17"/>
+      <c r="K104" s="27"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="32"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="27" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="37"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="30"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="42"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="33"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="31"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="38"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="43"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="24" t="s">
+      <c r="B108" s="32"/>
+      <c r="C108" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="25"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="9"/>
-      <c r="H108" s="18" t="s">
+      <c r="H108" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I108" s="19"/>
-      <c r="J108" s="24" t="s">
+      <c r="I108" s="32"/>
+      <c r="J108" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K108" s="25"/>
+      <c r="K108" s="34"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="24" t="s">
+      <c r="B109" s="32"/>
+      <c r="C109" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="25"/>
-      <c r="H109" s="18" t="s">
+      <c r="D109" s="34"/>
+      <c r="H109" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I109" s="19"/>
-      <c r="J109" s="24" t="s">
+      <c r="I109" s="32"/>
+      <c r="J109" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K109" s="25"/>
+      <c r="K109" s="34"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="24" t="s">
+      <c r="B110" s="32"/>
+      <c r="C110" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="25"/>
-      <c r="H110" s="18" t="s">
+      <c r="D110" s="34"/>
+      <c r="H110" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I110" s="19"/>
-      <c r="J110" s="24" t="s">
+      <c r="I110" s="32"/>
+      <c r="J110" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K110" s="25"/>
+      <c r="K110" s="34"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="24" t="s">
+      <c r="B111" s="32"/>
+      <c r="C111" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="25"/>
-      <c r="H111" s="18" t="s">
+      <c r="D111" s="34"/>
+      <c r="H111" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I111" s="19"/>
-      <c r="J111" s="24" t="s">
+      <c r="I111" s="32"/>
+      <c r="J111" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K111" s="25"/>
+      <c r="K111" s="34"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="H112" s="20" t="s">
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="H112" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
     </row>
     <row r="113" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="H113" s="21" t="s">
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="H113" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="23"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="41"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="H114" s="20" t="s">
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="H114" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
     </row>
     <row r="115" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="23"/>
-      <c r="H115" s="17" t="s">
+      <c r="B115" s="40"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="41"/>
+      <c r="H115" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
@@ -3182,7 +3323,7 @@
       <c r="A117" s="12">
         <v>1</v>
       </c>
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -3194,7 +3335,7 @@
       <c r="H117" s="12">
         <v>1</v>
       </c>
-      <c r="I117" s="37" t="s">
+      <c r="I117" s="18" t="s">
         <v>109</v>
       </c>
       <c r="J117" s="2" t="s">
@@ -3208,7 +3349,7 @@
       <c r="A118" s="12">
         <v>2</v>
       </c>
-      <c r="B118" s="41" t="s">
+      <c r="B118" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3237,10 +3378,10 @@
       <c r="B119" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="37" t="s">
+      <c r="C119" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D119" s="37" t="s">
+      <c r="D119" s="18" t="s">
         <v>104</v>
       </c>
       <c r="H119" s="12">
@@ -3249,10 +3390,10 @@
       <c r="I119" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J119" s="37" t="s">
+      <c r="J119" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K119" s="37" t="s">
+      <c r="K119" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3309,56 +3450,56 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="H122" s="20" t="s">
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="H122" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="17" t="s">
+      <c r="B123" s="28"/>
+      <c r="C123" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="17"/>
+      <c r="D123" s="27"/>
       <c r="E123" s="10"/>
-      <c r="H123" s="16" t="s">
+      <c r="H123" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="16"/>
-      <c r="J123" s="17" t="s">
+      <c r="I123" s="28"/>
+      <c r="J123" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K123" s="17"/>
+      <c r="K123" s="27"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="17" t="s">
+      <c r="B124" s="28"/>
+      <c r="C124" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="17"/>
+      <c r="D124" s="27"/>
       <c r="E124" s="10"/>
-      <c r="H124" s="16" t="s">
+      <c r="H124" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I124" s="16"/>
-      <c r="J124" s="17" t="s">
+      <c r="I124" s="28"/>
+      <c r="J124" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K124" s="17"/>
+      <c r="K124" s="27"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
@@ -3367,168 +3508,168 @@
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="s">
+      <c r="A126" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="32"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="26" t="s">
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="37"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="32"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="37"/>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="28"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="33"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="29"/>
-      <c r="K127" s="29"/>
-      <c r="L127" s="33"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="38"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="38"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="24" t="s">
+      <c r="B129" s="32"/>
+      <c r="C129" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="25"/>
+      <c r="D129" s="34"/>
       <c r="E129" s="9"/>
-      <c r="H129" s="18" t="s">
+      <c r="H129" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I129" s="19"/>
-      <c r="J129" s="24" t="s">
+      <c r="I129" s="32"/>
+      <c r="J129" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K129" s="25"/>
+      <c r="K129" s="34"/>
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="24" t="s">
+      <c r="B130" s="32"/>
+      <c r="C130" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D130" s="25"/>
+      <c r="D130" s="34"/>
       <c r="E130" s="9"/>
-      <c r="H130" s="18" t="s">
+      <c r="H130" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I130" s="19"/>
-      <c r="J130" s="24" t="s">
+      <c r="I130" s="32"/>
+      <c r="J130" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K130" s="25"/>
+      <c r="K130" s="34"/>
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="24" t="s">
+      <c r="B131" s="32"/>
+      <c r="C131" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="25"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="9"/>
-      <c r="H131" s="18" t="s">
+      <c r="H131" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I131" s="19"/>
-      <c r="J131" s="24" t="s">
+      <c r="I131" s="32"/>
+      <c r="J131" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K131" s="25"/>
+      <c r="K131" s="34"/>
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="24" t="s">
+      <c r="B132" s="32"/>
+      <c r="C132" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D132" s="25"/>
-      <c r="H132" s="18" t="s">
+      <c r="D132" s="34"/>
+      <c r="H132" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I132" s="19"/>
-      <c r="J132" s="24" t="s">
+      <c r="I132" s="32"/>
+      <c r="J132" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K132" s="25"/>
+      <c r="K132" s="34"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="H133" s="20" t="s">
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="H133" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
     </row>
     <row r="134" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="H134" s="21" t="s">
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="H134" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="23"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="41"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="H135" s="20" t="s">
+      <c r="B135" s="26"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
+      <c r="H135" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
     </row>
     <row r="136" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="H136" s="17" t="s">
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="H136" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-      <c r="K136" s="17"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -3560,7 +3701,7 @@
       <c r="A138" s="12">
         <v>1</v>
       </c>
-      <c r="B138" s="37" t="s">
+      <c r="B138" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -3570,7 +3711,7 @@
         <v>38</v>
       </c>
       <c r="H138" s="12"/>
-      <c r="I138" s="37" t="s">
+      <c r="I138" s="18" t="s">
         <v>116</v>
       </c>
       <c r="J138" s="2" t="s">
@@ -3584,7 +3725,7 @@
       <c r="A139" s="12">
         <v>2</v>
       </c>
-      <c r="B139" s="37" t="s">
+      <c r="B139" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -3596,7 +3737,7 @@
       <c r="H139" s="12">
         <v>2</v>
       </c>
-      <c r="I139" s="37" t="s">
+      <c r="I139" s="18" t="s">
         <v>117</v>
       </c>
       <c r="J139" s="2" t="s">
@@ -3610,7 +3751,7 @@
       <c r="A140" s="12">
         <v>3</v>
       </c>
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -3622,7 +3763,7 @@
       <c r="H140" s="12">
         <v>3</v>
       </c>
-      <c r="I140" s="37" t="s">
+      <c r="I140" s="18" t="s">
         <v>118</v>
       </c>
       <c r="J140" s="2" t="s">
@@ -3639,16 +3780,16 @@
       <c r="B141" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C141" s="37" t="s">
+      <c r="C141" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D141" s="37" t="s">
+      <c r="D141" s="18" t="s">
         <v>104</v>
       </c>
       <c r="H141" s="12">
         <v>4</v>
       </c>
-      <c r="I141" s="37" t="s">
+      <c r="I141" s="18" t="s">
         <v>119</v>
       </c>
       <c r="J141" s="2" t="s">
@@ -3674,229 +3815,229 @@
       <c r="H142" s="12">
         <v>5</v>
       </c>
-      <c r="I142" s="37" t="s">
+      <c r="I142" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J142" s="37" t="s">
+      <c r="J142" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K142" s="37" t="s">
+      <c r="K142" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="H143" s="20" t="s">
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="H143" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="16" t="s">
+      <c r="A144" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="16"/>
-      <c r="C144" s="17" t="s">
+      <c r="B144" s="28"/>
+      <c r="C144" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="17"/>
+      <c r="D144" s="27"/>
       <c r="E144" s="10"/>
-      <c r="H144" s="16" t="s">
+      <c r="H144" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="16"/>
-      <c r="J144" s="17" t="s">
+      <c r="I144" s="28"/>
+      <c r="J144" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="K144" s="17"/>
+      <c r="K144" s="27"/>
       <c r="L144" s="10"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="16" t="s">
+      <c r="A145" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B145" s="16"/>
-      <c r="C145" s="17" t="s">
+      <c r="B145" s="28"/>
+      <c r="C145" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D145" s="17"/>
+      <c r="D145" s="27"/>
       <c r="E145" s="10"/>
-      <c r="H145" s="16" t="s">
+      <c r="H145" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I145" s="16"/>
-      <c r="J145" s="17" t="s">
+      <c r="I145" s="28"/>
+      <c r="J145" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K145" s="17"/>
+      <c r="K145" s="27"/>
       <c r="L145" s="10"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="26" t="s">
+      <c r="A147" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="26" t="s">
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="32"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="37"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="28"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="29"/>
-      <c r="L148" s="33"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="38"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="38"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="24" t="s">
+      <c r="B150" s="32"/>
+      <c r="C150" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="25"/>
+      <c r="D150" s="34"/>
       <c r="E150" s="9"/>
-      <c r="H150" s="18" t="s">
+      <c r="H150" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I150" s="19"/>
-      <c r="J150" s="24" t="s">
+      <c r="I150" s="32"/>
+      <c r="J150" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K150" s="25"/>
+      <c r="K150" s="34"/>
       <c r="L150" s="9"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="19"/>
-      <c r="C151" s="24" t="s">
+      <c r="B151" s="32"/>
+      <c r="C151" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="25"/>
+      <c r="D151" s="34"/>
       <c r="E151" s="9"/>
-      <c r="H151" s="18" t="s">
+      <c r="H151" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I151" s="19"/>
-      <c r="J151" s="24" t="s">
+      <c r="I151" s="32"/>
+      <c r="J151" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K151" s="25"/>
+      <c r="K151" s="34"/>
       <c r="L151" s="9"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="24" t="s">
+      <c r="B152" s="32"/>
+      <c r="C152" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D152" s="25"/>
+      <c r="D152" s="34"/>
       <c r="E152" s="9"/>
-      <c r="H152" s="18" t="s">
+      <c r="H152" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I152" s="19"/>
-      <c r="J152" s="24" t="s">
+      <c r="I152" s="32"/>
+      <c r="J152" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K152" s="25"/>
+      <c r="K152" s="34"/>
       <c r="L152" s="9"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="24"/>
-      <c r="D153" s="25"/>
-      <c r="H153" s="18" t="s">
+      <c r="B153" s="32"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="34"/>
+      <c r="H153" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I153" s="19"/>
-      <c r="J153" s="24"/>
-      <c r="K153" s="25"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="34"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
+      <c r="A154" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="H154" s="20" t="s">
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="H154" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="26"/>
     </row>
     <row r="155" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="H155" s="21" t="s">
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="H155" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I155" s="22"/>
-      <c r="J155" s="22"/>
-      <c r="K155" s="23"/>
+      <c r="I155" s="40"/>
+      <c r="J155" s="40"/>
+      <c r="K155" s="41"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
+      <c r="A156" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="20"/>
-      <c r="H156" s="20" t="s">
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="H156" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I156" s="20"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
     </row>
     <row r="157" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="H157" s="21" t="s">
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="H157" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="I157" s="22"/>
-      <c r="J157" s="22"/>
-      <c r="K157" s="23"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="41"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
@@ -3928,7 +4069,7 @@
       <c r="A159" s="12">
         <v>1</v>
       </c>
-      <c r="B159" s="37" t="s">
+      <c r="B159" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -3940,7 +4081,7 @@
       <c r="H159" s="12">
         <v>1</v>
       </c>
-      <c r="I159" s="37" t="s">
+      <c r="I159" s="18" t="s">
         <v>131</v>
       </c>
       <c r="J159" s="2" t="s">
@@ -3954,7 +4095,7 @@
       <c r="A160" s="12">
         <v>2</v>
       </c>
-      <c r="B160" s="37" t="s">
+      <c r="B160" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -3966,7 +4107,7 @@
       <c r="H160" s="12">
         <v>2</v>
       </c>
-      <c r="I160" s="37" t="s">
+      <c r="I160" s="18" t="s">
         <v>97</v>
       </c>
       <c r="J160" s="2" t="s">
@@ -3980,7 +4121,7 @@
       <c r="A161" s="12">
         <v>3</v>
       </c>
-      <c r="B161" s="37" t="s">
+      <c r="B161" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -3992,7 +4133,7 @@
       <c r="H161" s="12">
         <v>3</v>
       </c>
-      <c r="I161" s="37" t="s">
+      <c r="I161" s="18" t="s">
         <v>132</v>
       </c>
       <c r="J161" s="2" t="s">
@@ -4006,7 +4147,7 @@
       <c r="A162" s="12">
         <v>4</v>
       </c>
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -4018,7 +4159,7 @@
       <c r="H162" s="12">
         <v>4</v>
       </c>
-      <c r="I162" s="37" t="s">
+      <c r="I162" s="18" t="s">
         <v>127</v>
       </c>
       <c r="J162" s="2" t="s">
@@ -4032,245 +4173,245 @@
       <c r="A163" s="12">
         <v>5</v>
       </c>
-      <c r="B163" s="37" t="s">
+      <c r="B163" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C163" s="37" t="s">
+      <c r="C163" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D163" s="37" t="s">
+      <c r="D163" s="18" t="s">
         <v>128</v>
       </c>
       <c r="H163" s="12">
         <v>5</v>
       </c>
-      <c r="I163" s="37" t="s">
+      <c r="I163" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J163" s="37" t="s">
+      <c r="J163" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="K163" s="37" t="s">
+      <c r="K163" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
-      <c r="H164" s="20" t="s">
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="H164" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="20"/>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="26"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="16" t="s">
+      <c r="A165" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="16"/>
-      <c r="C165" s="17" t="s">
+      <c r="B165" s="28"/>
+      <c r="C165" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D165" s="17"/>
+      <c r="D165" s="27"/>
       <c r="E165" s="10"/>
-      <c r="H165" s="16" t="s">
+      <c r="H165" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I165" s="16"/>
-      <c r="J165" s="17" t="s">
+      <c r="I165" s="28"/>
+      <c r="J165" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K165" s="17"/>
+      <c r="K165" s="27"/>
       <c r="L165" s="10"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="16" t="s">
+      <c r="A166" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="16"/>
-      <c r="C166" s="17" t="s">
+      <c r="B166" s="28"/>
+      <c r="C166" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D166" s="17"/>
+      <c r="D166" s="27"/>
       <c r="E166" s="10"/>
-      <c r="H166" s="16" t="s">
+      <c r="H166" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I166" s="16"/>
-      <c r="J166" s="17" t="s">
+      <c r="I166" s="28"/>
+      <c r="J166" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K166" s="17"/>
+      <c r="K166" s="27"/>
       <c r="L166" s="10"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="26" t="s">
+      <c r="A168" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B168" s="27"/>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="26" t="s">
+      <c r="B168" s="29"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="37"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="32"/>
+      <c r="I168" s="29"/>
+      <c r="J168" s="29"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="37"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="33"/>
-      <c r="G169" s="33"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="29"/>
-      <c r="J169" s="29"/>
-      <c r="K169" s="29"/>
-      <c r="L169" s="33"/>
+      <c r="A169" s="36"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="38"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="38"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
+      <c r="A171" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="19"/>
-      <c r="C171" s="24" t="s">
+      <c r="B171" s="32"/>
+      <c r="C171" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="25"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="9"/>
-      <c r="H171" s="18" t="s">
+      <c r="H171" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I171" s="19"/>
-      <c r="J171" s="24" t="s">
+      <c r="I171" s="32"/>
+      <c r="J171" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K171" s="25"/>
+      <c r="K171" s="34"/>
       <c r="L171" s="9"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
+      <c r="A172" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="19"/>
-      <c r="C172" s="24" t="s">
+      <c r="B172" s="32"/>
+      <c r="C172" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="25"/>
+      <c r="D172" s="34"/>
       <c r="E172" s="9"/>
-      <c r="H172" s="18" t="s">
+      <c r="H172" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I172" s="19"/>
-      <c r="J172" s="24" t="s">
+      <c r="I172" s="32"/>
+      <c r="J172" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K172" s="25"/>
+      <c r="K172" s="34"/>
       <c r="L172" s="9"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
+      <c r="A173" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="19"/>
-      <c r="C173" s="24" t="s">
+      <c r="B173" s="32"/>
+      <c r="C173" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D173" s="25"/>
+      <c r="D173" s="34"/>
       <c r="E173" s="9"/>
-      <c r="H173" s="18" t="s">
+      <c r="H173" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I173" s="19"/>
-      <c r="J173" s="24" t="s">
+      <c r="I173" s="32"/>
+      <c r="J173" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K173" s="25"/>
+      <c r="K173" s="34"/>
       <c r="L173" s="9"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="19"/>
-      <c r="C174" s="24" t="s">
+      <c r="B174" s="32"/>
+      <c r="C174" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="25"/>
-      <c r="H174" s="18" t="s">
+      <c r="D174" s="34"/>
+      <c r="H174" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I174" s="19"/>
-      <c r="J174" s="24" t="s">
+      <c r="I174" s="32"/>
+      <c r="J174" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K174" s="25"/>
+      <c r="K174" s="34"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="20" t="s">
+      <c r="A175" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="20"/>
-      <c r="H175" s="20" t="s">
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="H175" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="26"/>
     </row>
     <row r="176" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="21" t="s">
+      <c r="A176" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="23"/>
-      <c r="H176" s="21" t="s">
+      <c r="B176" s="40"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="41"/>
+      <c r="H176" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="I176" s="22"/>
-      <c r="J176" s="22"/>
-      <c r="K176" s="23"/>
+      <c r="I176" s="40"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="41"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="H177" s="20" t="s">
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="H177" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I177" s="20"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
     </row>
     <row r="178" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="17" t="s">
+      <c r="A178" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="H178" s="17" t="s">
+      <c r="B178" s="27"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="H178" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
-      <c r="K178" s="17"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
@@ -4302,7 +4443,7 @@
       <c r="A180" s="12">
         <v>1</v>
       </c>
-      <c r="B180" s="37" t="s">
+      <c r="B180" s="18" t="s">
         <v>131</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -4314,7 +4455,7 @@
       <c r="H180" s="12">
         <v>1</v>
       </c>
-      <c r="I180" s="37" t="s">
+      <c r="I180" s="18" t="s">
         <v>139</v>
       </c>
       <c r="J180" s="2" t="s">
@@ -4328,7 +4469,7 @@
       <c r="A181" s="12">
         <v>2</v>
       </c>
-      <c r="B181" s="37" t="s">
+      <c r="B181" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -4340,7 +4481,7 @@
       <c r="H181" s="12">
         <v>2</v>
       </c>
-      <c r="I181" s="37" t="s">
+      <c r="I181" s="18" t="s">
         <v>140</v>
       </c>
       <c r="J181" s="2" t="s">
@@ -4354,7 +4495,7 @@
       <c r="A182" s="12">
         <v>3</v>
       </c>
-      <c r="B182" s="37" t="s">
+      <c r="B182" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -4380,7 +4521,7 @@
       <c r="A183" s="12">
         <v>4</v>
       </c>
-      <c r="B183" s="37" t="s">
+      <c r="B183" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -4392,7 +4533,7 @@
       <c r="H183" s="12">
         <v>4</v>
       </c>
-      <c r="I183" s="37" t="s">
+      <c r="I183" s="18" t="s">
         <v>127</v>
       </c>
       <c r="J183" s="2" t="s">
@@ -4406,243 +4547,247 @@
       <c r="A184" s="12">
         <v>5</v>
       </c>
-      <c r="B184" s="37" t="s">
+      <c r="B184" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C184" s="37" t="s">
+      <c r="C184" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D184" s="37" t="s">
+      <c r="D184" s="18" t="s">
         <v>128</v>
       </c>
       <c r="H184" s="12">
         <v>5</v>
       </c>
-      <c r="I184" s="37" t="s">
+      <c r="I184" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J184" s="37" t="s">
+      <c r="J184" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="K184" s="37" t="s">
+      <c r="K184" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="20" t="s">
+      <c r="A185" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B185" s="20"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="20"/>
-      <c r="H185" s="20" t="s">
+      <c r="B185" s="26"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="H185" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I185" s="20"/>
-      <c r="J185" s="20"/>
-      <c r="K185" s="20"/>
+      <c r="I185" s="26"/>
+      <c r="J185" s="26"/>
+      <c r="K185" s="26"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="16" t="s">
+      <c r="A186" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="16"/>
-      <c r="C186" s="17" t="s">
+      <c r="B186" s="28"/>
+      <c r="C186" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D186" s="17"/>
+      <c r="D186" s="27"/>
       <c r="E186" s="10"/>
-      <c r="H186" s="16" t="s">
+      <c r="H186" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I186" s="16"/>
-      <c r="J186" s="17" t="s">
+      <c r="I186" s="28"/>
+      <c r="J186" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K186" s="17"/>
+      <c r="K186" s="27"/>
       <c r="L186" s="10"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B187" s="16"/>
-      <c r="C187" s="17" t="s">
+      <c r="B187" s="28"/>
+      <c r="C187" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D187" s="17"/>
+      <c r="D187" s="27"/>
       <c r="E187" s="10"/>
-      <c r="H187" s="16" t="s">
+      <c r="H187" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I187" s="16"/>
-      <c r="J187" s="17" t="s">
+      <c r="I187" s="28"/>
+      <c r="J187" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K187" s="17"/>
+      <c r="K187" s="27"/>
       <c r="L187" s="10"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="26" t="s">
+      <c r="A189" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B189" s="27"/>
-      <c r="C189" s="27"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="32"/>
-      <c r="H189" s="26" t="s">
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="37"/>
+      <c r="F189" s="47"/>
+      <c r="G189" s="24"/>
+      <c r="H189" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
-      <c r="L189" s="32"/>
+      <c r="I189" s="29"/>
+      <c r="J189" s="29"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="37"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="28"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="33"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="29"/>
-      <c r="J190" s="29"/>
-      <c r="K190" s="29"/>
-      <c r="L190" s="33"/>
+      <c r="A190" s="36"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="38"/>
+      <c r="F190" s="47"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
+      <c r="K190" s="30"/>
+      <c r="L190" s="38"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="18" t="s">
+      <c r="A192" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="19"/>
-      <c r="C192" s="24" t="s">
+      <c r="B192" s="32"/>
+      <c r="C192" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="25"/>
+      <c r="D192" s="34"/>
       <c r="E192" s="9"/>
-      <c r="H192" s="18" t="s">
+      <c r="H192" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I192" s="19"/>
-      <c r="J192" s="24" t="s">
+      <c r="I192" s="32"/>
+      <c r="J192" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K192" s="25"/>
+      <c r="K192" s="34"/>
       <c r="L192" s="9"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="18" t="s">
+      <c r="A193" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="19"/>
-      <c r="C193" s="24" t="s">
+      <c r="B193" s="32"/>
+      <c r="C193" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D193" s="25"/>
+      <c r="D193" s="34"/>
       <c r="E193" s="9"/>
-      <c r="H193" s="18" t="s">
+      <c r="H193" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I193" s="19"/>
-      <c r="J193" s="24" t="s">
+      <c r="I193" s="32"/>
+      <c r="J193" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K193" s="25"/>
+      <c r="K193" s="34"/>
       <c r="L193" s="9"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="18" t="s">
+      <c r="A194" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="19"/>
-      <c r="C194" s="24" t="s">
+      <c r="B194" s="32"/>
+      <c r="C194" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D194" s="25"/>
+      <c r="D194" s="34"/>
       <c r="E194" s="9"/>
-      <c r="H194" s="18" t="s">
+      <c r="H194" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I194" s="19"/>
-      <c r="J194" s="24" t="s">
+      <c r="I194" s="32"/>
+      <c r="J194" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K194" s="25"/>
+      <c r="K194" s="34"/>
       <c r="L194" s="9"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="18" t="s">
+      <c r="A195" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="19"/>
-      <c r="C195" s="24" t="s">
+      <c r="B195" s="32"/>
+      <c r="C195" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="D195" s="25"/>
-      <c r="H195" s="18" t="s">
+      <c r="D195" s="34"/>
+      <c r="H195" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I195" s="19"/>
-      <c r="J195" s="24" t="s">
+      <c r="I195" s="32"/>
+      <c r="J195" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="K195" s="25"/>
+      <c r="K195" s="34"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="20" t="s">
+      <c r="A196" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="20"/>
-      <c r="C196" s="20"/>
-      <c r="D196" s="20"/>
-      <c r="H196" s="20" t="s">
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="H196" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I196" s="20"/>
-      <c r="J196" s="20"/>
-      <c r="K196" s="20"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
+      <c r="K196" s="26"/>
     </row>
     <row r="197" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="17" t="s">
+      <c r="A197" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="H197" s="17" t="s">
+      <c r="B197" s="27"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="27"/>
+      <c r="H197" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="I197" s="17"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="17"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="27"/>
+      <c r="K197" s="27"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="20" t="s">
+      <c r="A198" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="20"/>
-      <c r="H198" s="20" t="s">
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="H198" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I198" s="20"/>
-      <c r="J198" s="20"/>
-      <c r="K198" s="20"/>
+      <c r="I198" s="26"/>
+      <c r="J198" s="26"/>
+      <c r="K198" s="26"/>
     </row>
     <row r="199" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="17" t="s">
+      <c r="A199" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="H199" s="17" t="s">
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="H199" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="I199" s="17"/>
-      <c r="J199" s="17"/>
-      <c r="K199" s="17"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="27"/>
+      <c r="K199" s="27"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
@@ -4674,7 +4819,7 @@
       <c r="A201" s="12">
         <v>1</v>
       </c>
-      <c r="B201" s="37" t="s">
+      <c r="B201" s="18" t="s">
         <v>146</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -4686,13 +4831,13 @@
       <c r="H201" s="12">
         <v>1</v>
       </c>
-      <c r="I201" s="37" t="s">
+      <c r="I201" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="J201" s="37" t="s">
+      <c r="J201" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="K201" s="37" t="s">
+      <c r="K201" s="18" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4700,13 +4845,13 @@
       <c r="A202" s="12">
         <v>2</v>
       </c>
-      <c r="B202" s="37" t="s">
+      <c r="B202" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C202" s="37" t="s">
+      <c r="C202" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D202" s="37" t="s">
+      <c r="D202" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H202" s="12">
@@ -4801,220 +4946,224 @@
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="20" t="s">
+      <c r="A206" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="20"/>
-      <c r="H206" s="20" t="s">
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="H206" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I206" s="20"/>
-      <c r="J206" s="20"/>
-      <c r="K206" s="20"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="26"/>
+      <c r="K206" s="26"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="16" t="s">
+      <c r="A207" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B207" s="16"/>
-      <c r="C207" s="17" t="s">
+      <c r="B207" s="28"/>
+      <c r="C207" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D207" s="17"/>
+      <c r="D207" s="27"/>
       <c r="E207" s="10"/>
-      <c r="H207" s="16" t="s">
+      <c r="H207" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I207" s="16"/>
-      <c r="J207" s="17" t="s">
+      <c r="I207" s="28"/>
+      <c r="J207" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K207" s="17"/>
+      <c r="K207" s="27"/>
       <c r="L207" s="10"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="16" t="s">
+      <c r="A208" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="16"/>
-      <c r="C208" s="17" t="s">
+      <c r="B208" s="28"/>
+      <c r="C208" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D208" s="17"/>
+      <c r="D208" s="27"/>
       <c r="E208" s="10"/>
-      <c r="H208" s="16" t="s">
+      <c r="H208" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I208" s="16"/>
-      <c r="J208" s="17" t="s">
+      <c r="I208" s="28"/>
+      <c r="J208" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K208" s="17"/>
+      <c r="K208" s="27"/>
       <c r="L208" s="10"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="26" t="s">
+      <c r="A210" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B210" s="27"/>
-      <c r="C210" s="27"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="32"/>
-      <c r="H210" s="26" t="s">
+      <c r="B210" s="29"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="37"/>
+      <c r="F210" s="47"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I210" s="27"/>
-      <c r="J210" s="27"/>
-      <c r="K210" s="27"/>
-      <c r="L210" s="32"/>
+      <c r="I210" s="29"/>
+      <c r="J210" s="29"/>
+      <c r="K210" s="29"/>
+      <c r="L210" s="37"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="28"/>
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="29"/>
-      <c r="E211" s="33"/>
-      <c r="H211" s="28"/>
-      <c r="I211" s="29"/>
-      <c r="J211" s="29"/>
-      <c r="K211" s="29"/>
-      <c r="L211" s="33"/>
+      <c r="A211" s="36"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="38"/>
+      <c r="F211" s="47"/>
+      <c r="G211" s="25"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="30"/>
+      <c r="K211" s="30"/>
+      <c r="L211" s="38"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="18" t="s">
+      <c r="A213" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="19"/>
-      <c r="C213" s="24" t="s">
+      <c r="B213" s="32"/>
+      <c r="C213" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D213" s="25"/>
+      <c r="D213" s="34"/>
       <c r="E213" s="9"/>
-      <c r="H213" s="18" t="s">
+      <c r="H213" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I213" s="19"/>
-      <c r="J213" s="24" t="s">
+      <c r="I213" s="32"/>
+      <c r="J213" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K213" s="25"/>
+      <c r="K213" s="34"/>
       <c r="L213" s="9"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="18" t="s">
+      <c r="A214" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="19"/>
-      <c r="C214" s="24" t="s">
+      <c r="B214" s="32"/>
+      <c r="C214" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D214" s="25"/>
+      <c r="D214" s="34"/>
       <c r="E214" s="9"/>
-      <c r="H214" s="18" t="s">
+      <c r="H214" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I214" s="19"/>
-      <c r="J214" s="24" t="s">
+      <c r="I214" s="32"/>
+      <c r="J214" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K214" s="25"/>
+      <c r="K214" s="34"/>
       <c r="L214" s="9"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="18" t="s">
+      <c r="A215" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B215" s="19"/>
-      <c r="C215" s="24" t="s">
+      <c r="B215" s="32"/>
+      <c r="C215" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D215" s="25"/>
+      <c r="D215" s="34"/>
       <c r="E215" s="9"/>
-      <c r="H215" s="18" t="s">
+      <c r="H215" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I215" s="19"/>
-      <c r="J215" s="24" t="s">
+      <c r="I215" s="32"/>
+      <c r="J215" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K215" s="25"/>
+      <c r="K215" s="34"/>
       <c r="L215" s="9"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="18" t="s">
+      <c r="A216" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="19"/>
-      <c r="C216" s="24" t="s">
+      <c r="B216" s="32"/>
+      <c r="C216" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="D216" s="25"/>
-      <c r="H216" s="18" t="s">
+      <c r="D216" s="34"/>
+      <c r="H216" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I216" s="19"/>
-      <c r="J216" s="24" t="s">
+      <c r="I216" s="32"/>
+      <c r="J216" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="K216" s="25"/>
+      <c r="K216" s="34"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="20" t="s">
+      <c r="A217" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="20"/>
-      <c r="C217" s="20"/>
-      <c r="D217" s="20"/>
-      <c r="H217" s="20" t="s">
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="H217" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
-      <c r="K217" s="20"/>
+      <c r="I217" s="26"/>
+      <c r="J217" s="26"/>
+      <c r="K217" s="26"/>
     </row>
     <row r="218" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="21" t="s">
+      <c r="A218" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="23"/>
-      <c r="H218" s="21" t="s">
+      <c r="B218" s="40"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="41"/>
+      <c r="H218" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="I218" s="22"/>
-      <c r="J218" s="22"/>
-      <c r="K218" s="23"/>
+      <c r="I218" s="40"/>
+      <c r="J218" s="40"/>
+      <c r="K218" s="41"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="20" t="s">
+      <c r="A219" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B219" s="20"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="H219" s="20" t="s">
+      <c r="B219" s="26"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="H219" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I219" s="20"/>
-      <c r="J219" s="20"/>
-      <c r="K219" s="20"/>
+      <c r="I219" s="26"/>
+      <c r="J219" s="26"/>
+      <c r="K219" s="26"/>
     </row>
     <row r="220" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="17" t="s">
+      <c r="A220" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B220" s="17"/>
-      <c r="C220" s="17"/>
-      <c r="D220" s="17"/>
-      <c r="H220" s="17" t="s">
+      <c r="B220" s="27"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="27"/>
+      <c r="H220" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I220" s="17"/>
-      <c r="J220" s="17"/>
-      <c r="K220" s="17"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="27"/>
+      <c r="K220" s="27"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
@@ -5042,11 +5191,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>1</v>
       </c>
-      <c r="B222" s="37" t="s">
+      <c r="B222" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -5058,7 +5207,7 @@
       <c r="H222" s="12">
         <v>1</v>
       </c>
-      <c r="I222" s="37" t="s">
+      <c r="I222" s="18" t="s">
         <v>164</v>
       </c>
       <c r="J222" s="2" t="s">
@@ -5068,11 +5217,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>2</v>
       </c>
-      <c r="B223" s="37" t="s">
+      <c r="B223" s="18" t="s">
         <v>155</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -5084,7 +5233,7 @@
       <c r="H223" s="12">
         <v>2</v>
       </c>
-      <c r="I223" s="37" t="s">
+      <c r="I223" s="18" t="s">
         <v>163</v>
       </c>
       <c r="J223" s="2" t="s">
@@ -5098,7 +5247,7 @@
       <c r="A224" s="12">
         <v>3</v>
       </c>
-      <c r="B224" s="37" t="s">
+      <c r="B224" s="18" t="s">
         <v>156</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -5113,10 +5262,10 @@
       <c r="I224" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J224" s="37" t="s">
+      <c r="J224" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K224" s="37" t="s">
+      <c r="K224" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5124,7 +5273,7 @@
       <c r="A225" s="12">
         <v>4</v>
       </c>
-      <c r="B225" s="37" t="s">
+      <c r="B225" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -5153,10 +5302,10 @@
       <c r="B226" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C226" s="37" t="s">
+      <c r="C226" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D226" s="37" t="s">
+      <c r="D226" s="18" t="s">
         <v>161</v>
       </c>
       <c r="H226" s="12">
@@ -5173,205 +5322,217 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="20" t="s">
+      <c r="A227" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B227" s="20"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="20"/>
-      <c r="H227" s="20" t="s">
+      <c r="B227" s="26"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="H227" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I227" s="20"/>
-      <c r="J227" s="20"/>
-      <c r="K227" s="20"/>
+      <c r="I227" s="26"/>
+      <c r="J227" s="26"/>
+      <c r="K227" s="26"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="16" t="s">
+      <c r="A228" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B228" s="16"/>
-      <c r="C228" s="17" t="s">
+      <c r="B228" s="28"/>
+      <c r="C228" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D228" s="17"/>
+      <c r="D228" s="27"/>
       <c r="E228" s="10"/>
-      <c r="H228" s="16" t="s">
+      <c r="H228" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I228" s="16"/>
-      <c r="J228" s="17" t="s">
+      <c r="I228" s="28"/>
+      <c r="J228" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K228" s="17"/>
+      <c r="K228" s="27"/>
       <c r="L228" s="10"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="16" t="s">
+      <c r="A229" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B229" s="16"/>
-      <c r="C229" s="17" t="s">
+      <c r="B229" s="28"/>
+      <c r="C229" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D229" s="17"/>
+      <c r="D229" s="27"/>
       <c r="E229" s="10"/>
-      <c r="H229" s="16" t="s">
+      <c r="H229" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I229" s="16"/>
-      <c r="J229" s="17" t="s">
+      <c r="I229" s="28"/>
+      <c r="J229" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K229" s="17"/>
+      <c r="K229" s="27"/>
       <c r="L229" s="10"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="26" t="s">
+      <c r="A231" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B231" s="27"/>
-      <c r="C231" s="27"/>
-      <c r="D231" s="27"/>
-      <c r="E231" s="32"/>
-      <c r="H231" s="26" t="s">
+      <c r="B231" s="29"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="37"/>
+      <c r="H231" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="I231" s="27"/>
-      <c r="J231" s="27"/>
-      <c r="K231" s="27"/>
+      <c r="I231" s="29"/>
+      <c r="J231" s="29"/>
+      <c r="K231" s="29"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="28"/>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
-      <c r="E232" s="33"/>
-      <c r="H232" s="28"/>
-      <c r="I232" s="29"/>
-      <c r="J232" s="29"/>
-      <c r="K232" s="29"/>
+      <c r="A232" s="36"/>
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="30"/>
+      <c r="E232" s="38"/>
+      <c r="H232" s="36"/>
+      <c r="I232" s="30"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="30"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="18" t="s">
+      <c r="A234" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="19"/>
-      <c r="C234" s="24" t="s">
+      <c r="B234" s="32"/>
+      <c r="C234" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="25"/>
+      <c r="D234" s="34"/>
       <c r="E234" s="9"/>
-      <c r="H234" s="18" t="s">
+      <c r="H234" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I234" s="19"/>
-      <c r="J234" s="24" t="s">
+      <c r="I234" s="32"/>
+      <c r="J234" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K234" s="25"/>
+      <c r="K234" s="34"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="18" t="s">
+      <c r="A235" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B235" s="19"/>
-      <c r="C235" s="24" t="s">
+      <c r="B235" s="32"/>
+      <c r="C235" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D235" s="25"/>
+      <c r="D235" s="34"/>
       <c r="E235" s="9"/>
-      <c r="H235" s="18" t="s">
+      <c r="H235" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I235" s="19"/>
-      <c r="J235" s="24" t="s">
+      <c r="I235" s="32"/>
+      <c r="J235" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K235" s="25"/>
+      <c r="K235" s="34"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="18" t="s">
+      <c r="A236" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B236" s="19"/>
-      <c r="C236" s="24" t="s">
+      <c r="B236" s="32"/>
+      <c r="C236" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D236" s="25"/>
+      <c r="D236" s="34"/>
       <c r="E236" s="9"/>
-      <c r="H236" s="18" t="s">
+      <c r="H236" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I236" s="19"/>
-      <c r="J236" s="24" t="s">
+      <c r="I236" s="32"/>
+      <c r="J236" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K236" s="25"/>
+      <c r="K236" s="34"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="18" t="s">
+      <c r="A237" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="19"/>
-      <c r="C237" s="24"/>
-      <c r="D237" s="25"/>
-      <c r="H237" s="18" t="s">
+      <c r="B237" s="32"/>
+      <c r="C237" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D237" s="34"/>
+      <c r="H237" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I237" s="19"/>
-      <c r="J237" s="24"/>
-      <c r="K237" s="25"/>
+      <c r="I237" s="32"/>
+      <c r="J237" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K237" s="34"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="20"/>
-      <c r="H238" s="20" t="s">
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="26"/>
+      <c r="H238" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I238" s="20"/>
-      <c r="J238" s="20"/>
-      <c r="K238" s="20"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A239" s="17"/>
-      <c r="B239" s="17"/>
-      <c r="C239" s="17"/>
-      <c r="D239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="17"/>
-      <c r="K239" s="17"/>
+      <c r="I238" s="26"/>
+      <c r="J238" s="26"/>
+      <c r="K238" s="26"/>
+    </row>
+    <row r="239" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B239" s="40"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="41"/>
+      <c r="H239" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="I239" s="40"/>
+      <c r="J239" s="40"/>
+      <c r="K239" s="41"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" s="20" t="s">
+      <c r="A240" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="20"/>
-      <c r="H240" s="20" t="s">
+      <c r="B240" s="26"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="H240" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I240" s="20"/>
-      <c r="J240" s="20"/>
-      <c r="K240" s="20"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="17"/>
-      <c r="B241" s="17"/>
-      <c r="C241" s="17"/>
-      <c r="D241" s="17"/>
-      <c r="H241" s="17"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="17"/>
-      <c r="K241" s="17"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I240" s="26"/>
+      <c r="J240" s="26"/>
+      <c r="K240" s="26"/>
+    </row>
+    <row r="241" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B241" s="40"/>
+      <c r="C241" s="40"/>
+      <c r="D241" s="41"/>
+      <c r="H241" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="I241" s="40"/>
+      <c r="J241" s="40"/>
+      <c r="K241" s="41"/>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>7</v>
       </c>
@@ -5397,130 +5558,1520 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>1</v>
       </c>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
+      <c r="B243" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H243" s="12">
         <v>1</v>
       </c>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I243" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>2</v>
       </c>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
+      <c r="B244" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C244" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D244" s="18" t="s">
+        <v>181</v>
+      </c>
       <c r="H244" s="12">
         <v>2</v>
       </c>
-      <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
-      <c r="K244" s="2"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I244" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J244" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K244" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>3</v>
       </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+      <c r="B245" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H245" s="12">
         <v>3</v>
       </c>
-      <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
-      <c r="K245" s="2"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I245" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K245" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>4</v>
       </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
+      <c r="B246" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C246" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D246" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="H246" s="12">
         <v>4</v>
       </c>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I246" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P246" s="23"/>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>5</v>
       </c>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
+      <c r="B247" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H247" s="12">
         <v>5</v>
       </c>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="20" t="s">
+      <c r="I247" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K247" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
-      <c r="D248" s="20"/>
-      <c r="H248" s="20" t="s">
+      <c r="B248" s="26"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="26"/>
+      <c r="H248" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I248" s="20"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="20"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="16" t="s">
+      <c r="I248" s="26"/>
+      <c r="J248" s="26"/>
+      <c r="K248" s="26"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B249" s="16"/>
-      <c r="C249" s="17" t="s">
+      <c r="B249" s="28"/>
+      <c r="C249" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D249" s="27"/>
+      <c r="E249" s="10"/>
+      <c r="H249" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I249" s="28"/>
+      <c r="J249" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D249" s="17"/>
-      <c r="E249" s="10"/>
-      <c r="H249" s="16" t="s">
+      <c r="K249" s="27"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A250" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" s="28"/>
+      <c r="C250" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D250" s="27"/>
+      <c r="E250" s="10"/>
+      <c r="H250" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I250" s="28"/>
+      <c r="J250" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="K250" s="27"/>
+    </row>
+    <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B253" s="29"/>
+      <c r="C253" s="29"/>
+      <c r="D253" s="29"/>
+      <c r="E253" s="37"/>
+      <c r="F253" s="47"/>
+      <c r="G253" s="24"/>
+      <c r="H253" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I253" s="29"/>
+      <c r="J253" s="29"/>
+      <c r="K253" s="29"/>
+    </row>
+    <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="36"/>
+      <c r="B254" s="30"/>
+      <c r="C254" s="30"/>
+      <c r="D254" s="30"/>
+      <c r="E254" s="38"/>
+      <c r="F254" s="47"/>
+      <c r="G254" s="25"/>
+      <c r="H254" s="30"/>
+      <c r="I254" s="30"/>
+      <c r="J254" s="30"/>
+      <c r="K254" s="30"/>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A256" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" s="32"/>
+      <c r="C256" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="34"/>
+      <c r="E256" s="9"/>
+      <c r="H256" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I256" s="32"/>
+      <c r="J256" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K256" s="34"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" s="32"/>
+      <c r="C257" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" s="34"/>
+      <c r="E257" s="9"/>
+      <c r="H257" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I257" s="32"/>
+      <c r="J257" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K257" s="34"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="32"/>
+      <c r="C258" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D258" s="34"/>
+      <c r="E258" s="9"/>
+      <c r="H258" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I258" s="32"/>
+      <c r="J258" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K258" s="34"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B259" s="32"/>
+      <c r="C259" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D259" s="34"/>
+      <c r="H259" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I259" s="32"/>
+      <c r="J259" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K259" s="34"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="26"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
+      <c r="H260" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I260" s="26"/>
+      <c r="J260" s="26"/>
+      <c r="K260" s="26"/>
+    </row>
+    <row r="261" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B261" s="40"/>
+      <c r="C261" s="40"/>
+      <c r="D261" s="41"/>
+      <c r="H261" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="I261" s="40"/>
+      <c r="J261" s="40"/>
+      <c r="K261" s="41"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="26"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="26"/>
+      <c r="H262" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I262" s="26"/>
+      <c r="J262" s="26"/>
+      <c r="K262" s="26"/>
+    </row>
+    <row r="263" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B263" s="40"/>
+      <c r="C263" s="40"/>
+      <c r="D263" s="41"/>
+      <c r="H263" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="I263" s="40"/>
+      <c r="J263" s="40"/>
+      <c r="K263" s="41"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H264" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I264" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J264" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K264" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="16">
+        <v>1</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H265" s="16">
+        <v>1</v>
+      </c>
+      <c r="I265" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K265" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="16">
+        <v>2</v>
+      </c>
+      <c r="B266" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C266" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D266" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H266" s="16">
+        <v>2</v>
+      </c>
+      <c r="I266" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J266" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K266" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A267" s="16">
+        <v>3</v>
+      </c>
+      <c r="B267" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H267" s="16">
+        <v>3</v>
+      </c>
+      <c r="I267" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J267" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K267" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A268" s="16">
+        <v>4</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H268" s="16">
+        <v>4</v>
+      </c>
+      <c r="I268" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J268" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K268" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="16">
+        <v>5</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H269" s="16">
+        <v>5</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K269" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="26"/>
+      <c r="C270" s="26"/>
+      <c r="D270" s="26"/>
+      <c r="H270" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I270" s="26"/>
+      <c r="J270" s="26"/>
+      <c r="K270" s="26"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I249" s="16"/>
-      <c r="J249" s="17" t="s">
+      <c r="B271" s="28"/>
+      <c r="C271" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K249" s="17"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="16" t="s">
+      <c r="D271" s="27"/>
+      <c r="E271" s="10"/>
+      <c r="H271" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I271" s="28"/>
+      <c r="J271" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K271" s="27"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B250" s="16"/>
-      <c r="C250" s="17" t="s">
+      <c r="B272" s="28"/>
+      <c r="C272" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D250" s="17"/>
-      <c r="E250" s="10"/>
-      <c r="H250" s="16" t="s">
+      <c r="D272" s="27"/>
+      <c r="E272" s="10"/>
+      <c r="H272" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I250" s="16"/>
-      <c r="J250" s="17" t="s">
+      <c r="I272" s="28"/>
+      <c r="J272" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K250" s="17"/>
+      <c r="K272" s="27"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A274" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B274" s="29"/>
+      <c r="C274" s="29"/>
+      <c r="D274" s="29"/>
+      <c r="E274" s="37"/>
+      <c r="F274" s="47"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I274" s="29"/>
+      <c r="J274" s="29"/>
+      <c r="K274" s="29"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A275" s="36"/>
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="38"/>
+      <c r="F275" s="47"/>
+      <c r="G275" s="25"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
+      <c r="J275" s="30"/>
+      <c r="K275" s="30"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A277" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="32"/>
+      <c r="C277" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="34"/>
+      <c r="E277" s="9"/>
+      <c r="H277" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I277" s="32"/>
+      <c r="J277" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K277" s="34"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A278" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="32"/>
+      <c r="C278" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D278" s="34"/>
+      <c r="E278" s="9"/>
+      <c r="H278" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I278" s="32"/>
+      <c r="J278" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K278" s="34"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A279" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="32"/>
+      <c r="C279" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" s="34"/>
+      <c r="E279" s="9"/>
+      <c r="H279" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I279" s="32"/>
+      <c r="J279" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K279" s="34"/>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A280" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" s="32"/>
+      <c r="C280" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D280" s="34"/>
+      <c r="H280" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I280" s="32"/>
+      <c r="J280" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K280" s="34"/>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A281" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="26"/>
+      <c r="C281" s="26"/>
+      <c r="D281" s="26"/>
+      <c r="H281" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I281" s="26"/>
+      <c r="J281" s="26"/>
+      <c r="K281" s="26"/>
+    </row>
+    <row r="282" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B282" s="27"/>
+      <c r="C282" s="27"/>
+      <c r="D282" s="27"/>
+      <c r="H282" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I282" s="40"/>
+      <c r="J282" s="40"/>
+      <c r="K282" s="41"/>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A283" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" s="26"/>
+      <c r="C283" s="26"/>
+      <c r="D283" s="26"/>
+      <c r="H283" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I283" s="26"/>
+      <c r="J283" s="26"/>
+      <c r="K283" s="26"/>
+    </row>
+    <row r="284" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B284" s="40"/>
+      <c r="C284" s="40"/>
+      <c r="D284" s="41"/>
+      <c r="H284" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="I284" s="40"/>
+      <c r="J284" s="40"/>
+      <c r="K284" s="41"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H285" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I285" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J285" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K285" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O285" s="23"/>
+    </row>
+    <row r="286" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="16">
+        <v>1</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H286" s="16">
+        <v>1</v>
+      </c>
+      <c r="I286" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K286" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="16">
+        <v>2</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H287" s="16">
+        <v>2</v>
+      </c>
+      <c r="I287" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J287" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K287" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A288" s="16">
+        <v>3</v>
+      </c>
+      <c r="B288" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H288" s="16">
+        <v>3</v>
+      </c>
+      <c r="I288" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A289" s="16">
+        <v>4</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H289" s="16">
+        <v>4</v>
+      </c>
+      <c r="I289" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K289" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A290" s="16">
+        <v>5</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C290" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H290" s="16">
+        <v>5</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J290" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K290" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B291" s="26"/>
+      <c r="C291" s="26"/>
+      <c r="D291" s="26"/>
+      <c r="H291" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26"/>
+      <c r="K291" s="26"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" s="28"/>
+      <c r="C292" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D292" s="27"/>
+      <c r="E292" s="10"/>
+      <c r="H292" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I292" s="28"/>
+      <c r="J292" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K292" s="27"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B293" s="28"/>
+      <c r="C293" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D293" s="27"/>
+      <c r="E293" s="10"/>
+      <c r="H293" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I293" s="28"/>
+      <c r="J293" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K293" s="27"/>
+    </row>
+    <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B295" s="29"/>
+      <c r="C295" s="29"/>
+      <c r="D295" s="29"/>
+      <c r="E295" s="37"/>
+      <c r="G295" s="24"/>
+      <c r="H295" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I295" s="29"/>
+      <c r="J295" s="29"/>
+      <c r="K295" s="29"/>
+    </row>
+    <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="36"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="38"/>
+      <c r="G296" s="25"/>
+      <c r="H296" s="30"/>
+      <c r="I296" s="30"/>
+      <c r="J296" s="30"/>
+      <c r="K296" s="30"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B298" s="32"/>
+      <c r="C298" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="34"/>
+      <c r="E298" s="9"/>
+      <c r="H298" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I298" s="32"/>
+      <c r="J298" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K298" s="34"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" s="32"/>
+      <c r="C299" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D299" s="34"/>
+      <c r="E299" s="9"/>
+      <c r="H299" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I299" s="32"/>
+      <c r="J299" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K299" s="34"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B300" s="32"/>
+      <c r="C300" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D300" s="34"/>
+      <c r="E300" s="9"/>
+      <c r="H300" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I300" s="32"/>
+      <c r="J300" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K300" s="34"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B301" s="32"/>
+      <c r="C301" s="33"/>
+      <c r="D301" s="34"/>
+      <c r="H301" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I301" s="32"/>
+      <c r="J301" s="33"/>
+      <c r="K301" s="34"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="26"/>
+      <c r="C302" s="26"/>
+      <c r="D302" s="26"/>
+      <c r="H302" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I302" s="26"/>
+      <c r="J302" s="26"/>
+      <c r="K302" s="26"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="27"/>
+      <c r="B303" s="27"/>
+      <c r="C303" s="27"/>
+      <c r="D303" s="27"/>
+      <c r="H303" s="27"/>
+      <c r="I303" s="27"/>
+      <c r="J303" s="27"/>
+      <c r="K303" s="27"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="26"/>
+      <c r="C304" s="26"/>
+      <c r="D304" s="26"/>
+      <c r="H304" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I304" s="26"/>
+      <c r="J304" s="26"/>
+      <c r="K304" s="26"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="27"/>
+      <c r="B305" s="27"/>
+      <c r="C305" s="27"/>
+      <c r="D305" s="27"/>
+      <c r="H305" s="27"/>
+      <c r="I305" s="27"/>
+      <c r="J305" s="27"/>
+      <c r="K305" s="27"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H306" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I306" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J306" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K306" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="16">
+        <v>1</v>
+      </c>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+      <c r="H307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="16">
+        <v>2</v>
+      </c>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="H308" s="16">
+        <v>2</v>
+      </c>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="16">
+        <v>3</v>
+      </c>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="H309" s="16">
+        <v>3</v>
+      </c>
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="16">
+        <v>4</v>
+      </c>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="H310" s="16">
+        <v>4</v>
+      </c>
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="16">
+        <v>5</v>
+      </c>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="H311" s="16">
+        <v>5</v>
+      </c>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
+      <c r="D312" s="26"/>
+      <c r="H312" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I312" s="26"/>
+      <c r="J312" s="26"/>
+      <c r="K312" s="26"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B313" s="28"/>
+      <c r="C313" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" s="27"/>
+      <c r="E313" s="10"/>
+      <c r="H313" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I313" s="28"/>
+      <c r="J313" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K313" s="27"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="28"/>
+      <c r="C314" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" s="27"/>
+      <c r="E314" s="10"/>
+      <c r="H314" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I314" s="28"/>
+      <c r="J314" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K314" s="27"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B316" s="29"/>
+      <c r="C316" s="29"/>
+      <c r="D316" s="29"/>
+      <c r="E316" s="37"/>
+      <c r="G316" s="24"/>
+      <c r="H316" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I316" s="29"/>
+      <c r="J316" s="29"/>
+      <c r="K316" s="29"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="36"/>
+      <c r="B317" s="30"/>
+      <c r="C317" s="30"/>
+      <c r="D317" s="30"/>
+      <c r="E317" s="38"/>
+      <c r="G317" s="25"/>
+      <c r="H317" s="30"/>
+      <c r="I317" s="30"/>
+      <c r="J317" s="30"/>
+      <c r="K317" s="30"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319" s="32"/>
+      <c r="C319" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="34"/>
+      <c r="E319" s="9"/>
+      <c r="H319" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I319" s="32"/>
+      <c r="J319" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K319" s="34"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" s="32"/>
+      <c r="C320" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D320" s="34"/>
+      <c r="E320" s="9"/>
+      <c r="H320" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I320" s="32"/>
+      <c r="J320" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K320" s="34"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" s="32"/>
+      <c r="C321" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D321" s="34"/>
+      <c r="E321" s="9"/>
+      <c r="H321" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I321" s="32"/>
+      <c r="J321" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K321" s="34"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B322" s="32"/>
+      <c r="C322" s="33"/>
+      <c r="D322" s="34"/>
+      <c r="H322" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I322" s="32"/>
+      <c r="J322" s="33"/>
+      <c r="K322" s="34"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="26"/>
+      <c r="C323" s="26"/>
+      <c r="D323" s="26"/>
+      <c r="H323" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I323" s="26"/>
+      <c r="J323" s="26"/>
+      <c r="K323" s="26"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="27"/>
+      <c r="B324" s="27"/>
+      <c r="C324" s="27"/>
+      <c r="D324" s="27"/>
+      <c r="H324" s="27"/>
+      <c r="I324" s="27"/>
+      <c r="J324" s="27"/>
+      <c r="K324" s="27"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B325" s="26"/>
+      <c r="C325" s="26"/>
+      <c r="D325" s="26"/>
+      <c r="H325" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I325" s="26"/>
+      <c r="J325" s="26"/>
+      <c r="K325" s="26"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="27"/>
+      <c r="B326" s="27"/>
+      <c r="C326" s="27"/>
+      <c r="D326" s="27"/>
+      <c r="H326" s="27"/>
+      <c r="I326" s="27"/>
+      <c r="J326" s="27"/>
+      <c r="K326" s="27"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H327" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I327" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J327" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K327" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="16">
+        <v>1</v>
+      </c>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="H328" s="16">
+        <v>1</v>
+      </c>
+      <c r="I328" s="2"/>
+      <c r="J328" s="2"/>
+      <c r="K328" s="2"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="16">
+        <v>2</v>
+      </c>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+      <c r="H329" s="16">
+        <v>2</v>
+      </c>
+      <c r="I329" s="2"/>
+      <c r="J329" s="2"/>
+      <c r="K329" s="2"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="16">
+        <v>3</v>
+      </c>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="H330" s="16">
+        <v>3</v>
+      </c>
+      <c r="I330" s="2"/>
+      <c r="J330" s="2"/>
+      <c r="K330" s="2"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="16">
+        <v>4</v>
+      </c>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+      <c r="H331" s="16">
+        <v>4</v>
+      </c>
+      <c r="I331" s="2"/>
+      <c r="J331" s="2"/>
+      <c r="K331" s="2"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="16">
+        <v>5</v>
+      </c>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="H332" s="16">
+        <v>5</v>
+      </c>
+      <c r="I332" s="2"/>
+      <c r="J332" s="2"/>
+      <c r="K332" s="2"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" s="26"/>
+      <c r="C333" s="26"/>
+      <c r="D333" s="26"/>
+      <c r="H333" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I333" s="26"/>
+      <c r="J333" s="26"/>
+      <c r="K333" s="26"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" s="28"/>
+      <c r="C334" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="27"/>
+      <c r="E334" s="10"/>
+      <c r="H334" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I334" s="28"/>
+      <c r="J334" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K334" s="27"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="28"/>
+      <c r="C335" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D335" s="27"/>
+      <c r="E335" s="10"/>
+      <c r="H335" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I335" s="28"/>
+      <c r="J335" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K335" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="458">
+  <mergeCells count="612">
     <mergeCell ref="H238:K238"/>
     <mergeCell ref="H239:K239"/>
     <mergeCell ref="H240:K240"/>
@@ -5629,6 +7180,19 @@
     <mergeCell ref="A199:D199"/>
     <mergeCell ref="A206:D206"/>
     <mergeCell ref="G168:G169"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="G189:G190"/>
     <mergeCell ref="G147:G148"/>
     <mergeCell ref="A189:D190"/>
     <mergeCell ref="E189:E190"/>
@@ -5646,6 +7210,13 @@
     <mergeCell ref="H187:I187"/>
     <mergeCell ref="J187:K187"/>
     <mergeCell ref="H168:K169"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
     <mergeCell ref="L168:L169"/>
     <mergeCell ref="H171:I171"/>
     <mergeCell ref="J171:K171"/>
@@ -5655,25 +7226,6 @@
     <mergeCell ref="J173:K173"/>
     <mergeCell ref="H174:I174"/>
     <mergeCell ref="J174:K174"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
     <mergeCell ref="H154:K154"/>
     <mergeCell ref="H155:K155"/>
     <mergeCell ref="H156:K156"/>
@@ -5721,6 +7273,7 @@
     <mergeCell ref="J131:K131"/>
     <mergeCell ref="H132:I132"/>
     <mergeCell ref="J132:K132"/>
+    <mergeCell ref="H126:K127"/>
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="H135:K135"/>
@@ -5730,7 +7283,6 @@
     <mergeCell ref="J144:K144"/>
     <mergeCell ref="H145:I145"/>
     <mergeCell ref="J145:K145"/>
-    <mergeCell ref="H126:K127"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A134:D134"/>
     <mergeCell ref="A135:D135"/>
@@ -5923,7 +7475,6 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
@@ -5947,16 +7498,15 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H26:I26"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:K9"/>
@@ -5966,12 +7516,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A18:D18"/>
@@ -5979,6 +7523,167 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="H253:K254"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="H260:K260"/>
+    <mergeCell ref="H261:K261"/>
+    <mergeCell ref="H262:K262"/>
+    <mergeCell ref="H263:K263"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="H274:K275"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="H281:K281"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H291:K291"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="G253:G254"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="A295:D296"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="A274:D275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="A302:D302"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="C313:D313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="A316:D317"/>
+    <mergeCell ref="E316:E317"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A333:D333"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="H320:I320"/>
+    <mergeCell ref="J320:K320"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="J321:K321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="J322:K322"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="H323:K323"/>
+    <mergeCell ref="H324:K324"/>
+    <mergeCell ref="H325:K325"/>
+    <mergeCell ref="H326:K326"/>
+    <mergeCell ref="H333:K333"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="J334:K334"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="J335:K335"/>
+    <mergeCell ref="H295:K296"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H302:K302"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="H304:K304"/>
+    <mergeCell ref="H305:K305"/>
+    <mergeCell ref="H312:K312"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="H316:K317"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="232">
   <si>
     <t>ID caso de prueba</t>
   </si>
@@ -411,9 +411,6 @@
     <t>Pagina de registro del sistema</t>
   </si>
   <si>
-    <t>Que un usuario pueda registrarse en el sistema si el nombre de usuario ya está ocupado</t>
-  </si>
-  <si>
     <t>Ingresar usuario "dogui"</t>
   </si>
   <si>
@@ -646,6 +643,78 @@
   </si>
   <si>
     <t>sqlite3.OperationalError</t>
+  </si>
+  <si>
+    <t>PRS_0029</t>
+  </si>
+  <si>
+    <t>Ingresar E-Mail "hmerlino@gmail.com"</t>
+  </si>
+  <si>
+    <t>Click en ingresar</t>
+  </si>
+  <si>
+    <t>Confirmar contraseña "javaelmejorlenguaje"</t>
+  </si>
+  <si>
+    <t>Mensaje de error con la leyenda "Las contraseñas no coindicen!"</t>
+  </si>
+  <si>
+    <t>PRS_0030</t>
+  </si>
+  <si>
+    <t>Que un usuario NO pueda registrarse en el sistema si el nombre de usuario ya está ocupado</t>
+  </si>
+  <si>
+    <t>PRS_0016</t>
+  </si>
+  <si>
+    <t>PRS_0015</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda registrarse en el sistema si el nombre de usuario ya está ocupado</t>
+  </si>
+  <si>
+    <t>Ingresar e-mail "gcontento@gmail.com</t>
+  </si>
+  <si>
+    <t>Mensaje de error con la leyenda: "Error: El nombre de usuario ya  se encuentra en uso</t>
+  </si>
+  <si>
+    <t>PRS_0031</t>
+  </si>
+  <si>
+    <t>PRS_0017</t>
+  </si>
+  <si>
+    <t>PRS_0018</t>
+  </si>
+  <si>
+    <t>Caso de prueba 33</t>
+  </si>
+  <si>
+    <t>Caso de prueba 34</t>
+  </si>
+  <si>
+    <t>Que el usuario no puedra registrarse si ese mail ya lo registró otro usuario</t>
+  </si>
+  <si>
+    <t>Pagina del registro del sistema y un usuario ya registrado</t>
+  </si>
+  <si>
+    <t>Ingresar usuario "dogui15"</t>
+  </si>
+  <si>
+    <t>Mensaje de error con la leyenda "El e-mail ya está en uso"</t>
+  </si>
+  <si>
+    <t>PRS_0032</t>
+  </si>
+  <si>
+    <t>PRS_0033</t>
+  </si>
+  <si>
+    <t>PRS_0034</t>
   </si>
 </sst>
 </file>
@@ -878,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -949,22 +1018,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,31 +1066,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,11 +1084,41 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,7 +1392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1301,18 +1400,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P335"/>
+  <dimension ref="A1:P357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N349" sqref="N349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="46" customWidth="1"/>
+    <col min="6" max="6" width="8" style="48" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="4" customWidth="1"/>
     <col min="9" max="11" width="16.28515625" style="1" customWidth="1"/>
@@ -1320,105 +1420,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="40"/>
       <c r="G1" s="44"/>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="41"/>
       <c r="G2" s="45"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="43"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="9"/>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="34"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="H5" s="31" t="s">
+      <c r="D5" s="39"/>
+      <c r="H5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="34"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="39"/>
+      <c r="H6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="39"/>
+      <c r="H7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -1435,18 +1535,18 @@
       <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="H9" s="39" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="H9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -1463,18 +1563,18 @@
       <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="H11" s="39" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="H11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1647,42 +1747,42 @@
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="10"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="27" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="10"/>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="27" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="27"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -1694,107 +1794,107 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="40"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="42"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="38"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="41"/>
       <c r="G23" s="45"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="43"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="9"/>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33" t="s">
+      <c r="I25" s="37"/>
+      <c r="J25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="34"/>
+      <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="9"/>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33" t="s">
+      <c r="I26" s="37"/>
+      <c r="J26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="9"/>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33" t="s">
+      <c r="I27" s="37"/>
+      <c r="J27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="H28" s="31" t="s">
+      <c r="D28" s="39"/>
+      <c r="H28" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33" t="s">
+      <c r="I28" s="37"/>
+      <c r="J28" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
@@ -1811,18 +1911,18 @@
       <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="H30" s="39" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="H30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
@@ -1839,18 +1939,18 @@
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="H32" s="39" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="H32" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2023,70 +2123,70 @@
       <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="10"/>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="27" t="s">
+      <c r="I40" s="30"/>
+      <c r="J40" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="27"/>
+      <c r="K40" s="31"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="27"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="10"/>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="27" t="s">
+      <c r="I41" s="30"/>
+      <c r="J41" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="27"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="40"/>
       <c r="G43" s="44"/>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="42"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="46"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="38"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="41"/>
       <c r="G44" s="45"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="43"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="47"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -2101,78 +2201,78 @@
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="33" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="34"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="9"/>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="33" t="s">
+      <c r="I46" s="37"/>
+      <c r="J46" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="9"/>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33" t="s">
+      <c r="I47" s="37"/>
+      <c r="J47" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K47" s="34"/>
+      <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="33" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="H48" s="31" t="s">
+      <c r="D48" s="39"/>
+      <c r="H48" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="33" t="s">
+      <c r="I48" s="37"/>
+      <c r="J48" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="H49" s="31" t="s">
+      <c r="D49" s="39"/>
+      <c r="H49" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="33" t="s">
+      <c r="I49" s="37"/>
+      <c r="J49" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="34"/>
+      <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -2189,18 +2289,18 @@
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="H51" s="39" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="H51" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="41"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -2217,18 +2317,18 @@
       <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="H53" s="27" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="H53" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -2402,143 +2502,143 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="H61" s="28" t="s">
+      <c r="D61" s="31"/>
+      <c r="H61" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="28"/>
-      <c r="J61" s="27" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="27"/>
+      <c r="K61" s="31"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="27"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="10"/>
-      <c r="H62" s="28" t="s">
+      <c r="H62" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="28"/>
-      <c r="J62" s="27" t="s">
+      <c r="I62" s="30"/>
+      <c r="J62" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="27"/>
+      <c r="K62" s="31"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="37"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="40"/>
       <c r="G64" s="44"/>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="42"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="46"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="38"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="41"/>
       <c r="G65" s="45"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="43"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="34"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="9"/>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="33" t="s">
+      <c r="I67" s="37"/>
+      <c r="J67" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="34"/>
+      <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="33" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="34"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="9"/>
-      <c r="H68" s="31" t="s">
+      <c r="H68" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="32"/>
-      <c r="J68" s="33" t="s">
+      <c r="I68" s="37"/>
+      <c r="J68" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K68" s="34"/>
+      <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="33" t="s">
+      <c r="B69" s="37"/>
+      <c r="C69" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="H69" s="31" t="s">
+      <c r="D69" s="39"/>
+      <c r="H69" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="33" t="s">
+      <c r="I69" s="37"/>
+      <c r="J69" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="34"/>
+      <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="33" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="34"/>
-      <c r="H70" s="31" t="s">
+      <c r="D70" s="39"/>
+      <c r="H70" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="32"/>
-      <c r="J70" s="33" t="s">
+      <c r="I70" s="37"/>
+      <c r="J70" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K70" s="34"/>
+      <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
@@ -2555,18 +2655,18 @@
       <c r="K71" s="26"/>
     </row>
     <row r="72" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="H72" s="39" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="H72" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="41"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -2583,18 +2683,18 @@
       <c r="K73" s="26"/>
     </row>
     <row r="74" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="41"/>
-      <c r="H74" s="39" t="s">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="H74" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="41"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="29"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -2767,144 +2867,144 @@
       <c r="K81" s="26"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="30"/>
+      <c r="C82" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="27"/>
-      <c r="H82" s="28" t="s">
+      <c r="D82" s="31"/>
+      <c r="H82" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="27" t="s">
+      <c r="I82" s="30"/>
+      <c r="J82" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K82" s="27"/>
+      <c r="K82" s="31"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="30"/>
+      <c r="C83" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="27"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="10"/>
-      <c r="H83" s="28" t="s">
+      <c r="H83" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I83" s="28"/>
-      <c r="J83" s="27" t="s">
+      <c r="I83" s="30"/>
+      <c r="J83" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="27"/>
+      <c r="K83" s="31"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="37"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="40"/>
       <c r="G85" s="44"/>
-      <c r="H85" s="29" t="s">
+      <c r="H85" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="42"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="46"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="36"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="38"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="41"/>
       <c r="G86" s="45"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="43"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="47"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="33" t="s">
+      <c r="B88" s="37"/>
+      <c r="C88" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="34"/>
+      <c r="D88" s="39"/>
       <c r="E88" s="9"/>
-      <c r="H88" s="31" t="s">
+      <c r="H88" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I88" s="32"/>
-      <c r="J88" s="33" t="s">
+      <c r="I88" s="37"/>
+      <c r="J88" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K88" s="34"/>
+      <c r="K88" s="39"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="33" t="s">
+      <c r="B89" s="37"/>
+      <c r="C89" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="34"/>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
-      <c r="H89" s="31" t="s">
+      <c r="H89" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="32"/>
-      <c r="J89" s="33" t="s">
+      <c r="I89" s="37"/>
+      <c r="J89" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K89" s="34"/>
+      <c r="K89" s="39"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="C90" s="33" t="s">
+      <c r="B90" s="37"/>
+      <c r="C90" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="34"/>
+      <c r="D90" s="39"/>
       <c r="E90" s="9"/>
-      <c r="H90" s="31" t="s">
+      <c r="H90" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I90" s="32"/>
-      <c r="J90" s="33" t="s">
+      <c r="I90" s="37"/>
+      <c r="J90" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K90" s="34"/>
+      <c r="K90" s="39"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="33" t="s">
+      <c r="B91" s="37"/>
+      <c r="C91" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="34"/>
-      <c r="H91" s="31" t="s">
+      <c r="D91" s="39"/>
+      <c r="H91" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I91" s="32"/>
-      <c r="J91" s="33" t="s">
+      <c r="I91" s="37"/>
+      <c r="J91" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K91" s="34"/>
+      <c r="K91" s="39"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -2921,16 +3021,16 @@
       <c r="K92" s="26"/>
     </row>
     <row r="93" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="41"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="29"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
@@ -2947,16 +3047,16 @@
       <c r="K94" s="26"/>
     </row>
     <row r="95" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -3099,143 +3199,143 @@
       <c r="K102" s="26"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="27" t="s">
+      <c r="B103" s="30"/>
+      <c r="C103" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="27"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="10"/>
-      <c r="H103" s="28" t="s">
+      <c r="H103" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="28"/>
-      <c r="J103" s="27" t="s">
+      <c r="I103" s="30"/>
+      <c r="J103" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K103" s="27"/>
+      <c r="K103" s="31"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="27" t="s">
+      <c r="B104" s="30"/>
+      <c r="C104" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="27"/>
+      <c r="D104" s="31"/>
       <c r="E104" s="10"/>
-      <c r="H104" s="28" t="s">
+      <c r="H104" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="28"/>
-      <c r="J104" s="27" t="s">
+      <c r="I104" s="30"/>
+      <c r="J104" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="27"/>
+      <c r="K104" s="31"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="40"/>
       <c r="G105" s="44"/>
-      <c r="H105" s="29" t="s">
+      <c r="H105" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="42"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="46"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="38"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="41"/>
       <c r="G106" s="45"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="43"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="35"/>
+      <c r="K106" s="47"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="33" t="s">
+      <c r="B108" s="37"/>
+      <c r="C108" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="34"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="9"/>
-      <c r="H108" s="31" t="s">
+      <c r="H108" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I108" s="32"/>
-      <c r="J108" s="33" t="s">
+      <c r="I108" s="37"/>
+      <c r="J108" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K108" s="34"/>
+      <c r="K108" s="39"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="33" t="s">
+      <c r="B109" s="37"/>
+      <c r="C109" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="34"/>
-      <c r="H109" s="31" t="s">
+      <c r="D109" s="39"/>
+      <c r="H109" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I109" s="32"/>
-      <c r="J109" s="33" t="s">
+      <c r="I109" s="37"/>
+      <c r="J109" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K109" s="34"/>
+      <c r="K109" s="39"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="33" t="s">
+      <c r="B110" s="37"/>
+      <c r="C110" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="34"/>
-      <c r="H110" s="31" t="s">
+      <c r="D110" s="39"/>
+      <c r="H110" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I110" s="32"/>
-      <c r="J110" s="33" t="s">
+      <c r="I110" s="37"/>
+      <c r="J110" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K110" s="34"/>
+      <c r="K110" s="39"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="33" t="s">
+      <c r="B111" s="37"/>
+      <c r="C111" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="34"/>
-      <c r="H111" s="31" t="s">
+      <c r="D111" s="39"/>
+      <c r="H111" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I111" s="32"/>
-      <c r="J111" s="33" t="s">
+      <c r="I111" s="37"/>
+      <c r="J111" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K111" s="34"/>
+      <c r="K111" s="39"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -3252,18 +3352,18 @@
       <c r="K112" s="26"/>
     </row>
     <row r="113" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="H113" s="39" t="s">
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="H113" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="41"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="29"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
@@ -3280,18 +3380,18 @@
       <c r="K114" s="26"/>
     </row>
     <row r="115" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="40"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="41"/>
-      <c r="H115" s="27" t="s">
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="29"/>
+      <c r="H115" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
@@ -3464,42 +3564,42 @@
       <c r="K122" s="26"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="28"/>
-      <c r="C123" s="27" t="s">
+      <c r="B123" s="30"/>
+      <c r="C123" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="27"/>
+      <c r="D123" s="31"/>
       <c r="E123" s="10"/>
-      <c r="H123" s="28" t="s">
+      <c r="H123" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="28"/>
-      <c r="J123" s="27" t="s">
+      <c r="I123" s="30"/>
+      <c r="J123" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K123" s="27"/>
+      <c r="K123" s="31"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="27" t="s">
+      <c r="B124" s="30"/>
+      <c r="C124" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="27"/>
+      <c r="D124" s="31"/>
       <c r="E124" s="10"/>
-      <c r="H124" s="28" t="s">
+      <c r="H124" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I124" s="28"/>
-      <c r="J124" s="27" t="s">
+      <c r="I124" s="30"/>
+      <c r="J124" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K124" s="27"/>
+      <c r="K124" s="31"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
@@ -3508,112 +3608,112 @@
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="40"/>
       <c r="G126" s="20"/>
-      <c r="H126" s="35" t="s">
+      <c r="H126" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="I126" s="29"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="37"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="33"/>
+      <c r="L126" s="40"/>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="38"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="41"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="30"/>
-      <c r="J127" s="30"/>
-      <c r="K127" s="30"/>
-      <c r="L127" s="38"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="41"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="32"/>
-      <c r="C129" s="33" t="s">
+      <c r="B129" s="37"/>
+      <c r="C129" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="34"/>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="H129" s="31" t="s">
+      <c r="H129" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I129" s="32"/>
-      <c r="J129" s="33" t="s">
+      <c r="I129" s="37"/>
+      <c r="J129" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K129" s="34"/>
+      <c r="K129" s="39"/>
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="32"/>
-      <c r="C130" s="33" t="s">
+      <c r="B130" s="37"/>
+      <c r="C130" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D130" s="34"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="H130" s="31" t="s">
+      <c r="H130" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I130" s="32"/>
-      <c r="J130" s="33" t="s">
+      <c r="I130" s="37"/>
+      <c r="J130" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K130" s="34"/>
+      <c r="K130" s="39"/>
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="32"/>
-      <c r="C131" s="33" t="s">
+      <c r="B131" s="37"/>
+      <c r="C131" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="34"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="H131" s="31" t="s">
+      <c r="H131" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I131" s="32"/>
-      <c r="J131" s="33" t="s">
+      <c r="I131" s="37"/>
+      <c r="J131" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K131" s="34"/>
+      <c r="K131" s="39"/>
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="32"/>
-      <c r="C132" s="33" t="s">
+      <c r="B132" s="37"/>
+      <c r="C132" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D132" s="34"/>
-      <c r="H132" s="31" t="s">
+      <c r="D132" s="39"/>
+      <c r="H132" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I132" s="32"/>
-      <c r="J132" s="33" t="s">
+      <c r="I132" s="37"/>
+      <c r="J132" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K132" s="34"/>
+      <c r="K132" s="39"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
@@ -3630,18 +3730,18 @@
       <c r="K133" s="26"/>
     </row>
     <row r="134" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="H134" s="39" t="s">
+      <c r="B134" s="31"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="H134" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="I134" s="40"/>
-      <c r="J134" s="40"/>
-      <c r="K134" s="41"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="29"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
@@ -3658,18 +3758,18 @@
       <c r="K135" s="26"/>
     </row>
     <row r="136" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="H136" s="27" t="s">
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="H136" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I136" s="27"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="27"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -3840,148 +3940,152 @@
       <c r="K143" s="26"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="28" t="s">
+      <c r="A144" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="27" t="s">
+      <c r="B144" s="30"/>
+      <c r="C144" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="27"/>
+      <c r="D144" s="31"/>
       <c r="E144" s="10"/>
-      <c r="H144" s="28" t="s">
+      <c r="H144" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I144" s="28"/>
-      <c r="J144" s="27" t="s">
+      <c r="I144" s="30"/>
+      <c r="J144" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="K144" s="27"/>
+      <c r="K144" s="31"/>
       <c r="L144" s="10"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="27" t="s">
+      <c r="B145" s="30"/>
+      <c r="C145" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D145" s="27"/>
+      <c r="D145" s="31"/>
       <c r="E145" s="10"/>
-      <c r="H145" s="28" t="s">
+      <c r="H145" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I145" s="28"/>
-      <c r="J145" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K145" s="27"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="K145" s="31"/>
       <c r="L145" s="10"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="35" t="s">
+      <c r="A147" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="35" t="s">
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="40"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I147" s="29"/>
-      <c r="J147" s="29"/>
-      <c r="K147" s="29"/>
-      <c r="L147" s="37"/>
+      <c r="I147" s="33"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="33"/>
+      <c r="L147" s="40"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="36"/>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="38"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="38"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="41"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="35"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="41"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="31" t="s">
+      <c r="A150" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="32"/>
-      <c r="C150" s="33" t="s">
+      <c r="B150" s="37"/>
+      <c r="C150" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="34"/>
+      <c r="D150" s="39"/>
       <c r="E150" s="9"/>
-      <c r="H150" s="31" t="s">
+      <c r="H150" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I150" s="32"/>
-      <c r="J150" s="33" t="s">
+      <c r="I150" s="37"/>
+      <c r="J150" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K150" s="34"/>
+      <c r="K150" s="39"/>
       <c r="L150" s="9"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="31" t="s">
+      <c r="A151" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="32"/>
-      <c r="C151" s="33" t="s">
+      <c r="B151" s="37"/>
+      <c r="C151" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="34"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="9"/>
-      <c r="H151" s="31" t="s">
+      <c r="H151" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I151" s="32"/>
-      <c r="J151" s="33" t="s">
+      <c r="I151" s="37"/>
+      <c r="J151" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K151" s="34"/>
+      <c r="K151" s="39"/>
       <c r="L151" s="9"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="31" t="s">
+      <c r="A152" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="32"/>
-      <c r="C152" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" s="34"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D152" s="39"/>
       <c r="E152" s="9"/>
-      <c r="H152" s="31" t="s">
+      <c r="H152" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I152" s="32"/>
-      <c r="J152" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K152" s="34"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="K152" s="39"/>
       <c r="L152" s="9"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="32"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="34"/>
-      <c r="H153" s="31" t="s">
+      <c r="B153" s="37"/>
+      <c r="C153" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="39"/>
+      <c r="H153" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I153" s="32"/>
-      <c r="J153" s="33"/>
-      <c r="K153" s="34"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153" s="39"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
@@ -3998,18 +4102,18 @@
       <c r="K154" s="26"/>
     </row>
     <row r="155" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="H155" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I155" s="40"/>
-      <c r="J155" s="40"/>
-      <c r="K155" s="41"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="H155" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="29"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
@@ -4026,18 +4130,18 @@
       <c r="K156" s="26"/>
     </row>
     <row r="157" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="27"/>
-      <c r="C157" s="27"/>
-      <c r="D157" s="27"/>
-      <c r="H157" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="I157" s="40"/>
-      <c r="J157" s="40"/>
-      <c r="K157" s="41"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="H157" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I157" s="28"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="29"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
@@ -4082,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>38</v>
@@ -4134,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>38</v>
@@ -4189,7 +4293,7 @@
         <v>45</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K163" s="18" t="s">
         <v>128</v>
@@ -4210,152 +4314,152 @@
       <c r="K164" s="26"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="28" t="s">
+      <c r="A165" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="28"/>
-      <c r="C165" s="27" t="s">
+      <c r="B165" s="30"/>
+      <c r="C165" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D165" s="27"/>
+      <c r="D165" s="31"/>
       <c r="E165" s="10"/>
-      <c r="H165" s="28" t="s">
+      <c r="H165" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I165" s="28"/>
-      <c r="J165" s="27" t="s">
+      <c r="I165" s="30"/>
+      <c r="J165" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K165" s="27"/>
+      <c r="K165" s="31"/>
       <c r="L165" s="10"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="28"/>
-      <c r="C166" s="27" t="s">
+      <c r="B166" s="30"/>
+      <c r="C166" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D166" s="27"/>
+      <c r="D166" s="31"/>
       <c r="E166" s="10"/>
-      <c r="H166" s="28" t="s">
+      <c r="H166" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I166" s="28"/>
-      <c r="J166" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K166" s="27"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K166" s="31"/>
       <c r="L166" s="10"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="35" t="s">
+      <c r="A168" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="35" t="s">
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="40"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I168" s="29"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="29"/>
-      <c r="L168" s="37"/>
+      <c r="I168" s="33"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="40"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="36"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="38"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="30"/>
-      <c r="J169" s="30"/>
-      <c r="K169" s="30"/>
-      <c r="L169" s="38"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="41"/>
+      <c r="G169" s="41"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="35"/>
+      <c r="J169" s="35"/>
+      <c r="K169" s="35"/>
+      <c r="L169" s="41"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="32"/>
-      <c r="C171" s="33" t="s">
+      <c r="B171" s="37"/>
+      <c r="C171" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="34"/>
+      <c r="D171" s="39"/>
       <c r="E171" s="9"/>
-      <c r="H171" s="31" t="s">
+      <c r="H171" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I171" s="32"/>
-      <c r="J171" s="33" t="s">
+      <c r="I171" s="37"/>
+      <c r="J171" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K171" s="34"/>
+      <c r="K171" s="39"/>
       <c r="L171" s="9"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="32"/>
-      <c r="C172" s="33" t="s">
+      <c r="B172" s="37"/>
+      <c r="C172" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="34"/>
+      <c r="D172" s="39"/>
       <c r="E172" s="9"/>
-      <c r="H172" s="31" t="s">
+      <c r="H172" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I172" s="32"/>
-      <c r="J172" s="33" t="s">
+      <c r="I172" s="37"/>
+      <c r="J172" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K172" s="34"/>
+      <c r="K172" s="39"/>
       <c r="L172" s="9"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="32"/>
-      <c r="C173" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D173" s="34"/>
+      <c r="B173" s="37"/>
+      <c r="C173" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D173" s="39"/>
       <c r="E173" s="9"/>
-      <c r="H173" s="31" t="s">
+      <c r="H173" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I173" s="32"/>
-      <c r="J173" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K173" s="34"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="K173" s="39"/>
       <c r="L173" s="9"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="31" t="s">
+      <c r="A174" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="32"/>
-      <c r="C174" s="33" t="s">
+      <c r="B174" s="37"/>
+      <c r="C174" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="34"/>
-      <c r="H174" s="31" t="s">
+      <c r="D174" s="39"/>
+      <c r="H174" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I174" s="32"/>
-      <c r="J174" s="33" t="s">
+      <c r="I174" s="37"/>
+      <c r="J174" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="K174" s="34"/>
+      <c r="K174" s="39"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="26" t="s">
@@ -4372,18 +4476,18 @@
       <c r="K175" s="26"/>
     </row>
     <row r="176" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B176" s="40"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="41"/>
-      <c r="H176" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="41"/>
+      <c r="A176" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="29"/>
+      <c r="H176" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I176" s="28"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="29"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
@@ -4400,18 +4504,18 @@
       <c r="K177" s="26"/>
     </row>
     <row r="178" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B178" s="27"/>
-      <c r="C178" s="27"/>
-      <c r="D178" s="27"/>
-      <c r="H178" s="27" t="s">
+      <c r="A178" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="31"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="H178" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
+      <c r="I178" s="31"/>
+      <c r="J178" s="31"/>
+      <c r="K178" s="31"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
@@ -4444,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>38</v>
@@ -4456,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>38</v>
@@ -4482,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>38</v>
@@ -4496,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>38</v>
@@ -4508,7 +4612,7 @@
         <v>3</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>38</v>
@@ -4551,7 +4655,7 @@
         <v>45</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D184" s="18" t="s">
         <v>128</v>
@@ -4563,7 +4667,7 @@
         <v>45</v>
       </c>
       <c r="J184" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K184" s="18" t="s">
         <v>128</v>
@@ -4584,154 +4688,154 @@
       <c r="K185" s="26"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="28" t="s">
+      <c r="A186" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="28"/>
-      <c r="C186" s="27" t="s">
+      <c r="B186" s="30"/>
+      <c r="C186" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D186" s="27"/>
+      <c r="D186" s="31"/>
       <c r="E186" s="10"/>
-      <c r="H186" s="28" t="s">
+      <c r="H186" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I186" s="28"/>
-      <c r="J186" s="27" t="s">
+      <c r="I186" s="30"/>
+      <c r="J186" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K186" s="27"/>
+      <c r="K186" s="31"/>
       <c r="L186" s="10"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="28" t="s">
+      <c r="A187" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B187" s="28"/>
-      <c r="C187" s="27" t="s">
+      <c r="B187" s="30"/>
+      <c r="C187" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D187" s="27"/>
+      <c r="D187" s="31"/>
       <c r="E187" s="10"/>
-      <c r="H187" s="28" t="s">
+      <c r="H187" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I187" s="28"/>
-      <c r="J187" s="27" t="s">
+      <c r="I187" s="30"/>
+      <c r="J187" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="K187" s="27"/>
+      <c r="K187" s="31"/>
       <c r="L187" s="10"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="35" t="s">
+      <c r="A189" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="47"/>
-      <c r="G189" s="24"/>
-      <c r="H189" s="29" t="s">
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="40"/>
+      <c r="F189" s="49"/>
+      <c r="G189" s="42"/>
+      <c r="H189" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I189" s="29"/>
-      <c r="J189" s="29"/>
-      <c r="K189" s="29"/>
-      <c r="L189" s="37"/>
+      <c r="I189" s="33"/>
+      <c r="J189" s="33"/>
+      <c r="K189" s="33"/>
+      <c r="L189" s="40"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="36"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="38"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="25"/>
-      <c r="H190" s="30"/>
-      <c r="I190" s="30"/>
-      <c r="J190" s="30"/>
-      <c r="K190" s="30"/>
-      <c r="L190" s="38"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="49"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="35"/>
+      <c r="J190" s="35"/>
+      <c r="K190" s="35"/>
+      <c r="L190" s="41"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="32"/>
-      <c r="C192" s="33" t="s">
+      <c r="B192" s="37"/>
+      <c r="C192" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="34"/>
+      <c r="D192" s="39"/>
       <c r="E192" s="9"/>
-      <c r="H192" s="31" t="s">
+      <c r="H192" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I192" s="32"/>
-      <c r="J192" s="33" t="s">
+      <c r="I192" s="37"/>
+      <c r="J192" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K192" s="34"/>
+      <c r="K192" s="39"/>
       <c r="L192" s="9"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="31" t="s">
+      <c r="A193" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="32"/>
-      <c r="C193" s="33" t="s">
+      <c r="B193" s="37"/>
+      <c r="C193" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D193" s="34"/>
+      <c r="D193" s="39"/>
       <c r="E193" s="9"/>
-      <c r="H193" s="31" t="s">
+      <c r="H193" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I193" s="32"/>
-      <c r="J193" s="33" t="s">
+      <c r="I193" s="37"/>
+      <c r="J193" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K193" s="34"/>
+      <c r="K193" s="39"/>
       <c r="L193" s="9"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="31" t="s">
+      <c r="A194" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="32"/>
-      <c r="C194" s="33" t="s">
+      <c r="B194" s="37"/>
+      <c r="C194" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D194" s="34"/>
+      <c r="D194" s="39"/>
       <c r="E194" s="9"/>
-      <c r="H194" s="31" t="s">
+      <c r="H194" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I194" s="32"/>
-      <c r="J194" s="33" t="s">
+      <c r="I194" s="37"/>
+      <c r="J194" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K194" s="34"/>
+      <c r="K194" s="39"/>
       <c r="L194" s="9"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="31" t="s">
+      <c r="A195" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="32"/>
-      <c r="C195" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D195" s="34"/>
-      <c r="H195" s="31" t="s">
+      <c r="B195" s="37"/>
+      <c r="C195" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D195" s="39"/>
+      <c r="H195" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I195" s="32"/>
-      <c r="J195" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K195" s="34"/>
+      <c r="I195" s="37"/>
+      <c r="J195" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="K195" s="39"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
@@ -4748,18 +4852,18 @@
       <c r="K196" s="26"/>
     </row>
     <row r="197" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B197" s="27"/>
-      <c r="C197" s="27"/>
-      <c r="D197" s="27"/>
-      <c r="H197" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
+      <c r="A197" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
+      <c r="H197" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="I197" s="31"/>
+      <c r="J197" s="31"/>
+      <c r="K197" s="31"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
@@ -4776,18 +4880,18 @@
       <c r="K198" s="26"/>
     </row>
     <row r="199" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B199" s="27"/>
-      <c r="C199" s="27"/>
-      <c r="D199" s="27"/>
-      <c r="H199" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="27"/>
+      <c r="A199" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B199" s="31"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+      <c r="H199" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="I199" s="31"/>
+      <c r="J199" s="31"/>
+      <c r="K199" s="31"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
@@ -4820,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>38</v>
@@ -4832,13 +4936,13 @@
         <v>1</v>
       </c>
       <c r="I201" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J201" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="J201" s="18" t="s">
-        <v>152</v>
-      </c>
       <c r="K201" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -4846,13 +4950,13 @@
         <v>2</v>
       </c>
       <c r="B202" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C202" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C202" s="18" t="s">
-        <v>148</v>
-      </c>
       <c r="D202" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H202" s="12">
         <v>2</v>
@@ -4960,154 +5064,154 @@
       <c r="K206" s="26"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="28" t="s">
+      <c r="A207" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B207" s="28"/>
-      <c r="C207" s="27" t="s">
+      <c r="B207" s="30"/>
+      <c r="C207" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D207" s="27"/>
+      <c r="D207" s="31"/>
       <c r="E207" s="10"/>
-      <c r="H207" s="28" t="s">
+      <c r="H207" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I207" s="28"/>
-      <c r="J207" s="27" t="s">
+      <c r="I207" s="30"/>
+      <c r="J207" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K207" s="27"/>
+      <c r="K207" s="31"/>
       <c r="L207" s="10"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="28" t="s">
+      <c r="A208" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="28"/>
-      <c r="C208" s="27" t="s">
+      <c r="B208" s="30"/>
+      <c r="C208" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D208" s="27"/>
+      <c r="D208" s="31"/>
       <c r="E208" s="10"/>
-      <c r="H208" s="28" t="s">
+      <c r="H208" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I208" s="28"/>
-      <c r="J208" s="27" t="s">
+      <c r="I208" s="30"/>
+      <c r="J208" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K208" s="27"/>
+      <c r="K208" s="31"/>
       <c r="L208" s="10"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="35" t="s">
+      <c r="A210" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B210" s="29"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="29"/>
-      <c r="E210" s="37"/>
-      <c r="F210" s="47"/>
-      <c r="G210" s="24"/>
-      <c r="H210" s="29" t="s">
+      <c r="B210" s="33"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="40"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="42"/>
+      <c r="H210" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="I210" s="29"/>
-      <c r="J210" s="29"/>
-      <c r="K210" s="29"/>
-      <c r="L210" s="37"/>
+      <c r="I210" s="33"/>
+      <c r="J210" s="33"/>
+      <c r="K210" s="33"/>
+      <c r="L210" s="40"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="36"/>
-      <c r="B211" s="30"/>
-      <c r="C211" s="30"/>
-      <c r="D211" s="30"/>
-      <c r="E211" s="38"/>
-      <c r="F211" s="47"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="30"/>
-      <c r="I211" s="30"/>
-      <c r="J211" s="30"/>
-      <c r="K211" s="30"/>
-      <c r="L211" s="38"/>
+      <c r="A211" s="34"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="35"/>
+      <c r="E211" s="41"/>
+      <c r="F211" s="49"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="35"/>
+      <c r="I211" s="35"/>
+      <c r="J211" s="35"/>
+      <c r="K211" s="35"/>
+      <c r="L211" s="41"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="31" t="s">
+      <c r="A213" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="32"/>
-      <c r="C213" s="33" t="s">
+      <c r="B213" s="37"/>
+      <c r="C213" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D213" s="34"/>
+      <c r="D213" s="39"/>
       <c r="E213" s="9"/>
-      <c r="H213" s="31" t="s">
+      <c r="H213" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I213" s="32"/>
-      <c r="J213" s="33" t="s">
+      <c r="I213" s="37"/>
+      <c r="J213" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K213" s="34"/>
+      <c r="K213" s="39"/>
       <c r="L213" s="9"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="31" t="s">
+      <c r="A214" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="32"/>
-      <c r="C214" s="33" t="s">
+      <c r="B214" s="37"/>
+      <c r="C214" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D214" s="34"/>
+      <c r="D214" s="39"/>
       <c r="E214" s="9"/>
-      <c r="H214" s="31" t="s">
+      <c r="H214" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I214" s="32"/>
-      <c r="J214" s="33" t="s">
+      <c r="I214" s="37"/>
+      <c r="J214" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K214" s="34"/>
+      <c r="K214" s="39"/>
       <c r="L214" s="9"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="31" t="s">
+      <c r="A215" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B215" s="32"/>
-      <c r="C215" s="33" t="s">
+      <c r="B215" s="37"/>
+      <c r="C215" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D215" s="34"/>
+      <c r="D215" s="39"/>
       <c r="E215" s="9"/>
-      <c r="H215" s="31" t="s">
+      <c r="H215" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I215" s="32"/>
-      <c r="J215" s="33" t="s">
+      <c r="I215" s="37"/>
+      <c r="J215" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K215" s="34"/>
+      <c r="K215" s="39"/>
       <c r="L215" s="9"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="31" t="s">
+      <c r="A216" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="32"/>
-      <c r="C216" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D216" s="34"/>
-      <c r="H216" s="31" t="s">
+      <c r="B216" s="37"/>
+      <c r="C216" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D216" s="39"/>
+      <c r="H216" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I216" s="32"/>
-      <c r="J216" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K216" s="34"/>
+      <c r="I216" s="37"/>
+      <c r="J216" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="K216" s="39"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="26" t="s">
@@ -5124,18 +5228,18 @@
       <c r="K217" s="26"/>
     </row>
     <row r="218" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B218" s="40"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="41"/>
-      <c r="H218" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="I218" s="40"/>
-      <c r="J218" s="40"/>
-      <c r="K218" s="41"/>
+      <c r="A218" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B218" s="28"/>
+      <c r="C218" s="28"/>
+      <c r="D218" s="29"/>
+      <c r="H218" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I218" s="28"/>
+      <c r="J218" s="28"/>
+      <c r="K218" s="29"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="26" t="s">
@@ -5152,18 +5256,18 @@
       <c r="K219" s="26"/>
     </row>
     <row r="220" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B220" s="27"/>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="H220" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
-      <c r="K220" s="27"/>
+      <c r="A220" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B220" s="31"/>
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="H220" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="I220" s="31"/>
+      <c r="J220" s="31"/>
+      <c r="K220" s="31"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
@@ -5196,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>38</v>
@@ -5208,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="I222" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>38</v>
@@ -5222,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>38</v>
@@ -5234,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>38</v>
@@ -5248,7 +5352,7 @@
         <v>3</v>
       </c>
       <c r="B224" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>38</v>
@@ -5260,13 +5364,13 @@
         <v>3</v>
       </c>
       <c r="I224" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J224" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="J224" s="18" t="s">
+      <c r="K224" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="K224" s="18" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5274,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>38</v>
@@ -5300,13 +5404,13 @@
         <v>5</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C226" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C226" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D226" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H226" s="12">
         <v>5</v>
@@ -5336,145 +5440,145 @@
       <c r="K227" s="26"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="28" t="s">
+      <c r="A228" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B228" s="28"/>
-      <c r="C228" s="27" t="s">
+      <c r="B228" s="30"/>
+      <c r="C228" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D228" s="27"/>
+      <c r="D228" s="31"/>
       <c r="E228" s="10"/>
-      <c r="H228" s="28" t="s">
+      <c r="H228" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I228" s="28"/>
-      <c r="J228" s="27" t="s">
+      <c r="I228" s="30"/>
+      <c r="J228" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K228" s="27"/>
+      <c r="K228" s="31"/>
       <c r="L228" s="10"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="28" t="s">
+      <c r="A229" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B229" s="28"/>
-      <c r="C229" s="27" t="s">
+      <c r="B229" s="30"/>
+      <c r="C229" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D229" s="27"/>
+      <c r="D229" s="31"/>
       <c r="E229" s="10"/>
-      <c r="H229" s="28" t="s">
+      <c r="H229" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I229" s="28"/>
-      <c r="J229" s="27" t="s">
+      <c r="I229" s="30"/>
+      <c r="J229" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="K229" s="27"/>
+      <c r="K229" s="31"/>
       <c r="L229" s="10"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="35" t="s">
+      <c r="A231" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B231" s="29"/>
-      <c r="C231" s="29"/>
-      <c r="D231" s="29"/>
-      <c r="E231" s="37"/>
-      <c r="H231" s="35" t="s">
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="40"/>
+      <c r="H231" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="I231" s="29"/>
-      <c r="J231" s="29"/>
-      <c r="K231" s="29"/>
+      <c r="I231" s="33"/>
+      <c r="J231" s="33"/>
+      <c r="K231" s="33"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="36"/>
-      <c r="B232" s="30"/>
-      <c r="C232" s="30"/>
-      <c r="D232" s="30"/>
-      <c r="E232" s="38"/>
-      <c r="H232" s="36"/>
-      <c r="I232" s="30"/>
-      <c r="J232" s="30"/>
-      <c r="K232" s="30"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="35"/>
+      <c r="D232" s="35"/>
+      <c r="E232" s="41"/>
+      <c r="H232" s="34"/>
+      <c r="I232" s="35"/>
+      <c r="J232" s="35"/>
+      <c r="K232" s="35"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="31" t="s">
+      <c r="A234" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="32"/>
-      <c r="C234" s="33" t="s">
+      <c r="B234" s="37"/>
+      <c r="C234" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="34"/>
+      <c r="D234" s="39"/>
       <c r="E234" s="9"/>
-      <c r="H234" s="31" t="s">
+      <c r="H234" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I234" s="32"/>
-      <c r="J234" s="33" t="s">
+      <c r="I234" s="37"/>
+      <c r="J234" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K234" s="34"/>
+      <c r="K234" s="39"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="31" t="s">
+      <c r="A235" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B235" s="32"/>
-      <c r="C235" s="33" t="s">
+      <c r="B235" s="37"/>
+      <c r="C235" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D235" s="34"/>
+      <c r="D235" s="39"/>
       <c r="E235" s="9"/>
-      <c r="H235" s="31" t="s">
+      <c r="H235" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I235" s="32"/>
-      <c r="J235" s="33" t="s">
+      <c r="I235" s="37"/>
+      <c r="J235" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K235" s="34"/>
+      <c r="K235" s="39"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="31" t="s">
+      <c r="A236" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B236" s="32"/>
-      <c r="C236" s="33" t="s">
+      <c r="B236" s="37"/>
+      <c r="C236" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D236" s="34"/>
+      <c r="D236" s="39"/>
       <c r="E236" s="9"/>
-      <c r="H236" s="31" t="s">
+      <c r="H236" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I236" s="32"/>
-      <c r="J236" s="33" t="s">
+      <c r="I236" s="37"/>
+      <c r="J236" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K236" s="34"/>
+      <c r="K236" s="39"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="31" t="s">
+      <c r="A237" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="32"/>
-      <c r="C237" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D237" s="34"/>
-      <c r="H237" s="31" t="s">
+      <c r="B237" s="37"/>
+      <c r="C237" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D237" s="39"/>
+      <c r="H237" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I237" s="32"/>
-      <c r="J237" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="K237" s="34"/>
+      <c r="I237" s="37"/>
+      <c r="J237" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K237" s="39"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="26" t="s">
@@ -5491,18 +5595,18 @@
       <c r="K238" s="26"/>
     </row>
     <row r="239" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="B239" s="40"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="41"/>
-      <c r="H239" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="I239" s="40"/>
-      <c r="J239" s="40"/>
-      <c r="K239" s="41"/>
+      <c r="A239" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B239" s="28"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="29"/>
+      <c r="H239" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="I239" s="28"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="29"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="26" t="s">
@@ -5519,18 +5623,18 @@
       <c r="K240" s="26"/>
     </row>
     <row r="241" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B241" s="40"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="41"/>
-      <c r="H241" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I241" s="40"/>
-      <c r="J241" s="40"/>
-      <c r="K241" s="41"/>
+      <c r="A241" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B241" s="28"/>
+      <c r="C241" s="28"/>
+      <c r="D241" s="29"/>
+      <c r="H241" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I241" s="28"/>
+      <c r="J241" s="28"/>
+      <c r="K241" s="29"/>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
@@ -5563,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>38</v>
@@ -5575,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>38</v>
@@ -5589,25 +5693,25 @@
         <v>2</v>
       </c>
       <c r="B244" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C244" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C244" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="D244" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H244" s="12">
         <v>2</v>
       </c>
       <c r="I244" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J244" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="J244" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="K244" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -5615,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>38</v>
@@ -5627,7 +5731,7 @@
         <v>3</v>
       </c>
       <c r="I245" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>38</v>
@@ -5641,25 +5745,25 @@
         <v>4</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C246" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D246" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="D246" s="18" t="s">
-        <v>185</v>
       </c>
       <c r="H246" s="12">
         <v>4</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P246" s="23"/>
     </row>
@@ -5704,147 +5808,147 @@
       <c r="K248" s="26"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A249" s="28" t="s">
+      <c r="A249" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B249" s="28"/>
-      <c r="C249" s="27" t="s">
+      <c r="B249" s="30"/>
+      <c r="C249" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D249" s="27"/>
+      <c r="D249" s="31"/>
       <c r="E249" s="10"/>
-      <c r="H249" s="28" t="s">
+      <c r="H249" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I249" s="28"/>
-      <c r="J249" s="27" t="s">
+      <c r="I249" s="30"/>
+      <c r="J249" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K249" s="27"/>
+      <c r="K249" s="31"/>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B250" s="28"/>
-      <c r="C250" s="27" t="s">
+      <c r="B250" s="30"/>
+      <c r="C250" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D250" s="27"/>
+      <c r="D250" s="31"/>
       <c r="E250" s="10"/>
-      <c r="H250" s="28" t="s">
+      <c r="H250" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I250" s="28"/>
-      <c r="J250" s="27" t="s">
+      <c r="I250" s="30"/>
+      <c r="J250" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="K250" s="31"/>
+    </row>
+    <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B253" s="33"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="40"/>
+      <c r="F253" s="49"/>
+      <c r="G253" s="42"/>
+      <c r="H253" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="K250" s="27"/>
-    </row>
-    <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B253" s="29"/>
-      <c r="C253" s="29"/>
-      <c r="D253" s="29"/>
-      <c r="E253" s="37"/>
-      <c r="F253" s="47"/>
-      <c r="G253" s="24"/>
-      <c r="H253" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="I253" s="29"/>
-      <c r="J253" s="29"/>
-      <c r="K253" s="29"/>
+      <c r="I253" s="33"/>
+      <c r="J253" s="33"/>
+      <c r="K253" s="33"/>
     </row>
     <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="36"/>
-      <c r="B254" s="30"/>
-      <c r="C254" s="30"/>
-      <c r="D254" s="30"/>
-      <c r="E254" s="38"/>
-      <c r="F254" s="47"/>
-      <c r="G254" s="25"/>
-      <c r="H254" s="30"/>
-      <c r="I254" s="30"/>
-      <c r="J254" s="30"/>
-      <c r="K254" s="30"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="35"/>
+      <c r="E254" s="41"/>
+      <c r="F254" s="49"/>
+      <c r="G254" s="43"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="35"/>
+      <c r="J254" s="35"/>
+      <c r="K254" s="35"/>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A256" s="31" t="s">
+      <c r="A256" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B256" s="32"/>
-      <c r="C256" s="33" t="s">
+      <c r="B256" s="37"/>
+      <c r="C256" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D256" s="34"/>
+      <c r="D256" s="39"/>
       <c r="E256" s="9"/>
-      <c r="H256" s="31" t="s">
+      <c r="H256" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I256" s="32"/>
-      <c r="J256" s="33" t="s">
+      <c r="I256" s="37"/>
+      <c r="J256" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K256" s="34"/>
+      <c r="K256" s="39"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="31" t="s">
+      <c r="A257" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B257" s="32"/>
-      <c r="C257" s="33" t="s">
+      <c r="B257" s="37"/>
+      <c r="C257" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D257" s="34"/>
+      <c r="D257" s="39"/>
       <c r="E257" s="9"/>
-      <c r="H257" s="31" t="s">
+      <c r="H257" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I257" s="32"/>
-      <c r="J257" s="33" t="s">
+      <c r="I257" s="37"/>
+      <c r="J257" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K257" s="34"/>
+      <c r="K257" s="39"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="31" t="s">
+      <c r="A258" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="32"/>
-      <c r="C258" s="33" t="s">
+      <c r="B258" s="37"/>
+      <c r="C258" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D258" s="34"/>
+      <c r="D258" s="39"/>
       <c r="E258" s="9"/>
-      <c r="H258" s="31" t="s">
+      <c r="H258" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I258" s="32"/>
-      <c r="J258" s="33" t="s">
+      <c r="I258" s="37"/>
+      <c r="J258" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K258" s="34"/>
+      <c r="K258" s="39"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="31" t="s">
+      <c r="A259" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B259" s="32"/>
-      <c r="C259" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D259" s="34"/>
-      <c r="H259" s="31" t="s">
+      <c r="B259" s="37"/>
+      <c r="C259" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D259" s="39"/>
+      <c r="H259" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I259" s="32"/>
-      <c r="J259" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="K259" s="34"/>
+      <c r="I259" s="37"/>
+      <c r="J259" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K259" s="39"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="26" t="s">
@@ -5861,18 +5965,18 @@
       <c r="K260" s="26"/>
     </row>
     <row r="261" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="B261" s="40"/>
-      <c r="C261" s="40"/>
-      <c r="D261" s="41"/>
-      <c r="H261" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="I261" s="40"/>
-      <c r="J261" s="40"/>
-      <c r="K261" s="41"/>
+      <c r="A261" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B261" s="28"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="29"/>
+      <c r="H261" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I261" s="28"/>
+      <c r="J261" s="28"/>
+      <c r="K261" s="29"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="26" t="s">
@@ -5889,18 +5993,18 @@
       <c r="K262" s="26"/>
     </row>
     <row r="263" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B263" s="40"/>
-      <c r="C263" s="40"/>
-      <c r="D263" s="41"/>
-      <c r="H263" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I263" s="40"/>
-      <c r="J263" s="40"/>
-      <c r="K263" s="41"/>
+      <c r="A263" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B263" s="28"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="29"/>
+      <c r="H263" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I263" s="28"/>
+      <c r="J263" s="28"/>
+      <c r="K263" s="29"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
@@ -5933,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>38</v>
@@ -5945,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="I265" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>38</v>
@@ -5959,25 +6063,25 @@
         <v>2</v>
       </c>
       <c r="B266" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C266" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C266" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="D266" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H266" s="16">
         <v>2</v>
       </c>
       <c r="I266" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J266" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="J266" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="K266" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -5985,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>38</v>
@@ -5997,7 +6101,7 @@
         <v>3</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>38</v>
@@ -6011,25 +6115,25 @@
         <v>4</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C268" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C268" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="D268" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H268" s="16">
         <v>4</v>
       </c>
       <c r="I268" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J268" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J268" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="K268" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -6073,147 +6177,147 @@
       <c r="K270" s="26"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="28" t="s">
+      <c r="A271" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="28"/>
-      <c r="C271" s="27" t="s">
+      <c r="B271" s="30"/>
+      <c r="C271" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D271" s="27"/>
+      <c r="D271" s="31"/>
       <c r="E271" s="10"/>
-      <c r="H271" s="28" t="s">
+      <c r="H271" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I271" s="28"/>
-      <c r="J271" s="27" t="s">
+      <c r="I271" s="30"/>
+      <c r="J271" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K271" s="27"/>
+      <c r="K271" s="31"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="28" t="s">
+      <c r="A272" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B272" s="28"/>
-      <c r="C272" s="27" t="s">
+      <c r="B272" s="30"/>
+      <c r="C272" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D272" s="27"/>
+      <c r="D272" s="31"/>
       <c r="E272" s="10"/>
-      <c r="H272" s="28" t="s">
+      <c r="H272" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I272" s="28"/>
-      <c r="J272" s="27" t="s">
+      <c r="I272" s="30"/>
+      <c r="J272" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K272" s="27"/>
+      <c r="K272" s="31"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A274" s="35" t="s">
+      <c r="A274" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B274" s="33"/>
+      <c r="C274" s="33"/>
+      <c r="D274" s="33"/>
+      <c r="E274" s="40"/>
+      <c r="F274" s="49"/>
+      <c r="G274" s="42"/>
+      <c r="H274" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B274" s="29"/>
-      <c r="C274" s="29"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="37"/>
-      <c r="F274" s="47"/>
-      <c r="G274" s="24"/>
-      <c r="H274" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="I274" s="29"/>
-      <c r="J274" s="29"/>
-      <c r="K274" s="29"/>
+      <c r="I274" s="33"/>
+      <c r="J274" s="33"/>
+      <c r="K274" s="33"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A275" s="36"/>
-      <c r="B275" s="30"/>
-      <c r="C275" s="30"/>
-      <c r="D275" s="30"/>
-      <c r="E275" s="38"/>
-      <c r="F275" s="47"/>
-      <c r="G275" s="25"/>
-      <c r="H275" s="30"/>
-      <c r="I275" s="30"/>
-      <c r="J275" s="30"/>
-      <c r="K275" s="30"/>
+      <c r="A275" s="34"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="41"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="43"/>
+      <c r="H275" s="35"/>
+      <c r="I275" s="35"/>
+      <c r="J275" s="35"/>
+      <c r="K275" s="35"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A277" s="31" t="s">
+      <c r="A277" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B277" s="32"/>
-      <c r="C277" s="33" t="s">
+      <c r="B277" s="37"/>
+      <c r="C277" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D277" s="34"/>
+      <c r="D277" s="39"/>
       <c r="E277" s="9"/>
-      <c r="H277" s="31" t="s">
+      <c r="H277" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I277" s="32"/>
-      <c r="J277" s="33" t="s">
+      <c r="I277" s="37"/>
+      <c r="J277" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K277" s="34"/>
+      <c r="K277" s="39"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A278" s="31" t="s">
+      <c r="A278" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B278" s="32"/>
-      <c r="C278" s="33" t="s">
+      <c r="B278" s="37"/>
+      <c r="C278" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D278" s="34"/>
+      <c r="D278" s="39"/>
       <c r="E278" s="9"/>
-      <c r="H278" s="31" t="s">
+      <c r="H278" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I278" s="32"/>
-      <c r="J278" s="33" t="s">
+      <c r="I278" s="37"/>
+      <c r="J278" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K278" s="34"/>
+      <c r="K278" s="39"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A279" s="31" t="s">
+      <c r="A279" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B279" s="32"/>
-      <c r="C279" s="33" t="s">
+      <c r="B279" s="37"/>
+      <c r="C279" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D279" s="34"/>
+      <c r="D279" s="39"/>
       <c r="E279" s="9"/>
-      <c r="H279" s="31" t="s">
+      <c r="H279" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I279" s="32"/>
-      <c r="J279" s="33" t="s">
+      <c r="I279" s="37"/>
+      <c r="J279" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K279" s="34"/>
+      <c r="K279" s="39"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A280" s="31" t="s">
+      <c r="A280" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B280" s="32"/>
-      <c r="C280" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D280" s="34"/>
-      <c r="H280" s="31" t="s">
+      <c r="B280" s="37"/>
+      <c r="C280" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D280" s="39"/>
+      <c r="H280" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I280" s="32"/>
-      <c r="J280" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="K280" s="34"/>
+      <c r="I280" s="37"/>
+      <c r="J280" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="K280" s="39"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="26" t="s">
@@ -6230,18 +6334,18 @@
       <c r="K281" s="26"/>
     </row>
     <row r="282" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B282" s="27"/>
-      <c r="C282" s="27"/>
-      <c r="D282" s="27"/>
-      <c r="H282" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="I282" s="40"/>
-      <c r="J282" s="40"/>
-      <c r="K282" s="41"/>
+      <c r="A282" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B282" s="31"/>
+      <c r="C282" s="31"/>
+      <c r="D282" s="31"/>
+      <c r="H282" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="I282" s="28"/>
+      <c r="J282" s="28"/>
+      <c r="K282" s="29"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="26" t="s">
@@ -6258,18 +6362,18 @@
       <c r="K283" s="26"/>
     </row>
     <row r="284" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B284" s="40"/>
-      <c r="C284" s="40"/>
-      <c r="D284" s="41"/>
-      <c r="H284" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I284" s="40"/>
-      <c r="J284" s="40"/>
-      <c r="K284" s="41"/>
+      <c r="A284" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B284" s="28"/>
+      <c r="C284" s="28"/>
+      <c r="D284" s="29"/>
+      <c r="H284" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I284" s="28"/>
+      <c r="J284" s="28"/>
+      <c r="K284" s="29"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
@@ -6303,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>38</v>
@@ -6315,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>38</v>
@@ -6329,25 +6433,25 @@
         <v>2</v>
       </c>
       <c r="B287" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C287" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C287" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="D287" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H287" s="16">
         <v>2</v>
       </c>
       <c r="I287" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J287" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="J287" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="K287" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="288" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -6355,25 +6459,25 @@
         <v>3</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H288" s="16">
         <v>3</v>
       </c>
       <c r="I288" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -6381,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>38</v>
@@ -6393,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="I289" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>38</v>
@@ -6407,25 +6511,25 @@
         <v>5</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D290" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H290" s="16">
         <v>5</v>
       </c>
       <c r="I290" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J290" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="J290" s="18" t="s">
+      <c r="K290" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="K290" s="18" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -6443,141 +6547,145 @@
       <c r="K291" s="26"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="28" t="s">
+      <c r="A292" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B292" s="28"/>
-      <c r="C292" s="27" t="s">
+      <c r="B292" s="30"/>
+      <c r="C292" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D292" s="27"/>
+      <c r="D292" s="31"/>
       <c r="E292" s="10"/>
-      <c r="H292" s="28" t="s">
+      <c r="H292" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I292" s="28"/>
-      <c r="J292" s="27" t="s">
+      <c r="I292" s="30"/>
+      <c r="J292" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="K292" s="27"/>
+      <c r="K292" s="31"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="28" t="s">
+      <c r="A293" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B293" s="28"/>
-      <c r="C293" s="27" t="s">
+      <c r="B293" s="30"/>
+      <c r="C293" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D293" s="27"/>
+      <c r="D293" s="31"/>
       <c r="E293" s="10"/>
-      <c r="H293" s="28" t="s">
+      <c r="H293" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I293" s="28"/>
-      <c r="J293" s="27" t="s">
+      <c r="I293" s="30"/>
+      <c r="J293" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K293" s="27"/>
+      <c r="K293" s="31"/>
     </row>
     <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="35" t="s">
+      <c r="A295" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B295" s="33"/>
+      <c r="C295" s="33"/>
+      <c r="D295" s="33"/>
+      <c r="E295" s="40"/>
+      <c r="G295" s="42"/>
+      <c r="H295" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B295" s="29"/>
-      <c r="C295" s="29"/>
-      <c r="D295" s="29"/>
-      <c r="E295" s="37"/>
-      <c r="G295" s="24"/>
-      <c r="H295" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I295" s="29"/>
-      <c r="J295" s="29"/>
-      <c r="K295" s="29"/>
+      <c r="I295" s="33"/>
+      <c r="J295" s="33"/>
+      <c r="K295" s="33"/>
     </row>
     <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="36"/>
-      <c r="B296" s="30"/>
-      <c r="C296" s="30"/>
-      <c r="D296" s="30"/>
-      <c r="E296" s="38"/>
-      <c r="G296" s="25"/>
-      <c r="H296" s="30"/>
-      <c r="I296" s="30"/>
-      <c r="J296" s="30"/>
-      <c r="K296" s="30"/>
+      <c r="A296" s="34"/>
+      <c r="B296" s="35"/>
+      <c r="C296" s="35"/>
+      <c r="D296" s="35"/>
+      <c r="E296" s="41"/>
+      <c r="G296" s="43"/>
+      <c r="H296" s="35"/>
+      <c r="I296" s="35"/>
+      <c r="J296" s="35"/>
+      <c r="K296" s="35"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="31" t="s">
+      <c r="A298" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="32"/>
-      <c r="C298" s="33" t="s">
+      <c r="B298" s="37"/>
+      <c r="C298" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D298" s="34"/>
+      <c r="D298" s="39"/>
       <c r="E298" s="9"/>
-      <c r="H298" s="31" t="s">
+      <c r="H298" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I298" s="32"/>
-      <c r="J298" s="33" t="s">
+      <c r="I298" s="37"/>
+      <c r="J298" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K298" s="34"/>
+      <c r="K298" s="39"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="31" t="s">
+      <c r="A299" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B299" s="32"/>
-      <c r="C299" s="33" t="s">
+      <c r="B299" s="37"/>
+      <c r="C299" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D299" s="34"/>
+      <c r="D299" s="39"/>
       <c r="E299" s="9"/>
-      <c r="H299" s="31" t="s">
+      <c r="H299" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I299" s="32"/>
-      <c r="J299" s="33" t="s">
+      <c r="I299" s="37"/>
+      <c r="J299" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K299" s="34"/>
+      <c r="K299" s="39"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="31" t="s">
+      <c r="A300" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B300" s="32"/>
-      <c r="C300" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D300" s="34"/>
+      <c r="B300" s="37"/>
+      <c r="C300" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D300" s="39"/>
       <c r="E300" s="9"/>
-      <c r="H300" s="31" t="s">
+      <c r="H300" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I300" s="32"/>
-      <c r="J300" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K300" s="34"/>
+      <c r="I300" s="37"/>
+      <c r="J300" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="K300" s="39"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="31" t="s">
+      <c r="A301" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B301" s="32"/>
-      <c r="C301" s="33"/>
-      <c r="D301" s="34"/>
-      <c r="H301" s="31" t="s">
+      <c r="B301" s="37"/>
+      <c r="C301" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D301" s="39"/>
+      <c r="H301" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I301" s="32"/>
-      <c r="J301" s="33"/>
-      <c r="K301" s="34"/>
+      <c r="I301" s="37"/>
+      <c r="J301" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K301" s="39"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="26" t="s">
@@ -6593,15 +6701,19 @@
       <c r="J302" s="26"/>
       <c r="K302" s="26"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="27"/>
-      <c r="B303" s="27"/>
-      <c r="C303" s="27"/>
-      <c r="D303" s="27"/>
-      <c r="H303" s="27"/>
-      <c r="I303" s="27"/>
-      <c r="J303" s="27"/>
-      <c r="K303" s="27"/>
+    <row r="303" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B303" s="28"/>
+      <c r="C303" s="28"/>
+      <c r="D303" s="29"/>
+      <c r="H303" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="I303" s="28"/>
+      <c r="J303" s="28"/>
+      <c r="K303" s="29"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="26" t="s">
@@ -6617,15 +6729,19 @@
       <c r="J304" s="26"/>
       <c r="K304" s="26"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="27"/>
-      <c r="B305" s="27"/>
-      <c r="C305" s="27"/>
-      <c r="D305" s="27"/>
-      <c r="H305" s="27"/>
-      <c r="I305" s="27"/>
-      <c r="J305" s="27"/>
-      <c r="K305" s="27"/>
+    <row r="305" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B305" s="31"/>
+      <c r="C305" s="31"/>
+      <c r="D305" s="31"/>
+      <c r="H305" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I305" s="28"/>
+      <c r="J305" s="28"/>
+      <c r="K305" s="29"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
@@ -6653,83 +6769,143 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="16">
         <v>1</v>
       </c>
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
+      <c r="B307" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H307" s="16">
         <v>1</v>
       </c>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2"/>
-      <c r="K307" s="2"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I307" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="16">
         <v>2</v>
       </c>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
+      <c r="B308" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H308" s="16">
         <v>2</v>
       </c>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2"/>
-      <c r="K308" s="2"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I308" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="16">
         <v>3</v>
       </c>
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
+      <c r="B309" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H309" s="16">
         <v>3</v>
       </c>
-      <c r="I309" s="2"/>
-      <c r="J309" s="2"/>
-      <c r="K309" s="2"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I309" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A310" s="16">
         <v>4</v>
       </c>
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
+      <c r="B310" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H310" s="16">
         <v>4</v>
       </c>
-      <c r="I310" s="2"/>
-      <c r="J310" s="2"/>
-      <c r="K310" s="2"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I310" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="16">
         <v>5</v>
       </c>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
+      <c r="B311" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C311" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D311" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="H311" s="16">
         <v>5</v>
       </c>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2"/>
-      <c r="K311" s="2"/>
+      <c r="I311" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J311" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="K311" s="18" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="26" t="s">
+      <c r="A312" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
-      <c r="D312" s="26"/>
+      <c r="B312" s="56"/>
+      <c r="C312" s="56"/>
+      <c r="D312" s="57"/>
       <c r="H312" s="26" t="s">
         <v>10</v>
       </c>
@@ -6738,149 +6914,151 @@
       <c r="K312" s="26"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="28" t="s">
+      <c r="A313" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B313" s="28"/>
-      <c r="C313" s="27" t="s">
+      <c r="B313" s="30"/>
+      <c r="C313" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D313" s="27"/>
+      <c r="D313" s="31"/>
       <c r="E313" s="10"/>
-      <c r="H313" s="28" t="s">
+      <c r="H313" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I313" s="28"/>
-      <c r="J313" s="27" t="s">
+      <c r="I313" s="30"/>
+      <c r="J313" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K313" s="27"/>
+      <c r="K313" s="31"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="28" t="s">
+      <c r="A314" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B314" s="28"/>
-      <c r="C314" s="27" t="s">
+      <c r="B314" s="30"/>
+      <c r="C314" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="27"/>
+      <c r="D314" s="31"/>
       <c r="E314" s="10"/>
-      <c r="H314" s="28" t="s">
+      <c r="H314" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I314" s="28"/>
-      <c r="J314" s="27" t="s">
+      <c r="I314" s="30"/>
+      <c r="J314" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K314" s="27"/>
+      <c r="K314" s="31"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="35" t="s">
+      <c r="A316" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B316" s="33"/>
+      <c r="C316" s="33"/>
+      <c r="D316" s="33"/>
+      <c r="E316" s="40"/>
+      <c r="G316" s="42"/>
+      <c r="H316" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B316" s="29"/>
-      <c r="C316" s="29"/>
-      <c r="D316" s="29"/>
-      <c r="E316" s="37"/>
-      <c r="G316" s="24"/>
-      <c r="H316" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I316" s="29"/>
-      <c r="J316" s="29"/>
-      <c r="K316" s="29"/>
+      <c r="I316" s="33"/>
+      <c r="J316" s="33"/>
+      <c r="K316" s="33"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="36"/>
-      <c r="B317" s="30"/>
-      <c r="C317" s="30"/>
-      <c r="D317" s="30"/>
-      <c r="E317" s="38"/>
-      <c r="G317" s="25"/>
-      <c r="H317" s="30"/>
-      <c r="I317" s="30"/>
-      <c r="J317" s="30"/>
-      <c r="K317" s="30"/>
+      <c r="A317" s="34"/>
+      <c r="B317" s="35"/>
+      <c r="C317" s="35"/>
+      <c r="D317" s="35"/>
+      <c r="E317" s="41"/>
+      <c r="G317" s="43"/>
+      <c r="H317" s="35"/>
+      <c r="I317" s="35"/>
+      <c r="J317" s="35"/>
+      <c r="K317" s="35"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="31" t="s">
+      <c r="A319" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="32"/>
-      <c r="C319" s="33" t="s">
+      <c r="B319" s="37"/>
+      <c r="C319" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D319" s="34"/>
+      <c r="D319" s="39"/>
       <c r="E319" s="9"/>
-      <c r="H319" s="31" t="s">
+      <c r="H319" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I319" s="32"/>
-      <c r="J319" s="33" t="s">
+      <c r="I319" s="37"/>
+      <c r="J319" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K319" s="34"/>
+      <c r="K319" s="39"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="31" t="s">
+      <c r="A320" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B320" s="32"/>
-      <c r="C320" s="33" t="s">
+      <c r="B320" s="37"/>
+      <c r="C320" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D320" s="34"/>
+      <c r="D320" s="39"/>
       <c r="E320" s="9"/>
-      <c r="H320" s="31" t="s">
+      <c r="H320" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I320" s="32"/>
-      <c r="J320" s="33" t="s">
+      <c r="I320" s="37"/>
+      <c r="J320" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K320" s="34"/>
+      <c r="K320" s="39"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="31" t="s">
+      <c r="A321" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B321" s="32"/>
-      <c r="C321" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D321" s="34"/>
+      <c r="B321" s="37"/>
+      <c r="C321" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D321" s="39"/>
       <c r="E321" s="9"/>
-      <c r="H321" s="31" t="s">
+      <c r="H321" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I321" s="32"/>
-      <c r="J321" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K321" s="34"/>
+      <c r="I321" s="37"/>
+      <c r="J321" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K321" s="39"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="31" t="s">
+      <c r="A322" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B322" s="32"/>
-      <c r="C322" s="33"/>
-      <c r="D322" s="34"/>
-      <c r="H322" s="31" t="s">
+      <c r="B322" s="37"/>
+      <c r="C322" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D322" s="39"/>
+      <c r="H322" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I322" s="32"/>
-      <c r="J322" s="33"/>
-      <c r="K322" s="34"/>
+      <c r="I322" s="37"/>
+      <c r="J322" s="38"/>
+      <c r="K322" s="39"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="26" t="s">
+      <c r="A323" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B323" s="26"/>
-      <c r="C323" s="26"/>
-      <c r="D323" s="26"/>
+      <c r="B323" s="53"/>
+      <c r="C323" s="53"/>
+      <c r="D323" s="53"/>
       <c r="H323" s="26" t="s">
         <v>5</v>
       </c>
@@ -6888,23 +7066,25 @@
       <c r="J323" s="26"/>
       <c r="K323" s="26"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="27"/>
-      <c r="B324" s="27"/>
-      <c r="C324" s="27"/>
-      <c r="D324" s="27"/>
-      <c r="H324" s="27"/>
-      <c r="I324" s="27"/>
-      <c r="J324" s="27"/>
-      <c r="K324" s="27"/>
+    <row r="324" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B324" s="51"/>
+      <c r="C324" s="51"/>
+      <c r="D324" s="52"/>
+      <c r="H324" s="31"/>
+      <c r="I324" s="31"/>
+      <c r="J324" s="31"/>
+      <c r="K324" s="31"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="26" t="s">
+      <c r="A325" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B325" s="26"/>
-      <c r="C325" s="26"/>
-      <c r="D325" s="26"/>
+      <c r="B325" s="54"/>
+      <c r="C325" s="54"/>
+      <c r="D325" s="54"/>
       <c r="H325" s="26" t="s">
         <v>2</v>
       </c>
@@ -6912,15 +7092,17 @@
       <c r="J325" s="26"/>
       <c r="K325" s="26"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="27"/>
-      <c r="B326" s="27"/>
-      <c r="C326" s="27"/>
-      <c r="D326" s="27"/>
-      <c r="H326" s="27"/>
-      <c r="I326" s="27"/>
-      <c r="J326" s="27"/>
-      <c r="K326" s="27"/>
+    <row r="326" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B326" s="51"/>
+      <c r="C326" s="51"/>
+      <c r="D326" s="52"/>
+      <c r="H326" s="31"/>
+      <c r="I326" s="31"/>
+      <c r="J326" s="31"/>
+      <c r="K326" s="31"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
@@ -6948,13 +7130,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="16">
         <v>1</v>
       </c>
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
+      <c r="B328" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H328" s="16">
         <v>1</v>
       </c>
@@ -6962,13 +7150,19 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="16">
         <v>2</v>
       </c>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
+      <c r="B329" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H329" s="16">
         <v>2</v>
       </c>
@@ -6976,13 +7170,19 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" s="16">
         <v>3</v>
       </c>
-      <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
+      <c r="B330" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H330" s="16">
         <v>3</v>
       </c>
@@ -6990,13 +7190,19 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="16">
         <v>4</v>
       </c>
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
+      <c r="B331" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H331" s="16">
         <v>4</v>
       </c>
@@ -7004,13 +7210,19 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A332" s="16">
         <v>5</v>
       </c>
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
+      <c r="B332" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D332" s="18" t="s">
+        <v>228</v>
+      </c>
       <c r="H332" s="16">
         <v>5</v>
       </c>
@@ -7033,120 +7245,891 @@
       <c r="K333" s="26"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="28" t="s">
+      <c r="A334" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B334" s="28"/>
-      <c r="C334" s="27" t="s">
+      <c r="B334" s="30"/>
+      <c r="C334" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D334" s="27"/>
+      <c r="D334" s="31"/>
       <c r="E334" s="10"/>
-      <c r="H334" s="28" t="s">
+      <c r="H334" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I334" s="28"/>
-      <c r="J334" s="27" t="s">
+      <c r="I334" s="30"/>
+      <c r="J334" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K334" s="27"/>
+      <c r="K334" s="31"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="28" t="s">
+      <c r="A335" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B335" s="28"/>
-      <c r="C335" s="27" t="s">
+      <c r="B335" s="30"/>
+      <c r="C335" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D335" s="27"/>
+      <c r="D335" s="31"/>
       <c r="E335" s="10"/>
-      <c r="H335" s="28" t="s">
+      <c r="H335" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I335" s="28"/>
-      <c r="J335" s="27" t="s">
+      <c r="I335" s="30"/>
+      <c r="J335" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K335" s="27"/>
+      <c r="K335" s="31"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B338" s="33"/>
+      <c r="C338" s="33"/>
+      <c r="D338" s="33"/>
+      <c r="E338" s="40"/>
+      <c r="G338" s="42"/>
+      <c r="H338" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I338" s="33"/>
+      <c r="J338" s="33"/>
+      <c r="K338" s="33"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="34"/>
+      <c r="B339" s="35"/>
+      <c r="C339" s="35"/>
+      <c r="D339" s="35"/>
+      <c r="E339" s="41"/>
+      <c r="G339" s="43"/>
+      <c r="H339" s="35"/>
+      <c r="I339" s="35"/>
+      <c r="J339" s="35"/>
+      <c r="K339" s="35"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341" s="37"/>
+      <c r="C341" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="H341" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I341" s="37"/>
+      <c r="J341" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K341" s="39"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" s="37"/>
+      <c r="C342" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="H342" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I342" s="37"/>
+      <c r="J342" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K342" s="39"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B343" s="37"/>
+      <c r="C343" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="H343" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I343" s="37"/>
+      <c r="J343" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K343" s="39"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B344" s="37"/>
+      <c r="C344" s="38"/>
+      <c r="D344" s="39"/>
+      <c r="H344" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I344" s="37"/>
+      <c r="J344" s="38"/>
+      <c r="K344" s="39"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B345" s="26"/>
+      <c r="C345" s="26"/>
+      <c r="D345" s="26"/>
+      <c r="H345" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I345" s="26"/>
+      <c r="J345" s="26"/>
+      <c r="K345" s="26"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="31"/>
+      <c r="B346" s="31"/>
+      <c r="C346" s="31"/>
+      <c r="D346" s="31"/>
+      <c r="H346" s="31"/>
+      <c r="I346" s="31"/>
+      <c r="J346" s="31"/>
+      <c r="K346" s="31"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B347" s="26"/>
+      <c r="C347" s="26"/>
+      <c r="D347" s="26"/>
+      <c r="H347" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I347" s="26"/>
+      <c r="J347" s="26"/>
+      <c r="K347" s="26"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="31"/>
+      <c r="B348" s="31"/>
+      <c r="C348" s="31"/>
+      <c r="D348" s="31"/>
+      <c r="H348" s="31"/>
+      <c r="I348" s="31"/>
+      <c r="J348" s="31"/>
+      <c r="K348" s="31"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H349" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I349" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J349" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K349" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="25">
+        <v>1</v>
+      </c>
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+      <c r="H350" s="25">
+        <v>1</v>
+      </c>
+      <c r="I350" s="2"/>
+      <c r="J350" s="2"/>
+      <c r="K350" s="2"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="25">
+        <v>2</v>
+      </c>
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+      <c r="H351" s="25">
+        <v>2</v>
+      </c>
+      <c r="I351" s="2"/>
+      <c r="J351" s="2"/>
+      <c r="K351" s="2"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="25">
+        <v>3</v>
+      </c>
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="H352" s="25">
+        <v>3</v>
+      </c>
+      <c r="I352" s="2"/>
+      <c r="J352" s="2"/>
+      <c r="K352" s="2"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="25">
+        <v>4</v>
+      </c>
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="H353" s="25">
+        <v>4</v>
+      </c>
+      <c r="I353" s="2"/>
+      <c r="J353" s="2"/>
+      <c r="K353" s="2"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="25">
+        <v>5</v>
+      </c>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="H354" s="25">
+        <v>5</v>
+      </c>
+      <c r="I354" s="2"/>
+      <c r="J354" s="2"/>
+      <c r="K354" s="2"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B355" s="26"/>
+      <c r="C355" s="26"/>
+      <c r="D355" s="26"/>
+      <c r="H355" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I355" s="26"/>
+      <c r="J355" s="26"/>
+      <c r="K355" s="26"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B356" s="30"/>
+      <c r="C356" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="31"/>
+      <c r="E356" s="10"/>
+      <c r="H356" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I356" s="30"/>
+      <c r="J356" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K356" s="31"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" s="30"/>
+      <c r="C357" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D357" s="31"/>
+      <c r="E357" s="10"/>
+      <c r="H357" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I357" s="30"/>
+      <c r="J357" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K357" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
-    <mergeCell ref="H238:K238"/>
-    <mergeCell ref="H239:K239"/>
-    <mergeCell ref="H240:K240"/>
-    <mergeCell ref="H241:K241"/>
-    <mergeCell ref="H248:K248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="H231:K232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="A231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="H217:K217"/>
-    <mergeCell ref="H218:K218"/>
-    <mergeCell ref="H219:K219"/>
-    <mergeCell ref="H220:K220"/>
-    <mergeCell ref="H227:K227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="H210:K211"/>
-    <mergeCell ref="L210:L211"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="A210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
+  <mergeCells count="650">
+    <mergeCell ref="H345:K345"/>
+    <mergeCell ref="H346:K346"/>
+    <mergeCell ref="H347:K347"/>
+    <mergeCell ref="H348:K348"/>
+    <mergeCell ref="H355:K355"/>
+    <mergeCell ref="H356:I356"/>
+    <mergeCell ref="J356:K356"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="J357:K357"/>
+    <mergeCell ref="G338:G339"/>
+    <mergeCell ref="H338:K339"/>
+    <mergeCell ref="H341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A348:D348"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="A338:D339"/>
+    <mergeCell ref="E338:E339"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H302:K302"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="H304:K304"/>
+    <mergeCell ref="H305:K305"/>
+    <mergeCell ref="H312:K312"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="H316:K317"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="J335:K335"/>
+    <mergeCell ref="H295:K296"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="H320:I320"/>
+    <mergeCell ref="J320:K320"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="J321:K321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="J322:K322"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="H323:K323"/>
+    <mergeCell ref="H324:K324"/>
+    <mergeCell ref="H325:K325"/>
+    <mergeCell ref="H326:K326"/>
+    <mergeCell ref="H333:K333"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="J334:K334"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A316:D317"/>
+    <mergeCell ref="E316:E317"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A333:D333"/>
+    <mergeCell ref="A302:D302"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="C313:D313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="A274:D275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="A295:D296"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H291:K291"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="G253:G254"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="H281:K281"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="H260:K260"/>
+    <mergeCell ref="H261:K261"/>
+    <mergeCell ref="H262:K262"/>
+    <mergeCell ref="H263:K263"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="H274:K275"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="H253:K254"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="H64:K65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="H85:K86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="F1:F1048576"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:K106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="H126:K127"/>
+    <mergeCell ref="A147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="H147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="H178:K178"/>
+    <mergeCell ref="H185:K185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="H168:K169"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="G189:G190"/>
     <mergeCell ref="A207:B207"/>
     <mergeCell ref="C207:D207"/>
     <mergeCell ref="A208:B208"/>
@@ -7171,519 +8154,81 @@
     <mergeCell ref="H208:I208"/>
     <mergeCell ref="J208:K208"/>
     <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="H178:K178"/>
-    <mergeCell ref="H185:K185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="H168:K169"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="L168:L169"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="H164:K164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="H147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="A147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="H126:K127"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="A126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:K106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="F1:F1048576"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="H85:K86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="H64:K65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="H253:K254"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="H260:K260"/>
-    <mergeCell ref="H261:K261"/>
-    <mergeCell ref="H262:K262"/>
-    <mergeCell ref="H263:K263"/>
-    <mergeCell ref="H270:K270"/>
-    <mergeCell ref="H271:I271"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="H272:I272"/>
-    <mergeCell ref="J272:K272"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="H274:K275"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="H281:K281"/>
-    <mergeCell ref="H282:K282"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H291:K291"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="G210:G211"/>
-    <mergeCell ref="G253:G254"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="A295:D296"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="C298:D298"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="C293:D293"/>
-    <mergeCell ref="A274:D275"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:D277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="C300:D300"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="A302:D302"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A312:D312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="C313:D313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="C314:D314"/>
-    <mergeCell ref="A316:D317"/>
-    <mergeCell ref="E316:E317"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A326:D326"/>
-    <mergeCell ref="A333:D333"/>
-    <mergeCell ref="H319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="H320:I320"/>
-    <mergeCell ref="J320:K320"/>
-    <mergeCell ref="H321:I321"/>
-    <mergeCell ref="J321:K321"/>
-    <mergeCell ref="H322:I322"/>
-    <mergeCell ref="J322:K322"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="H323:K323"/>
-    <mergeCell ref="H324:K324"/>
-    <mergeCell ref="H325:K325"/>
-    <mergeCell ref="H326:K326"/>
-    <mergeCell ref="H333:K333"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="J334:K334"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="J335:K335"/>
-    <mergeCell ref="H295:K296"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="J300:K300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="G316:G317"/>
-    <mergeCell ref="H302:K302"/>
-    <mergeCell ref="H303:K303"/>
-    <mergeCell ref="H304:K304"/>
-    <mergeCell ref="H305:K305"/>
-    <mergeCell ref="H312:K312"/>
-    <mergeCell ref="H313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="H314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="H316:K317"/>
+    <mergeCell ref="A210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="H210:K211"/>
+    <mergeCell ref="L210:L211"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="H217:K217"/>
+    <mergeCell ref="H218:K218"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="H220:K220"/>
+    <mergeCell ref="H227:K227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="A231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="H231:K232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="H238:K238"/>
+    <mergeCell ref="H239:K239"/>
+    <mergeCell ref="H240:K240"/>
+    <mergeCell ref="H241:K241"/>
+    <mergeCell ref="H248:K248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="259">
   <si>
     <t>ID caso de prueba</t>
   </si>
@@ -715,6 +715,87 @@
   </si>
   <si>
     <t>PRS_0034</t>
+  </si>
+  <si>
+    <t>Caso de prueba 35</t>
+  </si>
+  <si>
+    <t>Caso de prueba 36</t>
+  </si>
+  <si>
+    <t>Caso de prueba 37</t>
+  </si>
+  <si>
+    <t>Caso de prueba 38</t>
+  </si>
+  <si>
+    <t>PRS_0028</t>
+  </si>
+  <si>
+    <t>PRS_0027</t>
+  </si>
+  <si>
+    <t>PRS_0026</t>
+  </si>
+  <si>
+    <t>PRS_0025</t>
+  </si>
+  <si>
+    <t>validCharacters(string) en Projects</t>
+  </si>
+  <si>
+    <t>Que el usuario no puedra ingresar caracteres invalidos en el nombre del proyecto</t>
+  </si>
+  <si>
+    <t>Usuario logeado y pagina de creacion de primer proyecto del sistema</t>
+  </si>
+  <si>
+    <t>Ingresar "||||||||¿¿¿¿¿"""""???"</t>
+  </si>
+  <si>
+    <t>Click en Crear proyecto</t>
+  </si>
+  <si>
+    <t>El nombre se convierte en  "||||||||???"</t>
+  </si>
+  <si>
+    <t>Ingresar "|||||||||¿'¿'¿'¬¬¬¬?!?!?!?}}+´´´´´´{{{"</t>
+  </si>
+  <si>
+    <t>El nombre se transforma en "|||||||||?!?!?!?}}+{{{"</t>
+  </si>
+  <si>
+    <t>validQuery(string) en Lookup</t>
+  </si>
+  <si>
+    <t>Que el usuario no pueda realizar busqueds con caracteres inválidos</t>
+  </si>
+  <si>
+    <t>Usuario logeado y proyecto creado</t>
+  </si>
+  <si>
+    <t>Ingresar " ?????+|+|+|+|{|||||¿¿ AND data mining"</t>
+  </si>
+  <si>
+    <t>La busqueda se transforma en "++++{ AND data mining"</t>
+  </si>
+  <si>
+    <t>PRS_0035</t>
+  </si>
+  <si>
+    <t>PRS_0036</t>
+  </si>
+  <si>
+    <t>PRS_0037</t>
+  </si>
+  <si>
+    <t>PRS_0038</t>
+  </si>
+  <si>
+    <t>Ingresar "||¿¿??'M" "</t>
+  </si>
+  <si>
+    <t>La busqueda se transforma en "M"</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1027,28 +1108,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,38 +1144,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,6 +1177,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,6 +1188,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,7 +1479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1400,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P357"/>
+  <dimension ref="A1:S400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N349" sqref="N349"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N369" sqref="N369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1499,7 @@
     <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="48" customWidth="1"/>
+    <col min="6" max="6" width="8" style="58" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="4" customWidth="1"/>
     <col min="9" max="11" width="16.28515625" style="1" customWidth="1"/>
@@ -1420,161 +1507,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
-      <c r="E1" s="40"/>
-      <c r="G1" s="44"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="33" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="K1" s="46"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="41"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="47"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="42"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="9"/>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="H5" s="36" t="s">
+      <c r="D5" s="38"/>
+      <c r="H5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="H6" s="36" t="s">
+      <c r="D6" s="38"/>
+      <c r="H6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="H7" s="36" t="s">
+      <c r="D7" s="38"/>
+      <c r="H7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="36"/>
+      <c r="J7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="H8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="H9" s="27" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="H9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="H10" s="26" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="H10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="H11" s="27" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="H11" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1733,56 +1820,56 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="H18" s="26" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="H18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="10"/>
       <c r="H19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="30"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="31"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="10"/>
       <c r="H20" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -1794,163 +1881,163 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="40"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="41"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="33" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="46"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="41"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="47"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="42"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="55"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="9"/>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38" t="s">
+      <c r="I25" s="36"/>
+      <c r="J25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="39"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="9"/>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38" t="s">
+      <c r="I26" s="36"/>
+      <c r="J26" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="39"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="9"/>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38" t="s">
+      <c r="I27" s="36"/>
+      <c r="J27" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="39"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="H28" s="36" t="s">
+      <c r="D28" s="38"/>
+      <c r="H28" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38" t="s">
+      <c r="I28" s="36"/>
+      <c r="J28" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="39"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="H29" s="26" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="H29" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="H30" s="27" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="H30" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="H31" s="26" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="H31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="H32" s="27" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="H32" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2109,84 +2196,84 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="H39" s="26" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="H39" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="10"/>
       <c r="H40" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I40" s="30"/>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="31"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="30"/>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="10"/>
       <c r="H41" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I41" s="30"/>
-      <c r="J41" s="31" t="s">
+      <c r="J41" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="31"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
-      <c r="E43" s="40"/>
-      <c r="G43" s="44"/>
+      <c r="E43" s="41"/>
+      <c r="G43" s="56"/>
       <c r="H43" s="33" t="s">
         <v>22</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="46"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="41"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="47"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="42"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="55"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -2201,134 +2288,134 @@
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="9"/>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38" t="s">
+      <c r="I46" s="36"/>
+      <c r="J46" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="39"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="39"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="9"/>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38" t="s">
+      <c r="I47" s="36"/>
+      <c r="J47" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K47" s="39"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="H48" s="36" t="s">
+      <c r="D48" s="38"/>
+      <c r="H48" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="38" t="s">
+      <c r="I48" s="36"/>
+      <c r="J48" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="39"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="H49" s="36" t="s">
+      <c r="D49" s="38"/>
+      <c r="H49" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="38" t="s">
+      <c r="I49" s="36"/>
+      <c r="J49" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K49" s="39"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="H50" s="26" t="s">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="H50" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="H51" s="27" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="H51" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="45"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="H52" s="26" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="H52" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="H53" s="31" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="H53" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -2488,213 +2575,213 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="H60" s="26" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="H60" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="30"/>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="31"/>
+      <c r="D61" s="29"/>
       <c r="H61" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="30"/>
-      <c r="J61" s="31" t="s">
+      <c r="J61" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K61" s="31"/>
+      <c r="K61" s="29"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="30"/>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="29"/>
       <c r="E62" s="10"/>
       <c r="H62" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I62" s="30"/>
-      <c r="J62" s="31" t="s">
+      <c r="J62" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="31"/>
+      <c r="K62" s="29"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
-      <c r="E64" s="40"/>
-      <c r="G64" s="44"/>
+      <c r="E64" s="41"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="33" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
-      <c r="K64" s="46"/>
+      <c r="K64" s="54"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="41"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="47"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="42"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="55"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="38" t="s">
+      <c r="B67" s="36"/>
+      <c r="C67" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="9"/>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38" t="s">
+      <c r="I67" s="36"/>
+      <c r="J67" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="39"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="38" t="s">
+      <c r="B68" s="36"/>
+      <c r="C68" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="9"/>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="37"/>
-      <c r="J68" s="38" t="s">
+      <c r="I68" s="36"/>
+      <c r="J68" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K68" s="39"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="38" t="s">
+      <c r="B69" s="36"/>
+      <c r="C69" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="H69" s="36" t="s">
+      <c r="D69" s="38"/>
+      <c r="H69" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="37"/>
-      <c r="J69" s="38" t="s">
+      <c r="I69" s="36"/>
+      <c r="J69" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="39"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="38" t="s">
+      <c r="B70" s="36"/>
+      <c r="C70" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="39"/>
-      <c r="H70" s="36" t="s">
+      <c r="D70" s="38"/>
+      <c r="H70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38" t="s">
+      <c r="I70" s="36"/>
+      <c r="J70" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K70" s="39"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="H71" s="26" t="s">
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="H71" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="H72" s="27" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="H72" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="29"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="45"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="H73" s="26" t="s">
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="H73" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
     </row>
     <row r="74" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="H74" s="27" t="s">
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
+      <c r="H74" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="29"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="45"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -2853,210 +2940,210 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="H81" s="26" t="s">
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="H81" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="30"/>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="31"/>
+      <c r="D82" s="29"/>
       <c r="H82" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="30"/>
-      <c r="J82" s="31" t="s">
+      <c r="J82" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K82" s="31"/>
+      <c r="K82" s="29"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="30"/>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="31"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="10"/>
       <c r="H83" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I83" s="30"/>
-      <c r="J83" s="31" t="s">
+      <c r="J83" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="31"/>
+      <c r="K83" s="29"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
-      <c r="E85" s="40"/>
-      <c r="G85" s="44"/>
+      <c r="E85" s="41"/>
+      <c r="G85" s="56"/>
       <c r="H85" s="33" t="s">
         <v>31</v>
       </c>
       <c r="I85" s="33"/>
       <c r="J85" s="33"/>
-      <c r="K85" s="46"/>
+      <c r="K85" s="54"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="41"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="47"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="42"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="55"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="38" t="s">
+      <c r="B88" s="36"/>
+      <c r="C88" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="9"/>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I88" s="37"/>
-      <c r="J88" s="38" t="s">
+      <c r="I88" s="36"/>
+      <c r="J88" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K88" s="39"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="38" t="s">
+      <c r="B89" s="36"/>
+      <c r="C89" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="39"/>
+      <c r="D89" s="38"/>
       <c r="E89" s="9"/>
-      <c r="H89" s="36" t="s">
+      <c r="H89" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="37"/>
-      <c r="J89" s="38" t="s">
+      <c r="I89" s="36"/>
+      <c r="J89" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K89" s="39"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="38" t="s">
+      <c r="B90" s="36"/>
+      <c r="C90" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="39"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="9"/>
-      <c r="H90" s="36" t="s">
+      <c r="H90" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I90" s="37"/>
-      <c r="J90" s="38" t="s">
+      <c r="I90" s="36"/>
+      <c r="J90" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K90" s="39"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="38" t="s">
+      <c r="B91" s="36"/>
+      <c r="C91" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="39"/>
-      <c r="H91" s="36" t="s">
+      <c r="D91" s="38"/>
+      <c r="H91" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I91" s="37"/>
-      <c r="J91" s="38" t="s">
+      <c r="I91" s="36"/>
+      <c r="J91" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="K91" s="39"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="H92" s="26" t="s">
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="H92" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
     </row>
     <row r="93" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="45"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="H94" s="26" t="s">
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="H94" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="26"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
     </row>
     <row r="95" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
@@ -3185,213 +3272,213 @@
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="H102" s="26" t="s">
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="H102" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="30"/>
-      <c r="C103" s="31" t="s">
+      <c r="C103" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="31"/>
+      <c r="D103" s="29"/>
       <c r="E103" s="10"/>
       <c r="H103" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I103" s="30"/>
-      <c r="J103" s="31" t="s">
+      <c r="J103" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K103" s="31"/>
+      <c r="K103" s="29"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B104" s="30"/>
-      <c r="C104" s="31" t="s">
+      <c r="C104" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="31"/>
+      <c r="D104" s="29"/>
       <c r="E104" s="10"/>
       <c r="H104" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I104" s="30"/>
-      <c r="J104" s="31" t="s">
+      <c r="J104" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="31"/>
+      <c r="K104" s="29"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="39" t="s">
         <v>67</v>
       </c>
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
-      <c r="E105" s="40"/>
-      <c r="G105" s="44"/>
+      <c r="E105" s="41"/>
+      <c r="G105" s="56"/>
       <c r="H105" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I105" s="33"/>
       <c r="J105" s="33"/>
-      <c r="K105" s="46"/>
+      <c r="K105" s="54"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="41"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="47"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="42"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="55"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="36" t="s">
+      <c r="A108" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="37"/>
-      <c r="C108" s="38" t="s">
+      <c r="B108" s="36"/>
+      <c r="C108" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="39"/>
+      <c r="D108" s="38"/>
       <c r="E108" s="9"/>
-      <c r="H108" s="36" t="s">
+      <c r="H108" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I108" s="37"/>
-      <c r="J108" s="38" t="s">
+      <c r="I108" s="36"/>
+      <c r="J108" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K108" s="39"/>
+      <c r="K108" s="38"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="38" t="s">
+      <c r="B109" s="36"/>
+      <c r="C109" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="39"/>
-      <c r="H109" s="36" t="s">
+      <c r="D109" s="38"/>
+      <c r="H109" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I109" s="37"/>
-      <c r="J109" s="38" t="s">
+      <c r="I109" s="36"/>
+      <c r="J109" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K109" s="39"/>
+      <c r="K109" s="38"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="37"/>
-      <c r="C110" s="38" t="s">
+      <c r="B110" s="36"/>
+      <c r="C110" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="39"/>
-      <c r="H110" s="36" t="s">
+      <c r="D110" s="38"/>
+      <c r="H110" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I110" s="37"/>
-      <c r="J110" s="38" t="s">
+      <c r="I110" s="36"/>
+      <c r="J110" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K110" s="39"/>
+      <c r="K110" s="38"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="37"/>
-      <c r="C111" s="38" t="s">
+      <c r="B111" s="36"/>
+      <c r="C111" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="39"/>
-      <c r="H111" s="36" t="s">
+      <c r="D111" s="38"/>
+      <c r="H111" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I111" s="37"/>
-      <c r="J111" s="38" t="s">
+      <c r="I111" s="36"/>
+      <c r="J111" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K111" s="39"/>
+      <c r="K111" s="38"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="26" t="s">
+      <c r="A112" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="H112" s="26" t="s">
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="H112" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28"/>
     </row>
     <row r="113" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="H113" s="27" t="s">
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="H113" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="29"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="45"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="H114" s="26" t="s">
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="H114" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
     </row>
     <row r="115" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
-      <c r="H115" s="31" t="s">
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="45"/>
+      <c r="H115" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="31"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
+      <c r="K115" s="29"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
@@ -3550,56 +3637,56 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="s">
+      <c r="A122" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="H122" s="26" t="s">
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="H122" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I122" s="26"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="26"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="28"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="30"/>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="31"/>
+      <c r="D123" s="29"/>
       <c r="E123" s="10"/>
       <c r="H123" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I123" s="30"/>
-      <c r="J123" s="31" t="s">
+      <c r="J123" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K123" s="31"/>
+      <c r="K123" s="29"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="30"/>
-      <c r="C124" s="31" t="s">
+      <c r="C124" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="31"/>
+      <c r="D124" s="29"/>
       <c r="E124" s="10"/>
       <c r="H124" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I124" s="30"/>
-      <c r="J124" s="31" t="s">
+      <c r="J124" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K124" s="31"/>
+      <c r="K124" s="29"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
@@ -3608,168 +3695,168 @@
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
-      <c r="E126" s="40"/>
+      <c r="E126" s="41"/>
       <c r="G126" s="20"/>
-      <c r="H126" s="32" t="s">
+      <c r="H126" s="39" t="s">
         <v>84</v>
       </c>
       <c r="I126" s="33"/>
       <c r="J126" s="33"/>
       <c r="K126" s="33"/>
-      <c r="L126" s="40"/>
+      <c r="L126" s="41"/>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="41"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="42"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="41"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+      <c r="L127" s="42"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="36" t="s">
+      <c r="A129" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="37"/>
-      <c r="C129" s="38" t="s">
+      <c r="B129" s="36"/>
+      <c r="C129" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="39"/>
+      <c r="D129" s="38"/>
       <c r="E129" s="9"/>
-      <c r="H129" s="36" t="s">
+      <c r="H129" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I129" s="37"/>
-      <c r="J129" s="38" t="s">
+      <c r="I129" s="36"/>
+      <c r="J129" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K129" s="39"/>
+      <c r="K129" s="38"/>
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="36" t="s">
+      <c r="A130" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="37"/>
-      <c r="C130" s="38" t="s">
+      <c r="B130" s="36"/>
+      <c r="C130" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D130" s="39"/>
+      <c r="D130" s="38"/>
       <c r="E130" s="9"/>
-      <c r="H130" s="36" t="s">
+      <c r="H130" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I130" s="37"/>
-      <c r="J130" s="38" t="s">
+      <c r="I130" s="36"/>
+      <c r="J130" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K130" s="39"/>
+      <c r="K130" s="38"/>
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="36" t="s">
+      <c r="A131" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="37"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="36"/>
+      <c r="C131" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="39"/>
+      <c r="D131" s="38"/>
       <c r="E131" s="9"/>
-      <c r="H131" s="36" t="s">
+      <c r="H131" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I131" s="37"/>
-      <c r="J131" s="38" t="s">
+      <c r="I131" s="36"/>
+      <c r="J131" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K131" s="39"/>
+      <c r="K131" s="38"/>
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="36" t="s">
+      <c r="A132" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="38" t="s">
+      <c r="B132" s="36"/>
+      <c r="C132" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D132" s="39"/>
-      <c r="H132" s="36" t="s">
+      <c r="D132" s="38"/>
+      <c r="H132" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I132" s="37"/>
-      <c r="J132" s="38" t="s">
+      <c r="I132" s="36"/>
+      <c r="J132" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K132" s="39"/>
+      <c r="K132" s="38"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="26" t="s">
+      <c r="A133" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="H133" s="26" t="s">
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="H133" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="26"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
     </row>
     <row r="134" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="H134" s="27" t="s">
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="H134" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="29"/>
+      <c r="I134" s="44"/>
+      <c r="J134" s="44"/>
+      <c r="K134" s="45"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="26" t="s">
+      <c r="A135" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="H135" s="26" t="s">
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="H135" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="26"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
     </row>
     <row r="136" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="H136" s="31" t="s">
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="H136" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="31"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
@@ -3926,37 +4013,37 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="26" t="s">
+      <c r="A143" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="H143" s="26" t="s">
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="28"/>
+      <c r="H143" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="26"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="28"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B144" s="30"/>
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="31"/>
+      <c r="D144" s="29"/>
       <c r="E144" s="10"/>
       <c r="H144" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I144" s="30"/>
-      <c r="J144" s="31" t="s">
+      <c r="J144" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K144" s="31"/>
+      <c r="K144" s="29"/>
       <c r="L144" s="10"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -3964,184 +4051,184 @@
         <v>12</v>
       </c>
       <c r="B145" s="30"/>
-      <c r="C145" s="31" t="s">
+      <c r="C145" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D145" s="31"/>
+      <c r="D145" s="29"/>
       <c r="E145" s="10"/>
       <c r="H145" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I145" s="30"/>
-      <c r="J145" s="31" t="s">
+      <c r="J145" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="K145" s="31"/>
+      <c r="K145" s="29"/>
       <c r="L145" s="10"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="32" t="s">
+      <c r="A147" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
-      <c r="E147" s="40"/>
-      <c r="G147" s="40"/>
-      <c r="H147" s="32" t="s">
+      <c r="E147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I147" s="33"/>
       <c r="J147" s="33"/>
       <c r="K147" s="33"/>
-      <c r="L147" s="40"/>
+      <c r="L147" s="41"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="34"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="41"/>
-      <c r="G148" s="41"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35"/>
-      <c r="L148" s="41"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="42"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="36" t="s">
+      <c r="A150" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="37"/>
-      <c r="C150" s="38" t="s">
+      <c r="B150" s="36"/>
+      <c r="C150" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="39"/>
+      <c r="D150" s="38"/>
       <c r="E150" s="9"/>
-      <c r="H150" s="36" t="s">
+      <c r="H150" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I150" s="37"/>
-      <c r="J150" s="38" t="s">
+      <c r="I150" s="36"/>
+      <c r="J150" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K150" s="39"/>
+      <c r="K150" s="38"/>
       <c r="L150" s="9"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="36" t="s">
+      <c r="A151" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="37"/>
-      <c r="C151" s="38" t="s">
+      <c r="B151" s="36"/>
+      <c r="C151" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="39"/>
+      <c r="D151" s="38"/>
       <c r="E151" s="9"/>
-      <c r="H151" s="36" t="s">
+      <c r="H151" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I151" s="37"/>
-      <c r="J151" s="38" t="s">
+      <c r="I151" s="36"/>
+      <c r="J151" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K151" s="39"/>
+      <c r="K151" s="38"/>
       <c r="L151" s="9"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="36" t="s">
+      <c r="A152" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="38" t="s">
+      <c r="B152" s="36"/>
+      <c r="C152" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="D152" s="39"/>
+      <c r="D152" s="38"/>
       <c r="E152" s="9"/>
-      <c r="H152" s="36" t="s">
+      <c r="H152" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I152" s="37"/>
-      <c r="J152" s="38" t="s">
+      <c r="I152" s="36"/>
+      <c r="J152" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="K152" s="39"/>
+      <c r="K152" s="38"/>
       <c r="L152" s="9"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="36" t="s">
+      <c r="A153" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="37"/>
-      <c r="C153" s="38" t="s">
+      <c r="B153" s="36"/>
+      <c r="C153" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="H153" s="36" t="s">
+      <c r="D153" s="38"/>
+      <c r="H153" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I153" s="37"/>
-      <c r="J153" s="38" t="s">
+      <c r="I153" s="36"/>
+      <c r="J153" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K153" s="39"/>
+      <c r="K153" s="38"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="26" t="s">
+      <c r="A154" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="H154" s="26" t="s">
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="H154" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I154" s="26"/>
-      <c r="J154" s="26"/>
-      <c r="K154" s="26"/>
+      <c r="I154" s="28"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="28"/>
     </row>
     <row r="155" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="H155" s="27" t="s">
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="H155" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="29"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="44"/>
+      <c r="K155" s="45"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
+      <c r="A156" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="H156" s="26" t="s">
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="H156" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I156" s="26"/>
-      <c r="J156" s="26"/>
-      <c r="K156" s="26"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="28"/>
     </row>
     <row r="157" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="31" t="s">
+      <c r="A157" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
-      <c r="H157" s="27" t="s">
+      <c r="B157" s="29"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="H157" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="29"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="44"/>
+      <c r="K157" s="45"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
@@ -4300,37 +4387,37 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="26" t="s">
+      <c r="A164" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="H164" s="26" t="s">
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="H164" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="26"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="26"/>
+      <c r="I164" s="28"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="28"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B165" s="30"/>
-      <c r="C165" s="31" t="s">
+      <c r="C165" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D165" s="31"/>
+      <c r="D165" s="29"/>
       <c r="E165" s="10"/>
       <c r="H165" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I165" s="30"/>
-      <c r="J165" s="31" t="s">
+      <c r="J165" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K165" s="31"/>
+      <c r="K165" s="29"/>
       <c r="L165" s="10"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -4338,184 +4425,184 @@
         <v>12</v>
       </c>
       <c r="B166" s="30"/>
-      <c r="C166" s="31" t="s">
+      <c r="C166" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D166" s="31"/>
+      <c r="D166" s="29"/>
       <c r="E166" s="10"/>
       <c r="H166" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I166" s="30"/>
-      <c r="J166" s="31" t="s">
+      <c r="J166" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="K166" s="31"/>
+      <c r="K166" s="29"/>
       <c r="L166" s="10"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="32" t="s">
+      <c r="A168" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
       <c r="D168" s="33"/>
-      <c r="E168" s="40"/>
-      <c r="G168" s="40"/>
-      <c r="H168" s="32" t="s">
+      <c r="E168" s="41"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="39" t="s">
         <v>88</v>
       </c>
       <c r="I168" s="33"/>
       <c r="J168" s="33"/>
       <c r="K168" s="33"/>
-      <c r="L168" s="40"/>
+      <c r="L168" s="41"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="41"/>
-      <c r="G169" s="41"/>
-      <c r="H169" s="34"/>
-      <c r="I169" s="35"/>
-      <c r="J169" s="35"/>
-      <c r="K169" s="35"/>
-      <c r="L169" s="41"/>
+      <c r="A169" s="40"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="34"/>
+      <c r="J169" s="34"/>
+      <c r="K169" s="34"/>
+      <c r="L169" s="42"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="36" t="s">
+      <c r="A171" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="37"/>
-      <c r="C171" s="38" t="s">
+      <c r="B171" s="36"/>
+      <c r="C171" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="39"/>
+      <c r="D171" s="38"/>
       <c r="E171" s="9"/>
-      <c r="H171" s="36" t="s">
+      <c r="H171" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I171" s="37"/>
-      <c r="J171" s="38" t="s">
+      <c r="I171" s="36"/>
+      <c r="J171" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K171" s="39"/>
+      <c r="K171" s="38"/>
       <c r="L171" s="9"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="36" t="s">
+      <c r="A172" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="37"/>
-      <c r="C172" s="38" t="s">
+      <c r="B172" s="36"/>
+      <c r="C172" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="39"/>
+      <c r="D172" s="38"/>
       <c r="E172" s="9"/>
-      <c r="H172" s="36" t="s">
+      <c r="H172" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I172" s="37"/>
-      <c r="J172" s="38" t="s">
+      <c r="I172" s="36"/>
+      <c r="J172" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K172" s="39"/>
+      <c r="K172" s="38"/>
       <c r="L172" s="9"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="36" t="s">
+      <c r="A173" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="37"/>
-      <c r="C173" s="38" t="s">
+      <c r="B173" s="36"/>
+      <c r="C173" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="D173" s="39"/>
+      <c r="D173" s="38"/>
       <c r="E173" s="9"/>
-      <c r="H173" s="36" t="s">
+      <c r="H173" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I173" s="37"/>
-      <c r="J173" s="38" t="s">
+      <c r="I173" s="36"/>
+      <c r="J173" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="K173" s="39"/>
+      <c r="K173" s="38"/>
       <c r="L173" s="9"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="36" t="s">
+      <c r="A174" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="37"/>
-      <c r="C174" s="38" t="s">
+      <c r="B174" s="36"/>
+      <c r="C174" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="39"/>
-      <c r="H174" s="36" t="s">
+      <c r="D174" s="38"/>
+      <c r="H174" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I174" s="37"/>
-      <c r="J174" s="38" t="s">
+      <c r="I174" s="36"/>
+      <c r="J174" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K174" s="39"/>
+      <c r="K174" s="38"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="26" t="s">
+      <c r="A175" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="H175" s="26" t="s">
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="H175" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I175" s="26"/>
-      <c r="J175" s="26"/>
-      <c r="K175" s="26"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="28"/>
     </row>
     <row r="176" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="29"/>
-      <c r="H176" s="27" t="s">
+      <c r="B176" s="44"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="45"/>
+      <c r="H176" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="29"/>
+      <c r="I176" s="44"/>
+      <c r="J176" s="44"/>
+      <c r="K176" s="45"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="26" t="s">
+      <c r="A177" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="H177" s="26" t="s">
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="H177" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I177" s="26"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="26"/>
+      <c r="I177" s="28"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="28"/>
     </row>
     <row r="178" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
-      <c r="H178" s="31" t="s">
+      <c r="B178" s="29"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="H178" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
-      <c r="K178" s="31"/>
+      <c r="I178" s="29"/>
+      <c r="J178" s="29"/>
+      <c r="K178" s="29"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
@@ -4674,37 +4761,37 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="26" t="s">
+      <c r="A185" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="H185" s="26" t="s">
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="H185" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I185" s="26"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="26"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B186" s="30"/>
-      <c r="C186" s="31" t="s">
+      <c r="C186" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D186" s="31"/>
+      <c r="D186" s="29"/>
       <c r="E186" s="10"/>
       <c r="H186" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I186" s="30"/>
-      <c r="J186" s="31" t="s">
+      <c r="J186" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K186" s="31"/>
+      <c r="K186" s="29"/>
       <c r="L186" s="10"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -4712,186 +4799,186 @@
         <v>12</v>
       </c>
       <c r="B187" s="30"/>
-      <c r="C187" s="31" t="s">
+      <c r="C187" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D187" s="31"/>
+      <c r="D187" s="29"/>
       <c r="E187" s="10"/>
       <c r="H187" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I187" s="30"/>
-      <c r="J187" s="31" t="s">
+      <c r="J187" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K187" s="31"/>
+      <c r="K187" s="29"/>
       <c r="L187" s="10"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="39" t="s">
         <v>89</v>
       </c>
       <c r="B189" s="33"/>
       <c r="C189" s="33"/>
       <c r="D189" s="33"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="49"/>
-      <c r="G189" s="42"/>
+      <c r="E189" s="41"/>
+      <c r="F189" s="59"/>
+      <c r="G189" s="31"/>
       <c r="H189" s="33" t="s">
         <v>90</v>
       </c>
       <c r="I189" s="33"/>
       <c r="J189" s="33"/>
       <c r="K189" s="33"/>
-      <c r="L189" s="40"/>
+      <c r="L189" s="41"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="34"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
-      <c r="E190" s="41"/>
-      <c r="F190" s="49"/>
-      <c r="G190" s="43"/>
-      <c r="H190" s="35"/>
-      <c r="I190" s="35"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35"/>
-      <c r="L190" s="41"/>
+      <c r="A190" s="40"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="42"/>
+      <c r="F190" s="59"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
+      <c r="L190" s="42"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="36" t="s">
+      <c r="A192" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="37"/>
-      <c r="C192" s="38" t="s">
+      <c r="B192" s="36"/>
+      <c r="C192" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="39"/>
+      <c r="D192" s="38"/>
       <c r="E192" s="9"/>
-      <c r="H192" s="36" t="s">
+      <c r="H192" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I192" s="37"/>
-      <c r="J192" s="38" t="s">
+      <c r="I192" s="36"/>
+      <c r="J192" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K192" s="39"/>
+      <c r="K192" s="38"/>
       <c r="L192" s="9"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A193" s="36" t="s">
+      <c r="A193" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="37"/>
-      <c r="C193" s="38" t="s">
+      <c r="B193" s="36"/>
+      <c r="C193" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D193" s="39"/>
+      <c r="D193" s="38"/>
       <c r="E193" s="9"/>
-      <c r="H193" s="36" t="s">
+      <c r="H193" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I193" s="37"/>
-      <c r="J193" s="38" t="s">
+      <c r="I193" s="36"/>
+      <c r="J193" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K193" s="39"/>
+      <c r="K193" s="38"/>
       <c r="L193" s="9"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A194" s="36" t="s">
+      <c r="A194" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="37"/>
-      <c r="C194" s="38" t="s">
+      <c r="B194" s="36"/>
+      <c r="C194" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D194" s="39"/>
+      <c r="D194" s="38"/>
       <c r="E194" s="9"/>
-      <c r="H194" s="36" t="s">
+      <c r="H194" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I194" s="37"/>
-      <c r="J194" s="38" t="s">
+      <c r="I194" s="36"/>
+      <c r="J194" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K194" s="39"/>
+      <c r="K194" s="38"/>
       <c r="L194" s="9"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A195" s="36" t="s">
+      <c r="A195" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="37"/>
-      <c r="C195" s="38" t="s">
+      <c r="B195" s="36"/>
+      <c r="C195" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D195" s="39"/>
-      <c r="H195" s="36" t="s">
+      <c r="D195" s="38"/>
+      <c r="H195" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I195" s="37"/>
-      <c r="J195" s="38" t="s">
+      <c r="I195" s="36"/>
+      <c r="J195" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="K195" s="39"/>
+      <c r="K195" s="38"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="26" t="s">
+      <c r="A196" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="H196" s="26" t="s">
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="H196" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I196" s="26"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="26"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
     </row>
     <row r="197" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="s">
+      <c r="A197" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
-      <c r="H197" s="31" t="s">
+      <c r="B197" s="29"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="29"/>
+      <c r="H197" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
-      <c r="K197" s="31"/>
+      <c r="I197" s="29"/>
+      <c r="J197" s="29"/>
+      <c r="K197" s="29"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="26" t="s">
+      <c r="A198" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="H198" s="26" t="s">
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="H198" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I198" s="26"/>
-      <c r="J198" s="26"/>
-      <c r="K198" s="26"/>
+      <c r="I198" s="28"/>
+      <c r="J198" s="28"/>
+      <c r="K198" s="28"/>
     </row>
     <row r="199" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="31" t="s">
+      <c r="A199" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="31"/>
-      <c r="H199" s="31" t="s">
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="H199" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
-      <c r="K199" s="31"/>
+      <c r="I199" s="29"/>
+      <c r="J199" s="29"/>
+      <c r="K199" s="29"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
@@ -5050,37 +5137,37 @@
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="26" t="s">
+      <c r="A206" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="H206" s="26" t="s">
+      <c r="B206" s="28"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="28"/>
+      <c r="H206" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I206" s="26"/>
-      <c r="J206" s="26"/>
-      <c r="K206" s="26"/>
+      <c r="I206" s="28"/>
+      <c r="J206" s="28"/>
+      <c r="K206" s="28"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B207" s="30"/>
-      <c r="C207" s="31" t="s">
+      <c r="C207" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D207" s="31"/>
+      <c r="D207" s="29"/>
       <c r="E207" s="10"/>
       <c r="H207" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I207" s="30"/>
-      <c r="J207" s="31" t="s">
+      <c r="J207" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K207" s="31"/>
+      <c r="K207" s="29"/>
       <c r="L207" s="10"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -5088,186 +5175,186 @@
         <v>12</v>
       </c>
       <c r="B208" s="30"/>
-      <c r="C208" s="31" t="s">
+      <c r="C208" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D208" s="31"/>
+      <c r="D208" s="29"/>
       <c r="E208" s="10"/>
       <c r="H208" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I208" s="30"/>
-      <c r="J208" s="31" t="s">
+      <c r="J208" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K208" s="31"/>
+      <c r="K208" s="29"/>
       <c r="L208" s="10"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="32" t="s">
+      <c r="A210" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
       <c r="D210" s="33"/>
-      <c r="E210" s="40"/>
-      <c r="F210" s="49"/>
-      <c r="G210" s="42"/>
+      <c r="E210" s="41"/>
+      <c r="F210" s="59"/>
+      <c r="G210" s="31"/>
       <c r="H210" s="33" t="s">
         <v>92</v>
       </c>
       <c r="I210" s="33"/>
       <c r="J210" s="33"/>
       <c r="K210" s="33"/>
-      <c r="L210" s="40"/>
+      <c r="L210" s="41"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="34"/>
-      <c r="B211" s="35"/>
-      <c r="C211" s="35"/>
-      <c r="D211" s="35"/>
-      <c r="E211" s="41"/>
-      <c r="F211" s="49"/>
-      <c r="G211" s="43"/>
-      <c r="H211" s="35"/>
-      <c r="I211" s="35"/>
-      <c r="J211" s="35"/>
-      <c r="K211" s="35"/>
-      <c r="L211" s="41"/>
+      <c r="A211" s="40"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="59"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="34"/>
+      <c r="K211" s="34"/>
+      <c r="L211" s="42"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="36" t="s">
+      <c r="A213" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="37"/>
-      <c r="C213" s="38" t="s">
+      <c r="B213" s="36"/>
+      <c r="C213" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D213" s="39"/>
+      <c r="D213" s="38"/>
       <c r="E213" s="9"/>
-      <c r="H213" s="36" t="s">
+      <c r="H213" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I213" s="37"/>
-      <c r="J213" s="38" t="s">
+      <c r="I213" s="36"/>
+      <c r="J213" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K213" s="39"/>
+      <c r="K213" s="38"/>
       <c r="L213" s="9"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="36" t="s">
+      <c r="A214" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="37"/>
-      <c r="C214" s="38" t="s">
+      <c r="B214" s="36"/>
+      <c r="C214" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D214" s="39"/>
+      <c r="D214" s="38"/>
       <c r="E214" s="9"/>
-      <c r="H214" s="36" t="s">
+      <c r="H214" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I214" s="37"/>
-      <c r="J214" s="38" t="s">
+      <c r="I214" s="36"/>
+      <c r="J214" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K214" s="39"/>
+      <c r="K214" s="38"/>
       <c r="L214" s="9"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="36" t="s">
+      <c r="A215" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B215" s="37"/>
-      <c r="C215" s="38" t="s">
+      <c r="B215" s="36"/>
+      <c r="C215" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D215" s="39"/>
+      <c r="D215" s="38"/>
       <c r="E215" s="9"/>
-      <c r="H215" s="36" t="s">
+      <c r="H215" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I215" s="37"/>
-      <c r="J215" s="38" t="s">
+      <c r="I215" s="36"/>
+      <c r="J215" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K215" s="39"/>
+      <c r="K215" s="38"/>
       <c r="L215" s="9"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="36" t="s">
+      <c r="A216" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="37"/>
-      <c r="C216" s="38" t="s">
+      <c r="B216" s="36"/>
+      <c r="C216" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D216" s="39"/>
-      <c r="H216" s="36" t="s">
+      <c r="D216" s="38"/>
+      <c r="H216" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I216" s="37"/>
-      <c r="J216" s="38" t="s">
+      <c r="I216" s="36"/>
+      <c r="J216" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="K216" s="39"/>
+      <c r="K216" s="38"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A217" s="26" t="s">
+      <c r="A217" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="H217" s="26" t="s">
+      <c r="B217" s="28"/>
+      <c r="C217" s="28"/>
+      <c r="D217" s="28"/>
+      <c r="H217" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I217" s="26"/>
-      <c r="J217" s="26"/>
-      <c r="K217" s="26"/>
+      <c r="I217" s="28"/>
+      <c r="J217" s="28"/>
+      <c r="K217" s="28"/>
     </row>
     <row r="218" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="27" t="s">
+      <c r="A218" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B218" s="28"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="29"/>
-      <c r="H218" s="27" t="s">
+      <c r="B218" s="44"/>
+      <c r="C218" s="44"/>
+      <c r="D218" s="45"/>
+      <c r="H218" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="I218" s="28"/>
-      <c r="J218" s="28"/>
-      <c r="K218" s="29"/>
+      <c r="I218" s="44"/>
+      <c r="J218" s="44"/>
+      <c r="K218" s="45"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="26" t="s">
+      <c r="A219" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="H219" s="26" t="s">
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="H219" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I219" s="26"/>
-      <c r="J219" s="26"/>
-      <c r="K219" s="26"/>
+      <c r="I219" s="28"/>
+      <c r="J219" s="28"/>
+      <c r="K219" s="28"/>
     </row>
     <row r="220" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="31" t="s">
+      <c r="A220" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B220" s="31"/>
-      <c r="C220" s="31"/>
-      <c r="D220" s="31"/>
-      <c r="H220" s="31" t="s">
+      <c r="B220" s="29"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="H220" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="I220" s="31"/>
-      <c r="J220" s="31"/>
-      <c r="K220" s="31"/>
+      <c r="I220" s="29"/>
+      <c r="J220" s="29"/>
+      <c r="K220" s="29"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
@@ -5295,7 +5382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>1</v>
       </c>
@@ -5426,37 +5513,37 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="26" t="s">
+      <c r="A227" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="H227" s="26" t="s">
+      <c r="B227" s="28"/>
+      <c r="C227" s="28"/>
+      <c r="D227" s="28"/>
+      <c r="H227" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I227" s="26"/>
-      <c r="J227" s="26"/>
-      <c r="K227" s="26"/>
+      <c r="I227" s="28"/>
+      <c r="J227" s="28"/>
+      <c r="K227" s="28"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B228" s="30"/>
-      <c r="C228" s="31" t="s">
+      <c r="C228" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D228" s="31"/>
+      <c r="D228" s="29"/>
       <c r="E228" s="10"/>
       <c r="H228" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I228" s="30"/>
-      <c r="J228" s="31" t="s">
+      <c r="J228" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K228" s="31"/>
+      <c r="K228" s="29"/>
       <c r="L228" s="10"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -5464,30 +5551,30 @@
         <v>12</v>
       </c>
       <c r="B229" s="30"/>
-      <c r="C229" s="31" t="s">
+      <c r="C229" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D229" s="31"/>
+      <c r="D229" s="29"/>
       <c r="E229" s="10"/>
       <c r="H229" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I229" s="30"/>
-      <c r="J229" s="31" t="s">
+      <c r="J229" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K229" s="31"/>
+      <c r="K229" s="29"/>
       <c r="L229" s="10"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="32" t="s">
+      <c r="A231" s="39" t="s">
         <v>105</v>
       </c>
       <c r="B231" s="33"/>
       <c r="C231" s="33"/>
       <c r="D231" s="33"/>
-      <c r="E231" s="40"/>
-      <c r="H231" s="32" t="s">
+      <c r="E231" s="41"/>
+      <c r="H231" s="39" t="s">
         <v>106</v>
       </c>
       <c r="I231" s="33"/>
@@ -5495,146 +5582,146 @@
       <c r="K231" s="33"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="34"/>
-      <c r="B232" s="35"/>
-      <c r="C232" s="35"/>
-      <c r="D232" s="35"/>
-      <c r="E232" s="41"/>
-      <c r="H232" s="34"/>
-      <c r="I232" s="35"/>
-      <c r="J232" s="35"/>
-      <c r="K232" s="35"/>
+      <c r="A232" s="40"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="34"/>
+      <c r="E232" s="42"/>
+      <c r="H232" s="40"/>
+      <c r="I232" s="34"/>
+      <c r="J232" s="34"/>
+      <c r="K232" s="34"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="36" t="s">
+      <c r="A234" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="37"/>
-      <c r="C234" s="38" t="s">
+      <c r="B234" s="36"/>
+      <c r="C234" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="39"/>
+      <c r="D234" s="38"/>
       <c r="E234" s="9"/>
-      <c r="H234" s="36" t="s">
+      <c r="H234" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I234" s="37"/>
-      <c r="J234" s="38" t="s">
+      <c r="I234" s="36"/>
+      <c r="J234" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K234" s="39"/>
+      <c r="K234" s="38"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="36" t="s">
+      <c r="A235" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B235" s="37"/>
-      <c r="C235" s="38" t="s">
+      <c r="B235" s="36"/>
+      <c r="C235" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D235" s="39"/>
+      <c r="D235" s="38"/>
       <c r="E235" s="9"/>
-      <c r="H235" s="36" t="s">
+      <c r="H235" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I235" s="37"/>
-      <c r="J235" s="38" t="s">
+      <c r="I235" s="36"/>
+      <c r="J235" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K235" s="39"/>
+      <c r="K235" s="38"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="36" t="s">
+      <c r="A236" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B236" s="37"/>
-      <c r="C236" s="38" t="s">
+      <c r="B236" s="36"/>
+      <c r="C236" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D236" s="39"/>
+      <c r="D236" s="38"/>
       <c r="E236" s="9"/>
-      <c r="H236" s="36" t="s">
+      <c r="H236" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I236" s="37"/>
-      <c r="J236" s="38" t="s">
+      <c r="I236" s="36"/>
+      <c r="J236" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K236" s="39"/>
+      <c r="K236" s="38"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="36" t="s">
+      <c r="A237" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="37"/>
-      <c r="C237" s="38" t="s">
+      <c r="B237" s="36"/>
+      <c r="C237" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D237" s="39"/>
-      <c r="H237" s="36" t="s">
+      <c r="D237" s="38"/>
+      <c r="H237" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I237" s="37"/>
-      <c r="J237" s="38" t="s">
+      <c r="I237" s="36"/>
+      <c r="J237" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="K237" s="39"/>
+      <c r="K237" s="38"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="26" t="s">
+      <c r="A238" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="26"/>
-      <c r="H238" s="26" t="s">
+      <c r="B238" s="28"/>
+      <c r="C238" s="28"/>
+      <c r="D238" s="28"/>
+      <c r="H238" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I238" s="26"/>
-      <c r="J238" s="26"/>
-      <c r="K238" s="26"/>
+      <c r="I238" s="28"/>
+      <c r="J238" s="28"/>
+      <c r="K238" s="28"/>
     </row>
     <row r="239" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="27" t="s">
+      <c r="A239" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="B239" s="28"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="29"/>
-      <c r="H239" s="27" t="s">
+      <c r="B239" s="44"/>
+      <c r="C239" s="44"/>
+      <c r="D239" s="45"/>
+      <c r="H239" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="I239" s="28"/>
-      <c r="J239" s="28"/>
-      <c r="K239" s="29"/>
+      <c r="I239" s="44"/>
+      <c r="J239" s="44"/>
+      <c r="K239" s="45"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" s="26" t="s">
+      <c r="A240" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="H240" s="26" t="s">
+      <c r="B240" s="28"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="H240" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I240" s="26"/>
-      <c r="J240" s="26"/>
-      <c r="K240" s="26"/>
+      <c r="I240" s="28"/>
+      <c r="J240" s="28"/>
+      <c r="K240" s="28"/>
     </row>
     <row r="241" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="27" t="s">
+      <c r="A241" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B241" s="28"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="29"/>
-      <c r="H241" s="27" t="s">
+      <c r="B241" s="44"/>
+      <c r="C241" s="44"/>
+      <c r="D241" s="45"/>
+      <c r="H241" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="I241" s="28"/>
-      <c r="J241" s="28"/>
-      <c r="K241" s="29"/>
+      <c r="I241" s="44"/>
+      <c r="J241" s="44"/>
+      <c r="K241" s="45"/>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
@@ -5794,67 +5881,67 @@
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A248" s="26" t="s">
+      <c r="A248" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="26"/>
-      <c r="H248" s="26" t="s">
+      <c r="B248" s="28"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="H248" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I248" s="26"/>
-      <c r="J248" s="26"/>
-      <c r="K248" s="26"/>
+      <c r="I248" s="28"/>
+      <c r="J248" s="28"/>
+      <c r="K248" s="28"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B249" s="30"/>
-      <c r="C249" s="31" t="s">
+      <c r="C249" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D249" s="31"/>
+      <c r="D249" s="29"/>
       <c r="E249" s="10"/>
       <c r="H249" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I249" s="30"/>
-      <c r="J249" s="31" t="s">
+      <c r="J249" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K249" s="31"/>
+      <c r="K249" s="29"/>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B250" s="30"/>
-      <c r="C250" s="31" t="s">
+      <c r="C250" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D250" s="31"/>
+      <c r="D250" s="29"/>
       <c r="E250" s="10"/>
       <c r="H250" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I250" s="30"/>
-      <c r="J250" s="31" t="s">
+      <c r="J250" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="K250" s="31"/>
+      <c r="K250" s="29"/>
     </row>
     <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="32" t="s">
+      <c r="A253" s="39" t="s">
         <v>167</v>
       </c>
       <c r="B253" s="33"/>
       <c r="C253" s="33"/>
       <c r="D253" s="33"/>
-      <c r="E253" s="40"/>
-      <c r="F253" s="49"/>
-      <c r="G253" s="42"/>
+      <c r="E253" s="41"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="31"/>
       <c r="H253" s="33" t="s">
         <v>168</v>
       </c>
@@ -5863,148 +5950,148 @@
       <c r="K253" s="33"/>
     </row>
     <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="34"/>
-      <c r="B254" s="35"/>
-      <c r="C254" s="35"/>
-      <c r="D254" s="35"/>
-      <c r="E254" s="41"/>
-      <c r="F254" s="49"/>
-      <c r="G254" s="43"/>
-      <c r="H254" s="35"/>
-      <c r="I254" s="35"/>
-      <c r="J254" s="35"/>
-      <c r="K254" s="35"/>
+      <c r="A254" s="40"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="34"/>
+      <c r="D254" s="34"/>
+      <c r="E254" s="42"/>
+      <c r="F254" s="59"/>
+      <c r="G254" s="32"/>
+      <c r="H254" s="34"/>
+      <c r="I254" s="34"/>
+      <c r="J254" s="34"/>
+      <c r="K254" s="34"/>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A256" s="36" t="s">
+      <c r="A256" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B256" s="37"/>
-      <c r="C256" s="38" t="s">
+      <c r="B256" s="36"/>
+      <c r="C256" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D256" s="39"/>
+      <c r="D256" s="38"/>
       <c r="E256" s="9"/>
-      <c r="H256" s="36" t="s">
+      <c r="H256" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I256" s="37"/>
-      <c r="J256" s="38" t="s">
+      <c r="I256" s="36"/>
+      <c r="J256" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K256" s="39"/>
+      <c r="K256" s="38"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="36" t="s">
+      <c r="A257" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B257" s="37"/>
-      <c r="C257" s="38" t="s">
+      <c r="B257" s="36"/>
+      <c r="C257" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D257" s="39"/>
+      <c r="D257" s="38"/>
       <c r="E257" s="9"/>
-      <c r="H257" s="36" t="s">
+      <c r="H257" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I257" s="37"/>
-      <c r="J257" s="38" t="s">
+      <c r="I257" s="36"/>
+      <c r="J257" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K257" s="39"/>
+      <c r="K257" s="38"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="36" t="s">
+      <c r="A258" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B258" s="37"/>
-      <c r="C258" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D258" s="39"/>
+      <c r="B258" s="36"/>
+      <c r="C258" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D258" s="38"/>
       <c r="E258" s="9"/>
-      <c r="H258" s="36" t="s">
+      <c r="H258" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I258" s="37"/>
-      <c r="J258" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K258" s="39"/>
+      <c r="I258" s="36"/>
+      <c r="J258" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="K258" s="38"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="36" t="s">
+      <c r="A259" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B259" s="37"/>
-      <c r="C259" s="38" t="s">
+      <c r="B259" s="36"/>
+      <c r="C259" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D259" s="39"/>
-      <c r="H259" s="36" t="s">
+      <c r="D259" s="38"/>
+      <c r="H259" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I259" s="37"/>
-      <c r="J259" s="38" t="s">
+      <c r="I259" s="36"/>
+      <c r="J259" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="K259" s="39"/>
+      <c r="K259" s="38"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="26" t="s">
+      <c r="A260" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="26"/>
-      <c r="H260" s="26" t="s">
+      <c r="B260" s="28"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="H260" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I260" s="26"/>
-      <c r="J260" s="26"/>
-      <c r="K260" s="26"/>
+      <c r="I260" s="28"/>
+      <c r="J260" s="28"/>
+      <c r="K260" s="28"/>
     </row>
     <row r="261" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="27" t="s">
+      <c r="A261" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B261" s="28"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="29"/>
-      <c r="H261" s="27" t="s">
+      <c r="B261" s="44"/>
+      <c r="C261" s="44"/>
+      <c r="D261" s="45"/>
+      <c r="H261" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="I261" s="28"/>
-      <c r="J261" s="28"/>
-      <c r="K261" s="29"/>
+      <c r="I261" s="44"/>
+      <c r="J261" s="44"/>
+      <c r="K261" s="45"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="26" t="s">
+      <c r="A262" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
-      <c r="D262" s="26"/>
-      <c r="H262" s="26" t="s">
+      <c r="B262" s="28"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="28"/>
+      <c r="H262" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I262" s="26"/>
-      <c r="J262" s="26"/>
-      <c r="K262" s="26"/>
+      <c r="I262" s="28"/>
+      <c r="J262" s="28"/>
+      <c r="K262" s="28"/>
     </row>
     <row r="263" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="27" t="s">
+      <c r="A263" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B263" s="28"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="29"/>
-      <c r="H263" s="27" t="s">
+      <c r="B263" s="44"/>
+      <c r="C263" s="44"/>
+      <c r="D263" s="45"/>
+      <c r="H263" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="I263" s="28"/>
-      <c r="J263" s="28"/>
-      <c r="K263" s="29"/>
+      <c r="I263" s="44"/>
+      <c r="J263" s="44"/>
+      <c r="K263" s="45"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
@@ -6163,67 +6250,67 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="26" t="s">
+      <c r="A270" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="26"/>
-      <c r="H270" s="26" t="s">
+      <c r="B270" s="28"/>
+      <c r="C270" s="28"/>
+      <c r="D270" s="28"/>
+      <c r="H270" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I270" s="26"/>
-      <c r="J270" s="26"/>
-      <c r="K270" s="26"/>
+      <c r="I270" s="28"/>
+      <c r="J270" s="28"/>
+      <c r="K270" s="28"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B271" s="30"/>
-      <c r="C271" s="31" t="s">
+      <c r="C271" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D271" s="31"/>
+      <c r="D271" s="29"/>
       <c r="E271" s="10"/>
       <c r="H271" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I271" s="30"/>
-      <c r="J271" s="31" t="s">
+      <c r="J271" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K271" s="31"/>
+      <c r="K271" s="29"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B272" s="30"/>
-      <c r="C272" s="31" t="s">
+      <c r="C272" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D272" s="31"/>
+      <c r="D272" s="29"/>
       <c r="E272" s="10"/>
       <c r="H272" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I272" s="30"/>
-      <c r="J272" s="31" t="s">
+      <c r="J272" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K272" s="31"/>
+      <c r="K272" s="29"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A274" s="32" t="s">
+      <c r="A274" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B274" s="33"/>
       <c r="C274" s="33"/>
       <c r="D274" s="33"/>
-      <c r="E274" s="40"/>
-      <c r="F274" s="49"/>
-      <c r="G274" s="42"/>
+      <c r="E274" s="41"/>
+      <c r="F274" s="59"/>
+      <c r="G274" s="31"/>
       <c r="H274" s="33" t="s">
         <v>170</v>
       </c>
@@ -6232,148 +6319,148 @@
       <c r="K274" s="33"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A275" s="34"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="41"/>
-      <c r="F275" s="49"/>
-      <c r="G275" s="43"/>
-      <c r="H275" s="35"/>
-      <c r="I275" s="35"/>
-      <c r="J275" s="35"/>
-      <c r="K275" s="35"/>
+      <c r="A275" s="40"/>
+      <c r="B275" s="34"/>
+      <c r="C275" s="34"/>
+      <c r="D275" s="34"/>
+      <c r="E275" s="42"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="32"/>
+      <c r="H275" s="34"/>
+      <c r="I275" s="34"/>
+      <c r="J275" s="34"/>
+      <c r="K275" s="34"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A277" s="36" t="s">
+      <c r="A277" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B277" s="37"/>
-      <c r="C277" s="38" t="s">
+      <c r="B277" s="36"/>
+      <c r="C277" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D277" s="39"/>
+      <c r="D277" s="38"/>
       <c r="E277" s="9"/>
-      <c r="H277" s="36" t="s">
+      <c r="H277" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I277" s="37"/>
-      <c r="J277" s="38" t="s">
+      <c r="I277" s="36"/>
+      <c r="J277" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K277" s="39"/>
+      <c r="K277" s="38"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A278" s="36" t="s">
+      <c r="A278" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B278" s="37"/>
-      <c r="C278" s="38" t="s">
+      <c r="B278" s="36"/>
+      <c r="C278" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D278" s="39"/>
+      <c r="D278" s="38"/>
       <c r="E278" s="9"/>
-      <c r="H278" s="36" t="s">
+      <c r="H278" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I278" s="37"/>
-      <c r="J278" s="38" t="s">
+      <c r="I278" s="36"/>
+      <c r="J278" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K278" s="39"/>
+      <c r="K278" s="38"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A279" s="36" t="s">
+      <c r="A279" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B279" s="37"/>
-      <c r="C279" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D279" s="39"/>
+      <c r="B279" s="36"/>
+      <c r="C279" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D279" s="38"/>
       <c r="E279" s="9"/>
-      <c r="H279" s="36" t="s">
+      <c r="H279" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I279" s="37"/>
-      <c r="J279" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K279" s="39"/>
+      <c r="I279" s="36"/>
+      <c r="J279" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K279" s="38"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A280" s="36" t="s">
+      <c r="A280" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B280" s="37"/>
-      <c r="C280" s="38" t="s">
+      <c r="B280" s="36"/>
+      <c r="C280" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D280" s="39"/>
-      <c r="H280" s="36" t="s">
+      <c r="D280" s="38"/>
+      <c r="H280" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I280" s="37"/>
-      <c r="J280" s="38" t="s">
+      <c r="I280" s="36"/>
+      <c r="J280" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="K280" s="39"/>
+      <c r="K280" s="38"/>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A281" s="26" t="s">
+      <c r="A281" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
-      <c r="D281" s="26"/>
-      <c r="H281" s="26" t="s">
+      <c r="B281" s="28"/>
+      <c r="C281" s="28"/>
+      <c r="D281" s="28"/>
+      <c r="H281" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I281" s="26"/>
-      <c r="J281" s="26"/>
-      <c r="K281" s="26"/>
+      <c r="I281" s="28"/>
+      <c r="J281" s="28"/>
+      <c r="K281" s="28"/>
     </row>
     <row r="282" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="31" t="s">
+      <c r="A282" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B282" s="31"/>
-      <c r="C282" s="31"/>
-      <c r="D282" s="31"/>
-      <c r="H282" s="27" t="s">
+      <c r="B282" s="29"/>
+      <c r="C282" s="29"/>
+      <c r="D282" s="29"/>
+      <c r="H282" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="I282" s="28"/>
-      <c r="J282" s="28"/>
-      <c r="K282" s="29"/>
+      <c r="I282" s="44"/>
+      <c r="J282" s="44"/>
+      <c r="K282" s="45"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A283" s="26" t="s">
+      <c r="A283" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
-      <c r="D283" s="26"/>
-      <c r="H283" s="26" t="s">
+      <c r="B283" s="28"/>
+      <c r="C283" s="28"/>
+      <c r="D283" s="28"/>
+      <c r="H283" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I283" s="26"/>
-      <c r="J283" s="26"/>
-      <c r="K283" s="26"/>
+      <c r="I283" s="28"/>
+      <c r="J283" s="28"/>
+      <c r="K283" s="28"/>
     </row>
     <row r="284" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="27" t="s">
+      <c r="A284" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B284" s="28"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="29"/>
-      <c r="H284" s="27" t="s">
+      <c r="B284" s="44"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="45"/>
+      <c r="H284" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="I284" s="28"/>
-      <c r="J284" s="28"/>
-      <c r="K284" s="29"/>
+      <c r="I284" s="44"/>
+      <c r="J284" s="44"/>
+      <c r="K284" s="45"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
@@ -6480,7 +6567,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A289" s="16">
         <v>4</v>
       </c>
@@ -6533,66 +6620,66 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="26" t="s">
+      <c r="A291" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B291" s="26"/>
-      <c r="C291" s="26"/>
-      <c r="D291" s="26"/>
-      <c r="H291" s="26" t="s">
+      <c r="B291" s="28"/>
+      <c r="C291" s="28"/>
+      <c r="D291" s="28"/>
+      <c r="H291" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I291" s="26"/>
-      <c r="J291" s="26"/>
-      <c r="K291" s="26"/>
+      <c r="I291" s="28"/>
+      <c r="J291" s="28"/>
+      <c r="K291" s="28"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B292" s="30"/>
-      <c r="C292" s="31" t="s">
+      <c r="C292" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D292" s="31"/>
+      <c r="D292" s="29"/>
       <c r="E292" s="10"/>
       <c r="H292" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I292" s="30"/>
-      <c r="J292" s="31" t="s">
+      <c r="J292" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K292" s="31"/>
+      <c r="K292" s="29"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B293" s="30"/>
-      <c r="C293" s="31" t="s">
+      <c r="C293" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D293" s="31"/>
+      <c r="D293" s="29"/>
       <c r="E293" s="10"/>
       <c r="H293" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I293" s="30"/>
-      <c r="J293" s="31" t="s">
+      <c r="J293" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K293" s="31"/>
+      <c r="K293" s="29"/>
     </row>
     <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="32" t="s">
+      <c r="A295" s="39" t="s">
         <v>171</v>
       </c>
       <c r="B295" s="33"/>
       <c r="C295" s="33"/>
       <c r="D295" s="33"/>
-      <c r="E295" s="40"/>
-      <c r="G295" s="42"/>
+      <c r="E295" s="41"/>
+      <c r="G295" s="31"/>
       <c r="H295" s="33" t="s">
         <v>172</v>
       </c>
@@ -6601,147 +6688,147 @@
       <c r="K295" s="33"/>
     </row>
     <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="34"/>
-      <c r="B296" s="35"/>
-      <c r="C296" s="35"/>
-      <c r="D296" s="35"/>
-      <c r="E296" s="41"/>
-      <c r="G296" s="43"/>
-      <c r="H296" s="35"/>
-      <c r="I296" s="35"/>
-      <c r="J296" s="35"/>
-      <c r="K296" s="35"/>
+      <c r="A296" s="40"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="34"/>
+      <c r="D296" s="34"/>
+      <c r="E296" s="42"/>
+      <c r="G296" s="32"/>
+      <c r="H296" s="34"/>
+      <c r="I296" s="34"/>
+      <c r="J296" s="34"/>
+      <c r="K296" s="34"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="36" t="s">
+      <c r="A298" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="37"/>
-      <c r="C298" s="38" t="s">
+      <c r="B298" s="36"/>
+      <c r="C298" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D298" s="39"/>
+      <c r="D298" s="38"/>
       <c r="E298" s="9"/>
-      <c r="H298" s="36" t="s">
+      <c r="H298" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I298" s="37"/>
-      <c r="J298" s="38" t="s">
+      <c r="I298" s="36"/>
+      <c r="J298" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K298" s="39"/>
+      <c r="K298" s="38"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="36" t="s">
+      <c r="A299" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B299" s="37"/>
-      <c r="C299" s="38" t="s">
+      <c r="B299" s="36"/>
+      <c r="C299" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D299" s="39"/>
+      <c r="D299" s="38"/>
       <c r="E299" s="9"/>
-      <c r="H299" s="36" t="s">
+      <c r="H299" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I299" s="37"/>
-      <c r="J299" s="38" t="s">
+      <c r="I299" s="36"/>
+      <c r="J299" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K299" s="39"/>
+      <c r="K299" s="38"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="36" t="s">
+      <c r="A300" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B300" s="37"/>
-      <c r="C300" s="38" t="s">
+      <c r="B300" s="36"/>
+      <c r="C300" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="D300" s="39"/>
+      <c r="D300" s="38"/>
       <c r="E300" s="9"/>
-      <c r="H300" s="36" t="s">
+      <c r="H300" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I300" s="37"/>
-      <c r="J300" s="38" t="s">
+      <c r="I300" s="36"/>
+      <c r="J300" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="K300" s="39"/>
+      <c r="K300" s="38"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="36" t="s">
+      <c r="A301" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B301" s="37"/>
-      <c r="C301" s="38" t="s">
+      <c r="B301" s="36"/>
+      <c r="C301" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D301" s="39"/>
-      <c r="H301" s="36" t="s">
+      <c r="D301" s="38"/>
+      <c r="H301" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I301" s="37"/>
-      <c r="J301" s="38" t="s">
+      <c r="I301" s="36"/>
+      <c r="J301" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K301" s="39"/>
+      <c r="K301" s="38"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="26" t="s">
+      <c r="A302" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B302" s="26"/>
-      <c r="C302" s="26"/>
-      <c r="D302" s="26"/>
-      <c r="H302" s="26" t="s">
+      <c r="B302" s="28"/>
+      <c r="C302" s="28"/>
+      <c r="D302" s="28"/>
+      <c r="H302" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I302" s="26"/>
-      <c r="J302" s="26"/>
-      <c r="K302" s="26"/>
+      <c r="I302" s="28"/>
+      <c r="J302" s="28"/>
+      <c r="K302" s="28"/>
     </row>
     <row r="303" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="27" t="s">
+      <c r="A303" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B303" s="28"/>
-      <c r="C303" s="28"/>
-      <c r="D303" s="29"/>
-      <c r="H303" s="27" t="s">
+      <c r="B303" s="44"/>
+      <c r="C303" s="44"/>
+      <c r="D303" s="45"/>
+      <c r="H303" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="I303" s="28"/>
-      <c r="J303" s="28"/>
-      <c r="K303" s="29"/>
+      <c r="I303" s="44"/>
+      <c r="J303" s="44"/>
+      <c r="K303" s="45"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="26" t="s">
+      <c r="A304" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B304" s="26"/>
-      <c r="C304" s="26"/>
-      <c r="D304" s="26"/>
-      <c r="H304" s="26" t="s">
+      <c r="B304" s="28"/>
+      <c r="C304" s="28"/>
+      <c r="D304" s="28"/>
+      <c r="H304" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I304" s="26"/>
-      <c r="J304" s="26"/>
-      <c r="K304" s="26"/>
+      <c r="I304" s="28"/>
+      <c r="J304" s="28"/>
+      <c r="K304" s="28"/>
     </row>
     <row r="305" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="31" t="s">
+      <c r="A305" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B305" s="31"/>
-      <c r="C305" s="31"/>
-      <c r="D305" s="31"/>
-      <c r="H305" s="27" t="s">
+      <c r="B305" s="29"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="29"/>
+      <c r="H305" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="I305" s="28"/>
-      <c r="J305" s="28"/>
-      <c r="K305" s="29"/>
+      <c r="I305" s="44"/>
+      <c r="J305" s="44"/>
+      <c r="K305" s="45"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
@@ -6900,66 +6987,66 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="55" t="s">
+      <c r="A312" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B312" s="56"/>
-      <c r="C312" s="56"/>
-      <c r="D312" s="57"/>
-      <c r="H312" s="26" t="s">
+      <c r="B312" s="52"/>
+      <c r="C312" s="52"/>
+      <c r="D312" s="53"/>
+      <c r="H312" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I312" s="26"/>
-      <c r="J312" s="26"/>
-      <c r="K312" s="26"/>
+      <c r="I312" s="28"/>
+      <c r="J312" s="28"/>
+      <c r="K312" s="28"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B313" s="30"/>
-      <c r="C313" s="31" t="s">
+      <c r="C313" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D313" s="31"/>
+      <c r="D313" s="29"/>
       <c r="E313" s="10"/>
       <c r="H313" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I313" s="30"/>
-      <c r="J313" s="31" t="s">
+      <c r="J313" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K313" s="31"/>
+      <c r="K313" s="29"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B314" s="30"/>
-      <c r="C314" s="31" t="s">
+      <c r="C314" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="31"/>
+      <c r="D314" s="29"/>
       <c r="E314" s="10"/>
       <c r="H314" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I314" s="30"/>
-      <c r="J314" s="31" t="s">
+      <c r="J314" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K314" s="31"/>
+      <c r="K314" s="29"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="32" t="s">
+      <c r="A316" s="39" t="s">
         <v>173</v>
       </c>
       <c r="B316" s="33"/>
       <c r="C316" s="33"/>
       <c r="D316" s="33"/>
-      <c r="E316" s="40"/>
-      <c r="G316" s="42"/>
+      <c r="E316" s="41"/>
+      <c r="G316" s="31"/>
       <c r="H316" s="33" t="s">
         <v>174</v>
       </c>
@@ -6968,141 +7055,147 @@
       <c r="K316" s="33"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="34"/>
-      <c r="B317" s="35"/>
-      <c r="C317" s="35"/>
-      <c r="D317" s="35"/>
-      <c r="E317" s="41"/>
-      <c r="G317" s="43"/>
-      <c r="H317" s="35"/>
-      <c r="I317" s="35"/>
-      <c r="J317" s="35"/>
-      <c r="K317" s="35"/>
+      <c r="A317" s="40"/>
+      <c r="B317" s="34"/>
+      <c r="C317" s="34"/>
+      <c r="D317" s="34"/>
+      <c r="E317" s="42"/>
+      <c r="G317" s="32"/>
+      <c r="H317" s="34"/>
+      <c r="I317" s="34"/>
+      <c r="J317" s="34"/>
+      <c r="K317" s="34"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="36" t="s">
+      <c r="A319" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="37"/>
-      <c r="C319" s="38" t="s">
+      <c r="B319" s="36"/>
+      <c r="C319" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D319" s="39"/>
+      <c r="D319" s="38"/>
       <c r="E319" s="9"/>
-      <c r="H319" s="36" t="s">
+      <c r="H319" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I319" s="37"/>
-      <c r="J319" s="38" t="s">
+      <c r="I319" s="36"/>
+      <c r="J319" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K319" s="39"/>
+      <c r="K319" s="38"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="36" t="s">
+      <c r="A320" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B320" s="37"/>
-      <c r="C320" s="38" t="s">
+      <c r="B320" s="36"/>
+      <c r="C320" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D320" s="39"/>
+      <c r="D320" s="38"/>
       <c r="E320" s="9"/>
-      <c r="H320" s="36" t="s">
+      <c r="H320" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I320" s="37"/>
-      <c r="J320" s="38" t="s">
+      <c r="I320" s="36"/>
+      <c r="J320" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K320" s="39"/>
+      <c r="K320" s="38"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="36" t="s">
+      <c r="A321" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B321" s="37"/>
-      <c r="C321" s="38" t="s">
+      <c r="B321" s="36"/>
+      <c r="C321" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D321" s="39"/>
+      <c r="D321" s="38"/>
       <c r="E321" s="9"/>
-      <c r="H321" s="36" t="s">
+      <c r="H321" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I321" s="37"/>
-      <c r="J321" s="38" t="s">
+      <c r="I321" s="36"/>
+      <c r="J321" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="K321" s="39"/>
+      <c r="K321" s="38"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="36" t="s">
+      <c r="A322" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B322" s="37"/>
-      <c r="C322" s="38" t="s">
+      <c r="B322" s="36"/>
+      <c r="C322" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D322" s="39"/>
-      <c r="H322" s="36" t="s">
+      <c r="D322" s="38"/>
+      <c r="H322" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I322" s="37"/>
-      <c r="J322" s="38"/>
-      <c r="K322" s="39"/>
+      <c r="I322" s="36"/>
+      <c r="J322" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K322" s="38"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="53" t="s">
+      <c r="A323" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B323" s="53"/>
-      <c r="C323" s="53"/>
-      <c r="D323" s="53"/>
-      <c r="H323" s="26" t="s">
+      <c r="B323" s="48"/>
+      <c r="C323" s="48"/>
+      <c r="D323" s="48"/>
+      <c r="H323" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I323" s="26"/>
-      <c r="J323" s="26"/>
-      <c r="K323" s="26"/>
+      <c r="I323" s="28"/>
+      <c r="J323" s="28"/>
+      <c r="K323" s="28"/>
     </row>
     <row r="324" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="51" t="s">
+      <c r="A324" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B324" s="51"/>
-      <c r="C324" s="51"/>
-      <c r="D324" s="52"/>
-      <c r="H324" s="31"/>
-      <c r="I324" s="31"/>
-      <c r="J324" s="31"/>
-      <c r="K324" s="31"/>
+      <c r="B324" s="46"/>
+      <c r="C324" s="46"/>
+      <c r="D324" s="47"/>
+      <c r="H324" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="I324" s="44"/>
+      <c r="J324" s="44"/>
+      <c r="K324" s="45"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="54" t="s">
+      <c r="A325" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B325" s="54"/>
-      <c r="C325" s="54"/>
-      <c r="D325" s="54"/>
-      <c r="H325" s="26" t="s">
+      <c r="B325" s="49"/>
+      <c r="C325" s="49"/>
+      <c r="D325" s="49"/>
+      <c r="H325" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I325" s="26"/>
-      <c r="J325" s="26"/>
-      <c r="K325" s="26"/>
+      <c r="I325" s="28"/>
+      <c r="J325" s="28"/>
+      <c r="K325" s="28"/>
     </row>
     <row r="326" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="B326" s="51"/>
-      <c r="C326" s="51"/>
-      <c r="D326" s="52"/>
-      <c r="H326" s="31"/>
-      <c r="I326" s="31"/>
-      <c r="J326" s="31"/>
-      <c r="K326" s="31"/>
+      <c r="B326" s="46"/>
+      <c r="C326" s="46"/>
+      <c r="D326" s="47"/>
+      <c r="H326" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="I326" s="44"/>
+      <c r="J326" s="44"/>
+      <c r="K326" s="45"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
@@ -7146,9 +7239,15 @@
       <c r="H328" s="16">
         <v>1</v>
       </c>
-      <c r="I328" s="2"/>
-      <c r="J328" s="2"/>
-      <c r="K328" s="2"/>
+      <c r="I328" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K328" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="329" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="16">
@@ -7166,9 +7265,15 @@
       <c r="H329" s="16">
         <v>2</v>
       </c>
-      <c r="I329" s="2"/>
-      <c r="J329" s="2"/>
-      <c r="K329" s="2"/>
+      <c r="I329" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="J329" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K329" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="330" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" s="16">
@@ -7186,9 +7291,15 @@
       <c r="H330" s="16">
         <v>3</v>
       </c>
-      <c r="I330" s="2"/>
-      <c r="J330" s="2"/>
-      <c r="K330" s="2"/>
+      <c r="I330" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J330" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K330" s="18" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="331" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="16">
@@ -7206,8 +7317,12 @@
       <c r="H331" s="16">
         <v>4</v>
       </c>
-      <c r="I331" s="2"/>
-      <c r="J331" s="2"/>
+      <c r="I331" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J331" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K331" s="2"/>
     </row>
     <row r="332" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -7226,71 +7341,77 @@
       <c r="H332" s="16">
         <v>5</v>
       </c>
-      <c r="I332" s="2"/>
-      <c r="J332" s="2"/>
-      <c r="K332" s="2"/>
+      <c r="I332" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K332" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="26" t="s">
+      <c r="A333" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B333" s="26"/>
-      <c r="C333" s="26"/>
-      <c r="D333" s="26"/>
-      <c r="H333" s="26" t="s">
+      <c r="B333" s="28"/>
+      <c r="C333" s="28"/>
+      <c r="D333" s="28"/>
+      <c r="H333" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I333" s="26"/>
-      <c r="J333" s="26"/>
-      <c r="K333" s="26"/>
+      <c r="I333" s="28"/>
+      <c r="J333" s="28"/>
+      <c r="K333" s="28"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B334" s="30"/>
-      <c r="C334" s="31" t="s">
+      <c r="C334" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D334" s="31"/>
+      <c r="D334" s="29"/>
       <c r="E334" s="10"/>
       <c r="H334" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I334" s="30"/>
-      <c r="J334" s="31" t="s">
+      <c r="J334" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K334" s="31"/>
+      <c r="K334" s="29"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B335" s="30"/>
-      <c r="C335" s="31" t="s">
+      <c r="C335" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D335" s="31"/>
+      <c r="D335" s="29"/>
       <c r="E335" s="10"/>
       <c r="H335" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I335" s="30"/>
-      <c r="J335" s="31" t="s">
+      <c r="J335" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K335" s="31"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="32" t="s">
+      <c r="K335" s="29"/>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A338" s="39" t="s">
         <v>223</v>
       </c>
       <c r="B338" s="33"/>
       <c r="C338" s="33"/>
       <c r="D338" s="33"/>
-      <c r="E338" s="40"/>
-      <c r="G338" s="42"/>
+      <c r="E338" s="41"/>
+      <c r="G338" s="31"/>
       <c r="H338" s="33" t="s">
         <v>224</v>
       </c>
@@ -7298,138 +7419,151 @@
       <c r="J338" s="33"/>
       <c r="K338" s="33"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="34"/>
-      <c r="B339" s="35"/>
-      <c r="C339" s="35"/>
-      <c r="D339" s="35"/>
-      <c r="E339" s="41"/>
-      <c r="G339" s="43"/>
-      <c r="H339" s="35"/>
-      <c r="I339" s="35"/>
-      <c r="J339" s="35"/>
-      <c r="K339" s="35"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="36" t="s">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A339" s="40"/>
+      <c r="B339" s="34"/>
+      <c r="C339" s="34"/>
+      <c r="D339" s="34"/>
+      <c r="E339" s="42"/>
+      <c r="G339" s="32"/>
+      <c r="H339" s="34"/>
+      <c r="I339" s="34"/>
+      <c r="J339" s="34"/>
+      <c r="K339" s="34"/>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A341" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B341" s="37"/>
-      <c r="C341" s="38" t="s">
+      <c r="B341" s="36"/>
+      <c r="C341" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D341" s="39"/>
+      <c r="D341" s="38"/>
       <c r="E341" s="9"/>
-      <c r="H341" s="36" t="s">
+      <c r="H341" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I341" s="37"/>
-      <c r="J341" s="38" t="s">
+      <c r="I341" s="36"/>
+      <c r="J341" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K341" s="39"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="36" t="s">
+      <c r="K341" s="38"/>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A342" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B342" s="37"/>
-      <c r="C342" s="38" t="s">
+      <c r="B342" s="36"/>
+      <c r="C342" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D342" s="39"/>
+      <c r="D342" s="38"/>
       <c r="E342" s="9"/>
-      <c r="H342" s="36" t="s">
+      <c r="H342" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I342" s="37"/>
-      <c r="J342" s="38" t="s">
+      <c r="I342" s="36"/>
+      <c r="J342" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K342" s="39"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="36" t="s">
+      <c r="K342" s="38"/>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A343" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B343" s="37"/>
-      <c r="C343" s="38" t="s">
+      <c r="B343" s="36"/>
+      <c r="C343" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="D343" s="39"/>
+      <c r="D343" s="38"/>
       <c r="E343" s="9"/>
-      <c r="H343" s="36" t="s">
+      <c r="H343" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I343" s="37"/>
-      <c r="J343" s="38" t="s">
+      <c r="I343" s="36"/>
+      <c r="J343" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="K343" s="39"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="36" t="s">
+      <c r="K343" s="38"/>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A344" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B344" s="37"/>
-      <c r="C344" s="38"/>
-      <c r="D344" s="39"/>
-      <c r="H344" s="36" t="s">
+      <c r="B344" s="36"/>
+      <c r="C344" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D344" s="38"/>
+      <c r="H344" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I344" s="37"/>
-      <c r="J344" s="38"/>
-      <c r="K344" s="39"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="26" t="s">
+      <c r="I344" s="36"/>
+      <c r="J344" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="K344" s="38"/>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A345" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B345" s="26"/>
-      <c r="C345" s="26"/>
-      <c r="D345" s="26"/>
-      <c r="H345" s="26" t="s">
+      <c r="B345" s="28"/>
+      <c r="C345" s="28"/>
+      <c r="D345" s="28"/>
+      <c r="H345" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I345" s="26"/>
-      <c r="J345" s="26"/>
-      <c r="K345" s="26"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="31"/>
-      <c r="B346" s="31"/>
-      <c r="C346" s="31"/>
-      <c r="D346" s="31"/>
-      <c r="H346" s="31"/>
-      <c r="I346" s="31"/>
-      <c r="J346" s="31"/>
-      <c r="K346" s="31"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="26" t="s">
+      <c r="I345" s="28"/>
+      <c r="J345" s="28"/>
+      <c r="K345" s="28"/>
+    </row>
+    <row r="346" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B346" s="44"/>
+      <c r="C346" s="44"/>
+      <c r="D346" s="45"/>
+      <c r="H346" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="I346" s="44"/>
+      <c r="J346" s="44"/>
+      <c r="K346" s="45"/>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A347" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B347" s="26"/>
-      <c r="C347" s="26"/>
-      <c r="D347" s="26"/>
-      <c r="H347" s="26" t="s">
+      <c r="B347" s="28"/>
+      <c r="C347" s="28"/>
+      <c r="D347" s="28"/>
+      <c r="H347" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I347" s="26"/>
-      <c r="J347" s="26"/>
-      <c r="K347" s="26"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="31"/>
-      <c r="B348" s="31"/>
-      <c r="C348" s="31"/>
-      <c r="D348" s="31"/>
-      <c r="H348" s="31"/>
-      <c r="I348" s="31"/>
-      <c r="J348" s="31"/>
-      <c r="K348" s="31"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I347" s="28"/>
+      <c r="J347" s="28"/>
+      <c r="K347" s="28"/>
+    </row>
+    <row r="348" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B348" s="44"/>
+      <c r="C348" s="44"/>
+      <c r="D348" s="45"/>
+      <c r="H348" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="I348" s="44"/>
+      <c r="J348" s="44"/>
+      <c r="K348" s="45"/>
+      <c r="S348" s="23"/>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="24" t="s">
         <v>7</v>
       </c>
@@ -7455,376 +7589,1272 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="25">
         <v>1</v>
       </c>
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
+      <c r="B350" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H350" s="25">
         <v>1</v>
       </c>
-      <c r="I350" s="2"/>
-      <c r="J350" s="2"/>
-      <c r="K350" s="2"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I350" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J350" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K350" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A351" s="25">
         <v>2</v>
       </c>
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
+      <c r="B351" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H351" s="25">
         <v>2</v>
       </c>
-      <c r="I351" s="2"/>
-      <c r="J351" s="2"/>
-      <c r="K351" s="2"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I351" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="J351" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K351" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A352" s="25">
         <v>3</v>
       </c>
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
+      <c r="B352" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C352" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D352" s="18" t="s">
+        <v>247</v>
+      </c>
       <c r="H352" s="25">
         <v>3</v>
       </c>
-      <c r="I352" s="2"/>
-      <c r="J352" s="2"/>
-      <c r="K352" s="2"/>
+      <c r="I352" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J352" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="K352" s="18" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="25">
         <v>4</v>
       </c>
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
+      <c r="B353" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H353" s="25">
         <v>4</v>
       </c>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2"/>
-      <c r="K353" s="2"/>
+      <c r="I353" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="25">
         <v>5</v>
       </c>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
+      <c r="B354" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H354" s="25">
         <v>5</v>
       </c>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2"/>
-      <c r="K354" s="2"/>
+      <c r="I354" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J354" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K354" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="26" t="s">
+      <c r="A355" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B355" s="26"/>
-      <c r="C355" s="26"/>
-      <c r="D355" s="26"/>
-      <c r="H355" s="26" t="s">
+      <c r="B355" s="28"/>
+      <c r="C355" s="28"/>
+      <c r="D355" s="28"/>
+      <c r="H355" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I355" s="26"/>
-      <c r="J355" s="26"/>
-      <c r="K355" s="26"/>
+      <c r="I355" s="28"/>
+      <c r="J355" s="28"/>
+      <c r="K355" s="28"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B356" s="30"/>
-      <c r="C356" s="31" t="s">
+      <c r="C356" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D356" s="31"/>
+      <c r="D356" s="29"/>
       <c r="E356" s="10"/>
       <c r="H356" s="30" t="s">
         <v>11</v>
       </c>
       <c r="I356" s="30"/>
-      <c r="J356" s="31" t="s">
+      <c r="J356" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K356" s="31"/>
+      <c r="K356" s="29"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B357" s="30"/>
-      <c r="C357" s="31" t="s">
+      <c r="C357" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D357" s="31"/>
+      <c r="D357" s="29"/>
       <c r="E357" s="10"/>
       <c r="H357" s="30" t="s">
         <v>12</v>
       </c>
       <c r="I357" s="30"/>
-      <c r="J357" s="31" t="s">
+      <c r="J357" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K357" s="31"/>
+      <c r="K357" s="29"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B360" s="33"/>
+      <c r="C360" s="33"/>
+      <c r="D360" s="33"/>
+      <c r="E360" s="41"/>
+      <c r="G360" s="31"/>
+      <c r="H360" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="I360" s="33"/>
+      <c r="J360" s="33"/>
+      <c r="K360" s="33"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="40"/>
+      <c r="B361" s="34"/>
+      <c r="C361" s="34"/>
+      <c r="D361" s="34"/>
+      <c r="E361" s="42"/>
+      <c r="G361" s="32"/>
+      <c r="H361" s="34"/>
+      <c r="I361" s="34"/>
+      <c r="J361" s="34"/>
+      <c r="K361" s="34"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B363" s="36"/>
+      <c r="C363" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" s="38"/>
+      <c r="E363" s="9"/>
+      <c r="H363" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I363" s="36"/>
+      <c r="J363" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K363" s="38"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" s="36"/>
+      <c r="C364" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D364" s="38"/>
+      <c r="E364" s="9"/>
+      <c r="H364" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I364" s="36"/>
+      <c r="J364" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K364" s="38"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365" s="36"/>
+      <c r="C365" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D365" s="38"/>
+      <c r="E365" s="9"/>
+      <c r="H365" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I365" s="36"/>
+      <c r="J365" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="K365" s="38"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366" s="36"/>
+      <c r="C366" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D366" s="38"/>
+      <c r="H366" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I366" s="36"/>
+      <c r="J366" s="37"/>
+      <c r="K366" s="38"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" s="28"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="28"/>
+      <c r="H367" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I367" s="28"/>
+      <c r="J367" s="28"/>
+      <c r="K367" s="28"/>
+    </row>
+    <row r="368" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B368" s="44"/>
+      <c r="C368" s="44"/>
+      <c r="D368" s="45"/>
+      <c r="H368" s="29"/>
+      <c r="I368" s="29"/>
+      <c r="J368" s="29"/>
+      <c r="K368" s="29"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B369" s="28"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="28"/>
+      <c r="H369" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I369" s="28"/>
+      <c r="J369" s="28"/>
+      <c r="K369" s="28"/>
+    </row>
+    <row r="370" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B370" s="44"/>
+      <c r="C370" s="44"/>
+      <c r="D370" s="45"/>
+      <c r="H370" s="29"/>
+      <c r="I370" s="29"/>
+      <c r="J370" s="29"/>
+      <c r="K370" s="29"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B371" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D371" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H371" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I371" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J371" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K371" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="27">
+        <v>1</v>
+      </c>
+      <c r="B372" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H372" s="27">
+        <v>1</v>
+      </c>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="2"/>
+    </row>
+    <row r="373" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="27">
+        <v>2</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H373" s="27">
+        <v>2</v>
+      </c>
+      <c r="I373" s="2"/>
+      <c r="J373" s="2"/>
+      <c r="K373" s="2"/>
+    </row>
+    <row r="374" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A374" s="27">
+        <v>3</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C374" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D374" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H374" s="27">
+        <v>3</v>
+      </c>
+      <c r="I374" s="2"/>
+      <c r="J374" s="2"/>
+      <c r="K374" s="2"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="27">
+        <v>4</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H375" s="27">
+        <v>4</v>
+      </c>
+      <c r="I375" s="2"/>
+      <c r="J375" s="2"/>
+      <c r="K375" s="2"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="27">
+        <v>5</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H376" s="27">
+        <v>5</v>
+      </c>
+      <c r="I376" s="2"/>
+      <c r="J376" s="2"/>
+      <c r="K376" s="2"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" s="28"/>
+      <c r="C377" s="28"/>
+      <c r="D377" s="28"/>
+      <c r="H377" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I377" s="28"/>
+      <c r="J377" s="28"/>
+      <c r="K377" s="28"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" s="30"/>
+      <c r="C378" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D378" s="29"/>
+      <c r="E378" s="10"/>
+      <c r="H378" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I378" s="30"/>
+      <c r="J378" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K378" s="29"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="30"/>
+      <c r="C379" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" s="29"/>
+      <c r="E379" s="10"/>
+      <c r="H379" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I379" s="30"/>
+      <c r="J379" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K379" s="29"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B381" s="33"/>
+      <c r="C381" s="33"/>
+      <c r="D381" s="33"/>
+      <c r="E381" s="41"/>
+      <c r="G381" s="31"/>
+      <c r="H381" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="I381" s="33"/>
+      <c r="J381" s="33"/>
+      <c r="K381" s="33"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="40"/>
+      <c r="B382" s="34"/>
+      <c r="C382" s="34"/>
+      <c r="D382" s="34"/>
+      <c r="E382" s="42"/>
+      <c r="G382" s="32"/>
+      <c r="H382" s="34"/>
+      <c r="I382" s="34"/>
+      <c r="J382" s="34"/>
+      <c r="K382" s="34"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B384" s="36"/>
+      <c r="C384" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="38"/>
+      <c r="E384" s="9"/>
+      <c r="H384" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I384" s="36"/>
+      <c r="J384" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K384" s="38"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" s="36"/>
+      <c r="C385" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D385" s="38"/>
+      <c r="E385" s="9"/>
+      <c r="H385" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I385" s="36"/>
+      <c r="J385" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K385" s="38"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B386" s="36"/>
+      <c r="C386" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D386" s="38"/>
+      <c r="E386" s="9"/>
+      <c r="H386" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I386" s="36"/>
+      <c r="J386" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="K386" s="38"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" s="36"/>
+      <c r="C387" s="37"/>
+      <c r="D387" s="38"/>
+      <c r="H387" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I387" s="36"/>
+      <c r="J387" s="37"/>
+      <c r="K387" s="38"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388" s="28"/>
+      <c r="C388" s="28"/>
+      <c r="D388" s="28"/>
+      <c r="H388" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I388" s="28"/>
+      <c r="J388" s="28"/>
+      <c r="K388" s="28"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="29"/>
+      <c r="B389" s="29"/>
+      <c r="C389" s="29"/>
+      <c r="D389" s="29"/>
+      <c r="H389" s="29"/>
+      <c r="I389" s="29"/>
+      <c r="J389" s="29"/>
+      <c r="K389" s="29"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B390" s="28"/>
+      <c r="C390" s="28"/>
+      <c r="D390" s="28"/>
+      <c r="H390" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I390" s="28"/>
+      <c r="J390" s="28"/>
+      <c r="K390" s="28"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="29"/>
+      <c r="B391" s="29"/>
+      <c r="C391" s="29"/>
+      <c r="D391" s="29"/>
+      <c r="H391" s="29"/>
+      <c r="I391" s="29"/>
+      <c r="J391" s="29"/>
+      <c r="K391" s="29"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B392" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H392" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I392" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J392" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K392" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="27">
+        <v>1</v>
+      </c>
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+      <c r="H393" s="27">
+        <v>1</v>
+      </c>
+      <c r="I393" s="2"/>
+      <c r="J393" s="2"/>
+      <c r="K393" s="2"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="27">
+        <v>2</v>
+      </c>
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="H394" s="27">
+        <v>2</v>
+      </c>
+      <c r="I394" s="2"/>
+      <c r="J394" s="2"/>
+      <c r="K394" s="2"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" s="27">
+        <v>3</v>
+      </c>
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="H395" s="27">
+        <v>3</v>
+      </c>
+      <c r="I395" s="2"/>
+      <c r="J395" s="2"/>
+      <c r="K395" s="2"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="27">
+        <v>4</v>
+      </c>
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="H396" s="27">
+        <v>4</v>
+      </c>
+      <c r="I396" s="2"/>
+      <c r="J396" s="2"/>
+      <c r="K396" s="2"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="27">
+        <v>5</v>
+      </c>
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+      <c r="H397" s="27">
+        <v>5</v>
+      </c>
+      <c r="I397" s="2"/>
+      <c r="J397" s="2"/>
+      <c r="K397" s="2"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398" s="28"/>
+      <c r="C398" s="28"/>
+      <c r="D398" s="28"/>
+      <c r="H398" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I398" s="28"/>
+      <c r="J398" s="28"/>
+      <c r="K398" s="28"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" s="30"/>
+      <c r="C399" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399" s="29"/>
+      <c r="E399" s="10"/>
+      <c r="H399" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I399" s="30"/>
+      <c r="J399" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K399" s="29"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="30"/>
+      <c r="C400" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="29"/>
+      <c r="E400" s="10"/>
+      <c r="H400" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I400" s="30"/>
+      <c r="J400" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K400" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="650">
-    <mergeCell ref="H345:K345"/>
-    <mergeCell ref="H346:K346"/>
-    <mergeCell ref="H347:K347"/>
-    <mergeCell ref="H348:K348"/>
-    <mergeCell ref="H355:K355"/>
-    <mergeCell ref="H356:I356"/>
-    <mergeCell ref="J356:K356"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="J357:K357"/>
-    <mergeCell ref="G338:G339"/>
-    <mergeCell ref="H338:K339"/>
-    <mergeCell ref="H341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="H342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="H343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="H344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A348:D348"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="C356:D356"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="A338:D339"/>
-    <mergeCell ref="E338:E339"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="G316:G317"/>
-    <mergeCell ref="H302:K302"/>
-    <mergeCell ref="H303:K303"/>
-    <mergeCell ref="H304:K304"/>
-    <mergeCell ref="H305:K305"/>
-    <mergeCell ref="H312:K312"/>
-    <mergeCell ref="H313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="H314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="H316:K317"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="J335:K335"/>
-    <mergeCell ref="H295:K296"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="J300:K300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="H319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="H320:I320"/>
-    <mergeCell ref="J320:K320"/>
-    <mergeCell ref="H321:I321"/>
-    <mergeCell ref="J321:K321"/>
-    <mergeCell ref="H322:I322"/>
-    <mergeCell ref="J322:K322"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="H323:K323"/>
-    <mergeCell ref="H324:K324"/>
-    <mergeCell ref="H325:K325"/>
-    <mergeCell ref="H326:K326"/>
-    <mergeCell ref="H333:K333"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="J334:K334"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A316:D317"/>
-    <mergeCell ref="E316:E317"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A326:D326"/>
-    <mergeCell ref="A333:D333"/>
-    <mergeCell ref="A302:D302"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A312:D312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="C313:D313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="C314:D314"/>
-    <mergeCell ref="A274:D275"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:D277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="C300:D300"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="A295:D296"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="C298:D298"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="C293:D293"/>
-    <mergeCell ref="H282:K282"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H291:K291"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="G210:G211"/>
-    <mergeCell ref="G253:G254"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="H281:K281"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="H260:K260"/>
-    <mergeCell ref="H261:K261"/>
-    <mergeCell ref="H262:K262"/>
-    <mergeCell ref="H263:K263"/>
-    <mergeCell ref="H270:K270"/>
-    <mergeCell ref="H271:I271"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="H272:I272"/>
-    <mergeCell ref="J272:K272"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="H274:K275"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="H253:K254"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+  <mergeCells count="726">
+    <mergeCell ref="H388:K388"/>
+    <mergeCell ref="H389:K389"/>
+    <mergeCell ref="H390:K390"/>
+    <mergeCell ref="H391:K391"/>
+    <mergeCell ref="H398:K398"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="H400:I400"/>
+    <mergeCell ref="J400:K400"/>
+    <mergeCell ref="G381:G382"/>
+    <mergeCell ref="H381:K382"/>
+    <mergeCell ref="H384:I384"/>
+    <mergeCell ref="J384:K384"/>
+    <mergeCell ref="H385:I385"/>
+    <mergeCell ref="J385:K385"/>
+    <mergeCell ref="H386:I386"/>
+    <mergeCell ref="J386:K386"/>
+    <mergeCell ref="H387:I387"/>
+    <mergeCell ref="J387:K387"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A399:B399"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="A400:B400"/>
+    <mergeCell ref="C400:D400"/>
+    <mergeCell ref="A381:D382"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="A385:B385"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="C386:D386"/>
+    <mergeCell ref="A387:B387"/>
+    <mergeCell ref="C387:D387"/>
+    <mergeCell ref="H367:K367"/>
+    <mergeCell ref="H368:K368"/>
+    <mergeCell ref="H369:K369"/>
+    <mergeCell ref="H370:K370"/>
+    <mergeCell ref="H377:K377"/>
+    <mergeCell ref="H378:I378"/>
+    <mergeCell ref="J378:K378"/>
+    <mergeCell ref="H379:I379"/>
+    <mergeCell ref="J379:K379"/>
+    <mergeCell ref="G360:G361"/>
+    <mergeCell ref="H360:K361"/>
+    <mergeCell ref="H363:I363"/>
+    <mergeCell ref="J363:K363"/>
+    <mergeCell ref="H364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="H365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="H366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="A367:D367"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A370:D370"/>
+    <mergeCell ref="A377:D377"/>
+    <mergeCell ref="A378:B378"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="A360:D361"/>
+    <mergeCell ref="E360:E361"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="H238:K238"/>
+    <mergeCell ref="H239:K239"/>
+    <mergeCell ref="H240:K240"/>
+    <mergeCell ref="H241:K241"/>
+    <mergeCell ref="H248:K248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="H231:K232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="A231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="H217:K217"/>
+    <mergeCell ref="H218:K218"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="H220:K220"/>
+    <mergeCell ref="H227:K227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="H210:K211"/>
+    <mergeCell ref="L210:L211"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="A210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="H189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="H196:K196"/>
+    <mergeCell ref="H197:K197"/>
+    <mergeCell ref="H198:K198"/>
+    <mergeCell ref="H199:K199"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="H178:K178"/>
+    <mergeCell ref="H185:K185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="H168:K169"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="H147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="A147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="H126:K127"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:K106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="F1:F1048576"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="H85:K86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="H64:K65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:D46"/>
@@ -7849,386 +8879,252 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="H64:K65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="H85:K86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="F1:F1048576"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:K106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="A126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="H126:K127"/>
-    <mergeCell ref="A147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="H147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="H164:K164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="L168:L169"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="H178:K178"/>
-    <mergeCell ref="H185:K185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="H168:K169"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="H189:K190"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="H196:K196"/>
-    <mergeCell ref="H197:K197"/>
-    <mergeCell ref="H198:K198"/>
-    <mergeCell ref="H199:K199"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="H210:K211"/>
-    <mergeCell ref="L210:L211"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="H217:K217"/>
-    <mergeCell ref="H218:K218"/>
-    <mergeCell ref="H219:K219"/>
-    <mergeCell ref="H220:K220"/>
-    <mergeCell ref="H227:K227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="A231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="H231:K232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="H238:K238"/>
-    <mergeCell ref="H239:K239"/>
-    <mergeCell ref="H240:K240"/>
-    <mergeCell ref="H241:K241"/>
-    <mergeCell ref="H248:K248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H253:K254"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="H274:K275"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H291:K291"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="G253:G254"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="H281:K281"/>
+    <mergeCell ref="H260:K260"/>
+    <mergeCell ref="H261:K261"/>
+    <mergeCell ref="H262:K262"/>
+    <mergeCell ref="H263:K263"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="A274:D275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="A295:D296"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A333:D333"/>
+    <mergeCell ref="A302:D302"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="C313:D313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="A316:D317"/>
+    <mergeCell ref="E316:E317"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="H323:K323"/>
+    <mergeCell ref="H324:K324"/>
+    <mergeCell ref="H325:K325"/>
+    <mergeCell ref="H326:K326"/>
+    <mergeCell ref="H333:K333"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="J334:K334"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="J335:K335"/>
+    <mergeCell ref="H295:K296"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="H320:I320"/>
+    <mergeCell ref="J320:K320"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="J321:K321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="J322:K322"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H302:K302"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="H304:K304"/>
+    <mergeCell ref="H305:K305"/>
+    <mergeCell ref="H312:K312"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="H316:K317"/>
+    <mergeCell ref="A338:D339"/>
+    <mergeCell ref="E338:E339"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A348:D348"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="G338:G339"/>
+    <mergeCell ref="H338:K339"/>
+    <mergeCell ref="H341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="H345:K345"/>
+    <mergeCell ref="H346:K346"/>
+    <mergeCell ref="H347:K347"/>
+    <mergeCell ref="H348:K348"/>
+    <mergeCell ref="H355:K355"/>
+    <mergeCell ref="H356:I356"/>
+    <mergeCell ref="J356:K356"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="J357:K357"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="338">
   <si>
     <t>ID caso de prueba</t>
   </si>
@@ -943,6 +943,96 @@
   </si>
   <si>
     <t>sqlite3.IntegrityError: UNIQUE constraint failed: colaborador.idProyecto, colaborador.idUsuario</t>
+  </si>
+  <si>
+    <t>Escribir usuario "root"</t>
+  </si>
+  <si>
+    <t>Escribir contraseña "root"</t>
+  </si>
+  <si>
+    <t>Ingresar "data mining AND software and XML" y hacer click en Buscar</t>
+  </si>
+  <si>
+    <t>Seleccionar el artículo "Drafting and Retrieving…"</t>
+  </si>
+  <si>
+    <t>Usuario logeado, proyecto seleccionado y pantalla de búsqueda</t>
+  </si>
+  <si>
+    <t>Que el usuario pueda agregar artículos que encontró a su proyecto</t>
+  </si>
+  <si>
+    <t>Seleccionar el artículo "Application of XML Data Mining..."</t>
+  </si>
+  <si>
+    <t>Hacer click en "Agregar articulos seleccionados"</t>
+  </si>
+  <si>
+    <t>Scrapping - Agregar Articulos</t>
+  </si>
+  <si>
+    <t>Los articulos son eliminados de los resultados y agregados al proyecto</t>
+  </si>
+  <si>
+    <t>Proyecto creado, Artículos buscados y pantalla de clasificacion de proyectos</t>
+  </si>
+  <si>
+    <t>Que el usuario pueda clasificar los Articulos</t>
+  </si>
+  <si>
+    <t>PRS_0044</t>
+  </si>
+  <si>
+    <t>PRS_0043</t>
+  </si>
+  <si>
+    <t>Classify</t>
+  </si>
+  <si>
+    <t>Seleccionar un Artículo y clasificarlo como "Poca información"</t>
+  </si>
+  <si>
+    <t>Seleccionar otro Artículo y clasificarlo como "Relevante"</t>
+  </si>
+  <si>
+    <t>Hacer click en guardar en ambos artículos</t>
+  </si>
+  <si>
+    <t>Los artículos desaparecen de la lista</t>
+  </si>
+  <si>
+    <t>Recargar la pagina</t>
+  </si>
+  <si>
+    <t>Los artículos aparecen junto a la clasificación que se les dio</t>
+  </si>
+  <si>
+    <t>PRS_0045</t>
+  </si>
+  <si>
+    <t>PRS_0046</t>
+  </si>
+  <si>
+    <t>Que el usuario pueda modificar la clasificación que le asignó al Artículo</t>
+  </si>
+  <si>
+    <t>Proyecto creado, articulo clasificado y pantalla de clasificar artículos</t>
+  </si>
+  <si>
+    <t>Hacer click en la clasificacion que se le dio al artículo</t>
+  </si>
+  <si>
+    <t>Se abre una ventana que permite renombrar la clasificación</t>
+  </si>
+  <si>
+    <t>Cambiar "Relevante" por "No interesa"</t>
+  </si>
+  <si>
+    <t>Hacer click en "editar"</t>
+  </si>
+  <si>
+    <t>Se cambia la clasificaicón del artículo</t>
   </si>
 </sst>
 </file>
@@ -1297,6 +1387,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,43 +1408,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,7 +1432,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,7 +1722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1642,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H477" sqref="H477:K477"/>
+    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1742,7 @@
     <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8" style="60" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" style="4" customWidth="1"/>
     <col min="9" max="11" width="16.28515625" style="1" customWidth="1"/>
@@ -1660,32 +1750,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
-      <c r="E1" s="43"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="K1" s="50"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="44"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="51"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -1781,12 +1871,12 @@
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
@@ -1803,18 +1893,18 @@
       <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="H11" s="45" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="H11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2034,32 +2124,32 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="43"/>
-      <c r="G22" s="48"/>
+      <c r="E22" s="46"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="35" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="50"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="44"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="47"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
-      <c r="K23" s="51"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
@@ -2151,18 +2241,18 @@
       <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="H30" s="45" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="H30" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
@@ -2179,18 +2269,18 @@
       <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="H32" s="45" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="H32" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -2401,32 +2491,32 @@
       <c r="K41" s="31"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="43"/>
-      <c r="G43" s="48"/>
+      <c r="E43" s="46"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
-      <c r="K43" s="50"/>
+      <c r="K43" s="56"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="44"/>
-      <c r="G44" s="49"/>
+      <c r="E44" s="47"/>
+      <c r="G44" s="59"/>
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
-      <c r="K44" s="51"/>
+      <c r="K44" s="57"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
@@ -2535,12 +2625,12 @@
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
-      <c r="H51" s="45" t="s">
+      <c r="H51" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="47"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="43"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
@@ -2779,32 +2869,32 @@
       <c r="K62" s="31"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
-      <c r="E64" s="43"/>
-      <c r="G64" s="48"/>
+      <c r="E64" s="46"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I64" s="35"/>
       <c r="J64" s="35"/>
-      <c r="K64" s="50"/>
+      <c r="K64" s="56"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
-      <c r="E65" s="44"/>
-      <c r="G65" s="49"/>
+      <c r="E65" s="47"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
-      <c r="K65" s="51"/>
+      <c r="K65" s="57"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
@@ -2901,12 +2991,12 @@
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
-      <c r="H72" s="45" t="s">
+      <c r="H72" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="47"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="43"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
@@ -2923,18 +3013,18 @@
       <c r="K73" s="30"/>
     </row>
     <row r="74" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="H74" s="45" t="s">
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="H74" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="47"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="43"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
@@ -2979,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>38</v>
@@ -2988,7 +3078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>2</v>
       </c>
@@ -3005,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>38</v>
@@ -3144,32 +3234,32 @@
       <c r="K83" s="31"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
-      <c r="E85" s="43"/>
-      <c r="G85" s="48"/>
+      <c r="E85" s="46"/>
+      <c r="G85" s="58"/>
       <c r="H85" s="35" t="s">
         <v>31</v>
       </c>
       <c r="I85" s="35"/>
       <c r="J85" s="35"/>
-      <c r="K85" s="50"/>
+      <c r="K85" s="56"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
-      <c r="E86" s="44"/>
-      <c r="G86" s="49"/>
+      <c r="E86" s="47"/>
+      <c r="G86" s="59"/>
       <c r="H86" s="36"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
-      <c r="K86" s="51"/>
+      <c r="K86" s="57"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
@@ -3261,12 +3351,12 @@
       <c r="K92" s="30"/>
     </row>
     <row r="93" spans="1:11" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="46"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="47"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="43"/>
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
       <c r="J93" s="31"/>
@@ -3477,32 +3567,32 @@
       <c r="K104" s="31"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B105" s="35"/>
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
-      <c r="E105" s="43"/>
-      <c r="G105" s="48"/>
+      <c r="E105" s="46"/>
+      <c r="G105" s="58"/>
       <c r="H105" s="35" t="s">
         <v>82</v>
       </c>
       <c r="I105" s="35"/>
       <c r="J105" s="35"/>
-      <c r="K105" s="50"/>
+      <c r="K105" s="56"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
+      <c r="A106" s="45"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
       <c r="D106" s="36"/>
-      <c r="E106" s="44"/>
-      <c r="G106" s="49"/>
+      <c r="E106" s="47"/>
+      <c r="G106" s="59"/>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
       <c r="J106" s="36"/>
-      <c r="K106" s="51"/>
+      <c r="K106" s="57"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
@@ -3598,12 +3688,12 @@
       <c r="B113" s="31"/>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
-      <c r="H113" s="45" t="s">
+      <c r="H113" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I113" s="46"/>
-      <c r="J113" s="46"/>
-      <c r="K113" s="47"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="42"/>
+      <c r="K113" s="43"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
@@ -3620,12 +3710,12 @@
       <c r="K114" s="30"/>
     </row>
     <row r="115" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="45" t="s">
+      <c r="A115" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="47"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="43"/>
       <c r="H115" s="31" t="s">
         <v>108</v>
       </c>
@@ -3848,34 +3938,34 @@
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="41" t="s">
+      <c r="A126" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
       <c r="D126" s="35"/>
-      <c r="E126" s="43"/>
+      <c r="E126" s="46"/>
       <c r="G126" s="20"/>
-      <c r="H126" s="41" t="s">
+      <c r="H126" s="44" t="s">
         <v>84</v>
       </c>
       <c r="I126" s="35"/>
       <c r="J126" s="35"/>
       <c r="K126" s="35"/>
-      <c r="L126" s="43"/>
+      <c r="L126" s="46"/>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
+      <c r="A127" s="45"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
       <c r="D127" s="36"/>
-      <c r="E127" s="44"/>
+      <c r="E127" s="47"/>
       <c r="G127" s="21"/>
-      <c r="H127" s="42"/>
+      <c r="H127" s="45"/>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
       <c r="K127" s="36"/>
-      <c r="L127" s="44"/>
+      <c r="L127" s="47"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="37" t="s">
@@ -3976,12 +4066,12 @@
       <c r="B134" s="31"/>
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
-      <c r="H134" s="45" t="s">
+      <c r="H134" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="I134" s="46"/>
-      <c r="J134" s="46"/>
-      <c r="K134" s="47"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="42"/>
+      <c r="K134" s="43"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
@@ -4220,34 +4310,34 @@
       <c r="L145" s="10"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="44" t="s">
         <v>85</v>
       </c>
       <c r="B147" s="35"/>
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
-      <c r="E147" s="43"/>
-      <c r="G147" s="43"/>
-      <c r="H147" s="41" t="s">
+      <c r="E147" s="46"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="44" t="s">
         <v>86</v>
       </c>
       <c r="I147" s="35"/>
       <c r="J147" s="35"/>
       <c r="K147" s="35"/>
-      <c r="L147" s="43"/>
+      <c r="L147" s="46"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
+      <c r="A148" s="45"/>
       <c r="B148" s="36"/>
       <c r="C148" s="36"/>
       <c r="D148" s="36"/>
-      <c r="E148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="42"/>
+      <c r="E148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="45"/>
       <c r="I148" s="36"/>
       <c r="J148" s="36"/>
       <c r="K148" s="36"/>
-      <c r="L148" s="44"/>
+      <c r="L148" s="47"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
@@ -4348,12 +4438,12 @@
       <c r="B155" s="31"/>
       <c r="C155" s="31"/>
       <c r="D155" s="31"/>
-      <c r="H155" s="45" t="s">
+      <c r="H155" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="I155" s="46"/>
-      <c r="J155" s="46"/>
-      <c r="K155" s="47"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
+      <c r="K155" s="43"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
@@ -4376,12 +4466,12 @@
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
       <c r="D157" s="31"/>
-      <c r="H157" s="45" t="s">
+      <c r="H157" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="I157" s="46"/>
-      <c r="J157" s="46"/>
-      <c r="K157" s="47"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="42"/>
+      <c r="K157" s="43"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
@@ -4594,34 +4684,34 @@
       <c r="L166" s="10"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="41" t="s">
+      <c r="A168" s="44" t="s">
         <v>87</v>
       </c>
       <c r="B168" s="35"/>
       <c r="C168" s="35"/>
       <c r="D168" s="35"/>
-      <c r="E168" s="43"/>
-      <c r="G168" s="43"/>
-      <c r="H168" s="41" t="s">
+      <c r="E168" s="46"/>
+      <c r="G168" s="46"/>
+      <c r="H168" s="44" t="s">
         <v>88</v>
       </c>
       <c r="I168" s="35"/>
       <c r="J168" s="35"/>
       <c r="K168" s="35"/>
-      <c r="L168" s="43"/>
+      <c r="L168" s="46"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="42"/>
+      <c r="A169" s="45"/>
       <c r="B169" s="36"/>
       <c r="C169" s="36"/>
       <c r="D169" s="36"/>
-      <c r="E169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="42"/>
+      <c r="E169" s="47"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="45"/>
       <c r="I169" s="36"/>
       <c r="J169" s="36"/>
       <c r="K169" s="36"/>
-      <c r="L169" s="44"/>
+      <c r="L169" s="47"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
@@ -4716,18 +4806,18 @@
       <c r="K175" s="30"/>
     </row>
     <row r="176" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="45" t="s">
+      <c r="A176" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B176" s="46"/>
-      <c r="C176" s="46"/>
-      <c r="D176" s="47"/>
-      <c r="H176" s="45" t="s">
+      <c r="B176" s="42"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="43"/>
+      <c r="H176" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="I176" s="46"/>
-      <c r="J176" s="46"/>
-      <c r="K176" s="47"/>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="43"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="30" t="s">
@@ -4968,14 +5058,14 @@
       <c r="L187" s="10"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="41" t="s">
+      <c r="A189" s="44" t="s">
         <v>89</v>
       </c>
       <c r="B189" s="35"/>
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
-      <c r="E189" s="43"/>
-      <c r="F189" s="53"/>
+      <c r="E189" s="46"/>
+      <c r="F189" s="61"/>
       <c r="G189" s="33"/>
       <c r="H189" s="35" t="s">
         <v>90</v>
@@ -4983,21 +5073,21 @@
       <c r="I189" s="35"/>
       <c r="J189" s="35"/>
       <c r="K189" s="35"/>
-      <c r="L189" s="43"/>
+      <c r="L189" s="46"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="42"/>
+      <c r="A190" s="45"/>
       <c r="B190" s="36"/>
       <c r="C190" s="36"/>
       <c r="D190" s="36"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="53"/>
+      <c r="E190" s="47"/>
+      <c r="F190" s="61"/>
       <c r="G190" s="34"/>
       <c r="H190" s="36"/>
       <c r="I190" s="36"/>
       <c r="J190" s="36"/>
       <c r="K190" s="36"/>
-      <c r="L190" s="44"/>
+      <c r="L190" s="47"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="37" t="s">
@@ -5344,14 +5434,14 @@
       <c r="L208" s="10"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="41" t="s">
+      <c r="A210" s="44" t="s">
         <v>91</v>
       </c>
       <c r="B210" s="35"/>
       <c r="C210" s="35"/>
       <c r="D210" s="35"/>
-      <c r="E210" s="43"/>
-      <c r="F210" s="53"/>
+      <c r="E210" s="46"/>
+      <c r="F210" s="61"/>
       <c r="G210" s="33"/>
       <c r="H210" s="35" t="s">
         <v>92</v>
@@ -5359,21 +5449,21 @@
       <c r="I210" s="35"/>
       <c r="J210" s="35"/>
       <c r="K210" s="35"/>
-      <c r="L210" s="43"/>
+      <c r="L210" s="46"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="42"/>
+      <c r="A211" s="45"/>
       <c r="B211" s="36"/>
       <c r="C211" s="36"/>
       <c r="D211" s="36"/>
-      <c r="E211" s="44"/>
-      <c r="F211" s="53"/>
+      <c r="E211" s="47"/>
+      <c r="F211" s="61"/>
       <c r="G211" s="34"/>
       <c r="H211" s="36"/>
       <c r="I211" s="36"/>
       <c r="J211" s="36"/>
       <c r="K211" s="36"/>
-      <c r="L211" s="44"/>
+      <c r="L211" s="47"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="37" t="s">
@@ -5468,18 +5558,18 @@
       <c r="K217" s="30"/>
     </row>
     <row r="218" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="45" t="s">
+      <c r="A218" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B218" s="46"/>
-      <c r="C218" s="46"/>
-      <c r="D218" s="47"/>
-      <c r="H218" s="45" t="s">
+      <c r="B218" s="42"/>
+      <c r="C218" s="42"/>
+      <c r="D218" s="43"/>
+      <c r="H218" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="I218" s="46"/>
-      <c r="J218" s="46"/>
-      <c r="K218" s="47"/>
+      <c r="I218" s="42"/>
+      <c r="J218" s="42"/>
+      <c r="K218" s="43"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="30" t="s">
@@ -5720,14 +5810,14 @@
       <c r="L229" s="10"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="41" t="s">
+      <c r="A231" s="44" t="s">
         <v>105</v>
       </c>
       <c r="B231" s="35"/>
       <c r="C231" s="35"/>
       <c r="D231" s="35"/>
-      <c r="E231" s="43"/>
-      <c r="H231" s="41" t="s">
+      <c r="E231" s="46"/>
+      <c r="H231" s="44" t="s">
         <v>106</v>
       </c>
       <c r="I231" s="35"/>
@@ -5735,12 +5825,12 @@
       <c r="K231" s="35"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="42"/>
+      <c r="A232" s="45"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
       <c r="D232" s="36"/>
-      <c r="E232" s="44"/>
-      <c r="H232" s="42"/>
+      <c r="E232" s="47"/>
+      <c r="H232" s="45"/>
       <c r="I232" s="36"/>
       <c r="J232" s="36"/>
       <c r="K232" s="36"/>
@@ -5835,18 +5925,18 @@
       <c r="K238" s="30"/>
     </row>
     <row r="239" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="45" t="s">
+      <c r="A239" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B239" s="46"/>
-      <c r="C239" s="46"/>
-      <c r="D239" s="47"/>
-      <c r="H239" s="45" t="s">
+      <c r="B239" s="42"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="43"/>
+      <c r="H239" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="I239" s="46"/>
-      <c r="J239" s="46"/>
-      <c r="K239" s="47"/>
+      <c r="I239" s="42"/>
+      <c r="J239" s="42"/>
+      <c r="K239" s="43"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="30" t="s">
@@ -5863,18 +5953,18 @@
       <c r="K240" s="30"/>
     </row>
     <row r="241" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="45" t="s">
+      <c r="A241" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B241" s="46"/>
-      <c r="C241" s="46"/>
-      <c r="D241" s="47"/>
-      <c r="H241" s="45" t="s">
+      <c r="B241" s="42"/>
+      <c r="C241" s="42"/>
+      <c r="D241" s="43"/>
+      <c r="H241" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="I241" s="46"/>
-      <c r="J241" s="46"/>
-      <c r="K241" s="47"/>
+      <c r="I241" s="42"/>
+      <c r="J241" s="42"/>
+      <c r="K241" s="43"/>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
@@ -6086,14 +6176,14 @@
       <c r="K250" s="31"/>
     </row>
     <row r="253" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="41" t="s">
+      <c r="A253" s="44" t="s">
         <v>167</v>
       </c>
       <c r="B253" s="35"/>
       <c r="C253" s="35"/>
       <c r="D253" s="35"/>
-      <c r="E253" s="43"/>
-      <c r="F253" s="53"/>
+      <c r="E253" s="46"/>
+      <c r="F253" s="61"/>
       <c r="G253" s="33"/>
       <c r="H253" s="35" t="s">
         <v>168</v>
@@ -6103,12 +6193,12 @@
       <c r="K253" s="35"/>
     </row>
     <row r="254" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="42"/>
+      <c r="A254" s="45"/>
       <c r="B254" s="36"/>
       <c r="C254" s="36"/>
       <c r="D254" s="36"/>
-      <c r="E254" s="44"/>
-      <c r="F254" s="53"/>
+      <c r="E254" s="47"/>
+      <c r="F254" s="61"/>
       <c r="G254" s="34"/>
       <c r="H254" s="36"/>
       <c r="I254" s="36"/>
@@ -6205,18 +6295,18 @@
       <c r="K260" s="30"/>
     </row>
     <row r="261" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="45" t="s">
+      <c r="A261" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="B261" s="46"/>
-      <c r="C261" s="46"/>
-      <c r="D261" s="47"/>
-      <c r="H261" s="45" t="s">
+      <c r="B261" s="42"/>
+      <c r="C261" s="42"/>
+      <c r="D261" s="43"/>
+      <c r="H261" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="I261" s="46"/>
-      <c r="J261" s="46"/>
-      <c r="K261" s="47"/>
+      <c r="I261" s="42"/>
+      <c r="J261" s="42"/>
+      <c r="K261" s="43"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="30" t="s">
@@ -6233,18 +6323,18 @@
       <c r="K262" s="30"/>
     </row>
     <row r="263" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="45" t="s">
+      <c r="A263" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B263" s="46"/>
-      <c r="C263" s="46"/>
-      <c r="D263" s="47"/>
-      <c r="H263" s="45" t="s">
+      <c r="B263" s="42"/>
+      <c r="C263" s="42"/>
+      <c r="D263" s="43"/>
+      <c r="H263" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="I263" s="46"/>
-      <c r="J263" s="46"/>
-      <c r="K263" s="47"/>
+      <c r="I263" s="42"/>
+      <c r="J263" s="42"/>
+      <c r="K263" s="43"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
@@ -6455,14 +6545,14 @@
       <c r="K272" s="31"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A274" s="41" t="s">
+      <c r="A274" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B274" s="35"/>
       <c r="C274" s="35"/>
       <c r="D274" s="35"/>
-      <c r="E274" s="43"/>
-      <c r="F274" s="53"/>
+      <c r="E274" s="46"/>
+      <c r="F274" s="61"/>
       <c r="G274" s="33"/>
       <c r="H274" s="35" t="s">
         <v>170</v>
@@ -6472,12 +6562,12 @@
       <c r="K274" s="35"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A275" s="42"/>
+      <c r="A275" s="45"/>
       <c r="B275" s="36"/>
       <c r="C275" s="36"/>
       <c r="D275" s="36"/>
-      <c r="E275" s="44"/>
-      <c r="F275" s="53"/>
+      <c r="E275" s="47"/>
+      <c r="F275" s="61"/>
       <c r="G275" s="34"/>
       <c r="H275" s="36"/>
       <c r="I275" s="36"/>
@@ -6580,12 +6670,12 @@
       <c r="B282" s="31"/>
       <c r="C282" s="31"/>
       <c r="D282" s="31"/>
-      <c r="H282" s="45" t="s">
+      <c r="H282" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="I282" s="46"/>
-      <c r="J282" s="46"/>
-      <c r="K282" s="47"/>
+      <c r="I282" s="42"/>
+      <c r="J282" s="42"/>
+      <c r="K282" s="43"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="30" t="s">
@@ -6602,18 +6692,18 @@
       <c r="K283" s="30"/>
     </row>
     <row r="284" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="45" t="s">
+      <c r="A284" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B284" s="46"/>
-      <c r="C284" s="46"/>
-      <c r="D284" s="47"/>
-      <c r="H284" s="45" t="s">
+      <c r="B284" s="42"/>
+      <c r="C284" s="42"/>
+      <c r="D284" s="43"/>
+      <c r="H284" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="I284" s="46"/>
-      <c r="J284" s="46"/>
-      <c r="K284" s="47"/>
+      <c r="I284" s="42"/>
+      <c r="J284" s="42"/>
+      <c r="K284" s="43"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
@@ -6825,13 +6915,13 @@
       <c r="K293" s="31"/>
     </row>
     <row r="295" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="41" t="s">
+      <c r="A295" s="44" t="s">
         <v>171</v>
       </c>
       <c r="B295" s="35"/>
       <c r="C295" s="35"/>
       <c r="D295" s="35"/>
-      <c r="E295" s="43"/>
+      <c r="E295" s="46"/>
       <c r="G295" s="33"/>
       <c r="H295" s="35" t="s">
         <v>172</v>
@@ -6841,11 +6931,11 @@
       <c r="K295" s="35"/>
     </row>
     <row r="296" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="42"/>
+      <c r="A296" s="45"/>
       <c r="B296" s="36"/>
       <c r="C296" s="36"/>
       <c r="D296" s="36"/>
-      <c r="E296" s="44"/>
+      <c r="E296" s="47"/>
       <c r="G296" s="34"/>
       <c r="H296" s="36"/>
       <c r="I296" s="36"/>
@@ -6942,18 +7032,18 @@
       <c r="K302" s="30"/>
     </row>
     <row r="303" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="45" t="s">
+      <c r="A303" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B303" s="46"/>
-      <c r="C303" s="46"/>
-      <c r="D303" s="47"/>
-      <c r="H303" s="45" t="s">
+      <c r="B303" s="42"/>
+      <c r="C303" s="42"/>
+      <c r="D303" s="43"/>
+      <c r="H303" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="I303" s="46"/>
-      <c r="J303" s="46"/>
-      <c r="K303" s="47"/>
+      <c r="I303" s="42"/>
+      <c r="J303" s="42"/>
+      <c r="K303" s="43"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="30" t="s">
@@ -6976,12 +7066,12 @@
       <c r="B305" s="31"/>
       <c r="C305" s="31"/>
       <c r="D305" s="31"/>
-      <c r="H305" s="45" t="s">
+      <c r="H305" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="I305" s="46"/>
-      <c r="J305" s="46"/>
-      <c r="K305" s="47"/>
+      <c r="I305" s="42"/>
+      <c r="J305" s="42"/>
+      <c r="K305" s="43"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
@@ -7140,12 +7230,12 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="58" t="s">
+      <c r="A312" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B312" s="59"/>
-      <c r="C312" s="59"/>
-      <c r="D312" s="60"/>
+      <c r="B312" s="54"/>
+      <c r="C312" s="54"/>
+      <c r="D312" s="55"/>
       <c r="H312" s="30" t="s">
         <v>10</v>
       </c>
@@ -7192,13 +7282,13 @@
       <c r="K314" s="31"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="41" t="s">
+      <c r="A316" s="44" t="s">
         <v>173</v>
       </c>
       <c r="B316" s="35"/>
       <c r="C316" s="35"/>
       <c r="D316" s="35"/>
-      <c r="E316" s="43"/>
+      <c r="E316" s="46"/>
       <c r="G316" s="33"/>
       <c r="H316" s="35" t="s">
         <v>174</v>
@@ -7208,11 +7298,11 @@
       <c r="K316" s="35"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="42"/>
+      <c r="A317" s="45"/>
       <c r="B317" s="36"/>
       <c r="C317" s="36"/>
       <c r="D317" s="36"/>
-      <c r="E317" s="44"/>
+      <c r="E317" s="47"/>
       <c r="G317" s="34"/>
       <c r="H317" s="36"/>
       <c r="I317" s="36"/>
@@ -7295,12 +7385,12 @@
       <c r="K322" s="40"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="61" t="s">
+      <c r="A323" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B323" s="61"/>
-      <c r="C323" s="61"/>
-      <c r="D323" s="61"/>
+      <c r="B323" s="50"/>
+      <c r="C323" s="50"/>
+      <c r="D323" s="50"/>
       <c r="H323" s="30" t="s">
         <v>5</v>
       </c>
@@ -7309,26 +7399,26 @@
       <c r="K323" s="30"/>
     </row>
     <row r="324" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="56" t="s">
+      <c r="A324" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="B324" s="56"/>
-      <c r="C324" s="56"/>
-      <c r="D324" s="57"/>
-      <c r="H324" s="45" t="s">
+      <c r="B324" s="48"/>
+      <c r="C324" s="48"/>
+      <c r="D324" s="49"/>
+      <c r="H324" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="I324" s="46"/>
-      <c r="J324" s="46"/>
-      <c r="K324" s="47"/>
+      <c r="I324" s="42"/>
+      <c r="J324" s="42"/>
+      <c r="K324" s="43"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="54" t="s">
+      <c r="A325" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B325" s="54"/>
-      <c r="C325" s="54"/>
-      <c r="D325" s="54"/>
+      <c r="B325" s="51"/>
+      <c r="C325" s="51"/>
+      <c r="D325" s="51"/>
       <c r="H325" s="30" t="s">
         <v>2</v>
       </c>
@@ -7337,18 +7427,18 @@
       <c r="K325" s="30"/>
     </row>
     <row r="326" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="55" t="s">
+      <c r="A326" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="B326" s="56"/>
-      <c r="C326" s="56"/>
-      <c r="D326" s="57"/>
-      <c r="H326" s="45" t="s">
+      <c r="B326" s="48"/>
+      <c r="C326" s="48"/>
+      <c r="D326" s="49"/>
+      <c r="H326" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="I326" s="46"/>
-      <c r="J326" s="46"/>
-      <c r="K326" s="47"/>
+      <c r="I326" s="42"/>
+      <c r="J326" s="42"/>
+      <c r="K326" s="43"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
@@ -7557,13 +7647,13 @@
       <c r="K335" s="31"/>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A338" s="41" t="s">
+      <c r="A338" s="44" t="s">
         <v>223</v>
       </c>
       <c r="B338" s="35"/>
       <c r="C338" s="35"/>
       <c r="D338" s="35"/>
-      <c r="E338" s="43"/>
+      <c r="E338" s="46"/>
       <c r="G338" s="33"/>
       <c r="H338" s="35" t="s">
         <v>224</v>
@@ -7573,11 +7663,11 @@
       <c r="K338" s="35"/>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A339" s="42"/>
+      <c r="A339" s="45"/>
       <c r="B339" s="36"/>
       <c r="C339" s="36"/>
       <c r="D339" s="36"/>
-      <c r="E339" s="44"/>
+      <c r="E339" s="47"/>
       <c r="G339" s="34"/>
       <c r="H339" s="36"/>
       <c r="I339" s="36"/>
@@ -7674,18 +7764,18 @@
       <c r="K345" s="30"/>
     </row>
     <row r="346" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="45" t="s">
+      <c r="A346" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="B346" s="46"/>
-      <c r="C346" s="46"/>
-      <c r="D346" s="47"/>
-      <c r="H346" s="45" t="s">
+      <c r="B346" s="42"/>
+      <c r="C346" s="42"/>
+      <c r="D346" s="43"/>
+      <c r="H346" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I346" s="46"/>
-      <c r="J346" s="46"/>
-      <c r="K346" s="47"/>
+      <c r="I346" s="42"/>
+      <c r="J346" s="42"/>
+      <c r="K346" s="43"/>
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="30" t="s">
@@ -7702,18 +7792,18 @@
       <c r="K347" s="30"/>
     </row>
     <row r="348" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="45" t="s">
+      <c r="A348" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B348" s="46"/>
-      <c r="C348" s="46"/>
-      <c r="D348" s="47"/>
-      <c r="H348" s="45" t="s">
+      <c r="B348" s="42"/>
+      <c r="C348" s="42"/>
+      <c r="D348" s="43"/>
+      <c r="H348" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="I348" s="46"/>
-      <c r="J348" s="46"/>
-      <c r="K348" s="47"/>
+      <c r="I348" s="42"/>
+      <c r="J348" s="42"/>
+      <c r="K348" s="43"/>
       <c r="S348" s="23"/>
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.25">
@@ -7925,13 +8015,13 @@
       <c r="K357" s="31"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="41" t="s">
+      <c r="A360" s="44" t="s">
         <v>232</v>
       </c>
       <c r="B360" s="35"/>
       <c r="C360" s="35"/>
       <c r="D360" s="35"/>
-      <c r="E360" s="43"/>
+      <c r="E360" s="46"/>
       <c r="G360" s="33"/>
       <c r="H360" s="35" t="s">
         <v>233</v>
@@ -7941,11 +8031,11 @@
       <c r="K360" s="35"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="42"/>
+      <c r="A361" s="45"/>
       <c r="B361" s="36"/>
       <c r="C361" s="36"/>
       <c r="D361" s="36"/>
-      <c r="E361" s="44"/>
+      <c r="E361" s="47"/>
       <c r="G361" s="34"/>
       <c r="H361" s="36"/>
       <c r="I361" s="36"/>
@@ -8042,18 +8132,18 @@
       <c r="K367" s="30"/>
     </row>
     <row r="368" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="45" t="s">
+      <c r="A368" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="B368" s="46"/>
-      <c r="C368" s="46"/>
-      <c r="D368" s="47"/>
-      <c r="H368" s="45" t="s">
+      <c r="B368" s="42"/>
+      <c r="C368" s="42"/>
+      <c r="D368" s="43"/>
+      <c r="H368" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="I368" s="46"/>
-      <c r="J368" s="46"/>
-      <c r="K368" s="47"/>
+      <c r="I368" s="42"/>
+      <c r="J368" s="42"/>
+      <c r="K368" s="43"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="30" t="s">
@@ -8070,18 +8160,18 @@
       <c r="K369" s="30"/>
     </row>
     <row r="370" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="45" t="s">
+      <c r="A370" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B370" s="46"/>
-      <c r="C370" s="46"/>
-      <c r="D370" s="47"/>
-      <c r="H370" s="45" t="s">
+      <c r="B370" s="42"/>
+      <c r="C370" s="42"/>
+      <c r="D370" s="43"/>
+      <c r="H370" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="I370" s="46"/>
-      <c r="J370" s="46"/>
-      <c r="K370" s="47"/>
+      <c r="I370" s="42"/>
+      <c r="J370" s="42"/>
+      <c r="K370" s="43"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="26" t="s">
@@ -8292,13 +8382,13 @@
       <c r="K379" s="31"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="41" t="s">
+      <c r="A381" s="44" t="s">
         <v>234</v>
       </c>
       <c r="B381" s="35"/>
       <c r="C381" s="35"/>
       <c r="D381" s="35"/>
-      <c r="E381" s="43"/>
+      <c r="E381" s="46"/>
       <c r="G381" s="33"/>
       <c r="H381" s="35" t="s">
         <v>235</v>
@@ -8308,11 +8398,11 @@
       <c r="K381" s="35"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="42"/>
+      <c r="A382" s="45"/>
       <c r="B382" s="36"/>
       <c r="C382" s="36"/>
       <c r="D382" s="36"/>
-      <c r="E382" s="44"/>
+      <c r="E382" s="47"/>
       <c r="G382" s="34"/>
       <c r="H382" s="36"/>
       <c r="I382" s="36"/>
@@ -8435,12 +8525,12 @@
       <c r="K390" s="30"/>
     </row>
     <row r="391" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="45" t="s">
+      <c r="A391" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B391" s="46"/>
-      <c r="C391" s="46"/>
-      <c r="D391" s="47"/>
+      <c r="B391" s="42"/>
+      <c r="C391" s="42"/>
+      <c r="D391" s="43"/>
       <c r="H391" s="31"/>
       <c r="I391" s="31"/>
       <c r="J391" s="31"/>
@@ -8625,13 +8715,13 @@
       <c r="K400" s="31"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="41" t="s">
+      <c r="A403" s="44" t="s">
         <v>261</v>
       </c>
       <c r="B403" s="35"/>
       <c r="C403" s="35"/>
       <c r="D403" s="35"/>
-      <c r="E403" s="43"/>
+      <c r="E403" s="46"/>
       <c r="G403" s="33"/>
       <c r="H403" s="35" t="s">
         <v>262</v>
@@ -8641,11 +8731,11 @@
       <c r="K403" s="35"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="42"/>
+      <c r="A404" s="45"/>
       <c r="B404" s="36"/>
       <c r="C404" s="36"/>
       <c r="D404" s="36"/>
-      <c r="E404" s="44"/>
+      <c r="E404" s="47"/>
       <c r="G404" s="34"/>
       <c r="H404" s="36"/>
       <c r="I404" s="36"/>
@@ -8740,12 +8830,12 @@
       <c r="K410" s="30"/>
     </row>
     <row r="411" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="45" t="s">
+      <c r="A411" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="B411" s="46"/>
-      <c r="C411" s="46"/>
-      <c r="D411" s="47"/>
+      <c r="B411" s="42"/>
+      <c r="C411" s="42"/>
+      <c r="D411" s="43"/>
       <c r="H411" s="31"/>
       <c r="I411" s="31"/>
       <c r="J411" s="31"/>
@@ -8926,13 +9016,13 @@
       <c r="K422" s="31"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="41" t="s">
+      <c r="A425" s="44" t="s">
         <v>261</v>
       </c>
       <c r="B425" s="35"/>
       <c r="C425" s="35"/>
       <c r="D425" s="35"/>
-      <c r="E425" s="43"/>
+      <c r="E425" s="46"/>
       <c r="G425" s="33"/>
       <c r="H425" s="35" t="s">
         <v>262</v>
@@ -8942,11 +9032,11 @@
       <c r="K425" s="35"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="42"/>
+      <c r="A426" s="45"/>
       <c r="B426" s="36"/>
       <c r="C426" s="36"/>
       <c r="D426" s="36"/>
-      <c r="E426" s="44"/>
+      <c r="E426" s="47"/>
       <c r="G426" s="34"/>
       <c r="H426" s="36"/>
       <c r="I426" s="36"/>
@@ -9043,18 +9133,18 @@
       <c r="K432" s="30"/>
     </row>
     <row r="433" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="45" t="s">
+      <c r="A433" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="B433" s="46"/>
-      <c r="C433" s="46"/>
-      <c r="D433" s="47"/>
-      <c r="H433" s="45" t="s">
+      <c r="B433" s="42"/>
+      <c r="C433" s="42"/>
+      <c r="D433" s="43"/>
+      <c r="H433" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="I433" s="46"/>
-      <c r="J433" s="46"/>
-      <c r="K433" s="47"/>
+      <c r="I433" s="42"/>
+      <c r="J433" s="42"/>
+      <c r="K433" s="43"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="30" t="s">
@@ -9071,18 +9161,18 @@
       <c r="K434" s="30"/>
     </row>
     <row r="435" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="45" t="s">
+      <c r="A435" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="B435" s="46"/>
-      <c r="C435" s="46"/>
-      <c r="D435" s="47"/>
-      <c r="H435" s="45" t="s">
+      <c r="B435" s="42"/>
+      <c r="C435" s="42"/>
+      <c r="D435" s="43"/>
+      <c r="H435" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="I435" s="46"/>
-      <c r="J435" s="46"/>
-      <c r="K435" s="47"/>
+      <c r="I435" s="42"/>
+      <c r="J435" s="42"/>
+      <c r="K435" s="43"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="28" t="s">
@@ -9293,13 +9383,13 @@
       <c r="K444" s="31"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="41" t="s">
+      <c r="A447" s="44" t="s">
         <v>282</v>
       </c>
       <c r="B447" s="35"/>
       <c r="C447" s="35"/>
       <c r="D447" s="35"/>
-      <c r="E447" s="43"/>
+      <c r="E447" s="46"/>
       <c r="G447" s="33"/>
       <c r="H447" s="35" t="s">
         <v>283</v>
@@ -9309,11 +9399,11 @@
       <c r="K447" s="35"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="42"/>
+      <c r="A448" s="45"/>
       <c r="B448" s="36"/>
       <c r="C448" s="36"/>
       <c r="D448" s="36"/>
-      <c r="E448" s="44"/>
+      <c r="E448" s="47"/>
       <c r="G448" s="34"/>
       <c r="H448" s="36"/>
       <c r="I448" s="36"/>
@@ -9410,12 +9500,12 @@
       <c r="K454" s="30"/>
     </row>
     <row r="455" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H455" s="45" t="s">
+      <c r="H455" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="I455" s="46"/>
-      <c r="J455" s="46"/>
-      <c r="K455" s="47"/>
+      <c r="I455" s="42"/>
+      <c r="J455" s="42"/>
+      <c r="K455" s="43"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="30" t="s">
@@ -9432,12 +9522,12 @@
       <c r="K456" s="30"/>
     </row>
     <row r="457" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H457" s="45" t="s">
+      <c r="H457" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="I457" s="46"/>
-      <c r="J457" s="46"/>
-      <c r="K457" s="47"/>
+      <c r="I457" s="42"/>
+      <c r="J457" s="42"/>
+      <c r="K457" s="43"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="28" t="s">
@@ -9618,13 +9708,13 @@
       <c r="K466" s="31"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="41" t="s">
+      <c r="A469" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B469" s="35"/>
       <c r="C469" s="35"/>
       <c r="D469" s="35"/>
-      <c r="E469" s="43"/>
+      <c r="E469" s="46"/>
       <c r="G469" s="33"/>
       <c r="H469" s="35" t="s">
         <v>295</v>
@@ -9634,11 +9724,11 @@
       <c r="K469" s="35"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="42"/>
+      <c r="A470" s="45"/>
       <c r="B470" s="36"/>
       <c r="C470" s="36"/>
       <c r="D470" s="36"/>
-      <c r="E470" s="44"/>
+      <c r="E470" s="47"/>
       <c r="G470" s="34"/>
       <c r="H470" s="36"/>
       <c r="I470" s="36"/>
@@ -9689,7 +9779,7 @@
       </c>
       <c r="B474" s="38"/>
       <c r="C474" s="39" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="D474" s="40"/>
       <c r="E474" s="9"/>
@@ -9698,7 +9788,7 @@
       </c>
       <c r="I474" s="38"/>
       <c r="J474" s="39" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K474" s="40"/>
     </row>
@@ -9708,7 +9798,7 @@
       </c>
       <c r="B475" s="38"/>
       <c r="C475" s="39" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="D475" s="40"/>
       <c r="H475" s="37" t="s">
@@ -9716,7 +9806,7 @@
       </c>
       <c r="I475" s="38"/>
       <c r="J475" s="39" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="K475" s="40"/>
     </row>
@@ -9735,14 +9825,18 @@
       <c r="K476" s="30"/>
     </row>
     <row r="477" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="45"/>
-      <c r="B477" s="46"/>
-      <c r="C477" s="46"/>
-      <c r="D477" s="47"/>
-      <c r="H477" s="45"/>
-      <c r="I477" s="46"/>
-      <c r="J477" s="46"/>
-      <c r="K477" s="47"/>
+      <c r="A477" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B477" s="42"/>
+      <c r="C477" s="42"/>
+      <c r="D477" s="43"/>
+      <c r="H477" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I477" s="42"/>
+      <c r="J477" s="42"/>
+      <c r="K477" s="43"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="30" t="s">
@@ -9758,15 +9852,19 @@
       <c r="J478" s="30"/>
       <c r="K478" s="30"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="31"/>
-      <c r="B479" s="31"/>
-      <c r="C479" s="31"/>
-      <c r="D479" s="31"/>
-      <c r="H479" s="31"/>
-      <c r="I479" s="31"/>
-      <c r="J479" s="31"/>
-      <c r="K479" s="31"/>
+    <row r="479" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B479" s="42"/>
+      <c r="C479" s="42"/>
+      <c r="D479" s="43"/>
+      <c r="H479" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="I479" s="42"/>
+      <c r="J479" s="42"/>
+      <c r="K479" s="43"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="28" t="s">
@@ -9794,75 +9892,135 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A481" s="29">
         <v>1</v>
       </c>
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
+      <c r="B481" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H481" s="29">
         <v>1</v>
       </c>
-      <c r="I481" s="2"/>
-      <c r="J481" s="2"/>
-      <c r="K481" s="2"/>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I481" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="J481" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K481" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A482" s="29">
         <v>2</v>
       </c>
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
+      <c r="B482" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H482" s="29">
         <v>2</v>
       </c>
-      <c r="I482" s="2"/>
-      <c r="J482" s="2"/>
-      <c r="K482" s="2"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I482" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J482" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K482" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A483" s="29">
         <v>3</v>
       </c>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
+      <c r="B483" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H483" s="29">
         <v>3</v>
       </c>
-      <c r="I483" s="2"/>
-      <c r="J483" s="2"/>
-      <c r="K483" s="2"/>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I483" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="J483" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="K483" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="29">
         <v>4</v>
       </c>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
+      <c r="B484" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C484" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D484" s="18" t="s">
+        <v>317</v>
+      </c>
       <c r="H484" s="29">
         <v>4</v>
       </c>
-      <c r="I484" s="2"/>
-      <c r="J484" s="2"/>
-      <c r="K484" s="2"/>
+      <c r="I484" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J484" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="K484" s="18" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="29">
         <v>5</v>
       </c>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
+      <c r="B485" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H485" s="29">
         <v>5</v>
       </c>
-      <c r="I485" s="2"/>
-      <c r="J485" s="2"/>
-      <c r="K485" s="2"/>
+      <c r="I485" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J485" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K485" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="30" t="s">
@@ -9917,13 +10075,13 @@
       <c r="K488" s="31"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="41" t="s">
+      <c r="A492" s="44" t="s">
         <v>296</v>
       </c>
       <c r="B492" s="35"/>
       <c r="C492" s="35"/>
       <c r="D492" s="35"/>
-      <c r="E492" s="43"/>
+      <c r="E492" s="46"/>
       <c r="G492" s="33"/>
       <c r="H492" s="35" t="s">
         <v>297</v>
@@ -9933,11 +10091,11 @@
       <c r="K492" s="35"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="42"/>
+      <c r="A493" s="45"/>
       <c r="B493" s="36"/>
       <c r="C493" s="36"/>
       <c r="D493" s="36"/>
-      <c r="E493" s="44"/>
+      <c r="E493" s="47"/>
       <c r="G493" s="34"/>
       <c r="H493" s="36"/>
       <c r="I493" s="36"/>
@@ -9988,7 +10146,7 @@
       </c>
       <c r="B497" s="38"/>
       <c r="C497" s="39" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="D497" s="40"/>
       <c r="E497" s="9"/>
@@ -9997,7 +10155,7 @@
       </c>
       <c r="I497" s="38"/>
       <c r="J497" s="39" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="K497" s="40"/>
     </row>
@@ -10033,11 +10191,13 @@
       <c r="J499" s="30"/>
       <c r="K499" s="30"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="45"/>
-      <c r="B500" s="46"/>
-      <c r="C500" s="46"/>
-      <c r="D500" s="47"/>
+    <row r="500" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B500" s="42"/>
+      <c r="C500" s="42"/>
+      <c r="D500" s="43"/>
       <c r="H500" s="31"/>
       <c r="I500" s="31"/>
       <c r="J500" s="31"/>
@@ -10057,11 +10217,13 @@
       <c r="J501" s="30"/>
       <c r="K501" s="30"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="31"/>
-      <c r="B502" s="31"/>
-      <c r="C502" s="31"/>
-      <c r="D502" s="31"/>
+    <row r="502" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="B502" s="42"/>
+      <c r="C502" s="42"/>
+      <c r="D502" s="43"/>
       <c r="H502" s="31"/>
       <c r="I502" s="31"/>
       <c r="J502" s="31"/>
@@ -10093,13 +10255,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A504" s="29">
         <v>1</v>
       </c>
-      <c r="B504" s="2"/>
-      <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
+      <c r="B504" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C504" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D504" s="18" t="s">
+        <v>334</v>
+      </c>
       <c r="H504" s="29">
         <v>1</v>
       </c>
@@ -10107,13 +10275,19 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="29">
         <v>2</v>
       </c>
-      <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
+      <c r="B505" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H505" s="29">
         <v>2</v>
       </c>
@@ -10121,13 +10295,19 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="29">
         <v>3</v>
       </c>
-      <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
+      <c r="B506" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C506" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D506" s="18" t="s">
+        <v>337</v>
+      </c>
       <c r="H506" s="29">
         <v>3</v>
       </c>
@@ -10139,9 +10319,15 @@
       <c r="A507" s="29">
         <v>4</v>
       </c>
-      <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
+      <c r="B507" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H507" s="29">
         <v>4</v>
       </c>
@@ -10153,9 +10339,15 @@
       <c r="A508" s="29">
         <v>5</v>
       </c>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
+      <c r="B508" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H508" s="29">
         <v>5</v>
       </c>
@@ -10216,13 +10408,13 @@
       <c r="K511" s="31"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="41" t="s">
+      <c r="A516" s="44" t="s">
         <v>298</v>
       </c>
       <c r="B516" s="35"/>
       <c r="C516" s="35"/>
       <c r="D516" s="35"/>
-      <c r="E516" s="43"/>
+      <c r="E516" s="46"/>
       <c r="G516" s="33"/>
       <c r="H516" s="35" t="s">
         <v>299</v>
@@ -10232,11 +10424,11 @@
       <c r="K516" s="35"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" s="42"/>
+      <c r="A517" s="45"/>
       <c r="B517" s="36"/>
       <c r="C517" s="36"/>
       <c r="D517" s="36"/>
-      <c r="E517" s="44"/>
+      <c r="E517" s="47"/>
       <c r="G517" s="34"/>
       <c r="H517" s="36"/>
       <c r="I517" s="36"/>
@@ -10333,10 +10525,10 @@
       <c r="K523" s="30"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="45"/>
-      <c r="B524" s="46"/>
-      <c r="C524" s="46"/>
-      <c r="D524" s="47"/>
+      <c r="A524" s="41"/>
+      <c r="B524" s="42"/>
+      <c r="C524" s="42"/>
+      <c r="D524" s="43"/>
       <c r="H524" s="31"/>
       <c r="I524" s="31"/>
       <c r="J524" s="31"/>
@@ -10515,13 +10707,13 @@
       <c r="K535" s="31"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="41" t="s">
+      <c r="A538" s="44" t="s">
         <v>300</v>
       </c>
       <c r="B538" s="35"/>
       <c r="C538" s="35"/>
       <c r="D538" s="35"/>
-      <c r="E538" s="43"/>
+      <c r="E538" s="46"/>
       <c r="G538" s="33"/>
       <c r="H538" s="35" t="s">
         <v>301</v>
@@ -10531,11 +10723,11 @@
       <c r="K538" s="35"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="42"/>
+      <c r="A539" s="45"/>
       <c r="B539" s="36"/>
       <c r="C539" s="36"/>
       <c r="D539" s="36"/>
-      <c r="E539" s="44"/>
+      <c r="E539" s="47"/>
       <c r="G539" s="34"/>
       <c r="H539" s="36"/>
       <c r="I539" s="36"/>
@@ -10632,10 +10824,10 @@
       <c r="K545" s="30"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="45"/>
-      <c r="B546" s="46"/>
-      <c r="C546" s="46"/>
-      <c r="D546" s="47"/>
+      <c r="A546" s="41"/>
+      <c r="B546" s="42"/>
+      <c r="C546" s="42"/>
+      <c r="D546" s="43"/>
       <c r="H546" s="31"/>
       <c r="I546" s="31"/>
       <c r="J546" s="31"/>
@@ -10815,402 +11007,576 @@
     </row>
   </sheetData>
   <mergeCells count="990">
-    <mergeCell ref="H545:K545"/>
-    <mergeCell ref="H546:K546"/>
-    <mergeCell ref="H547:K547"/>
-    <mergeCell ref="H548:K548"/>
-    <mergeCell ref="H555:K555"/>
-    <mergeCell ref="H556:I556"/>
-    <mergeCell ref="J556:K556"/>
-    <mergeCell ref="H557:I557"/>
-    <mergeCell ref="J557:K557"/>
-    <mergeCell ref="G538:G539"/>
-    <mergeCell ref="H538:K539"/>
-    <mergeCell ref="H541:I541"/>
-    <mergeCell ref="J541:K541"/>
-    <mergeCell ref="H542:I542"/>
-    <mergeCell ref="J542:K542"/>
-    <mergeCell ref="H543:I543"/>
-    <mergeCell ref="J543:K543"/>
-    <mergeCell ref="H544:I544"/>
-    <mergeCell ref="J544:K544"/>
-    <mergeCell ref="A545:D545"/>
-    <mergeCell ref="A546:D546"/>
-    <mergeCell ref="A547:D547"/>
-    <mergeCell ref="A548:D548"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A556:B556"/>
-    <mergeCell ref="C556:D556"/>
-    <mergeCell ref="A557:B557"/>
-    <mergeCell ref="C557:D557"/>
-    <mergeCell ref="A538:D539"/>
-    <mergeCell ref="E538:E539"/>
-    <mergeCell ref="A541:B541"/>
-    <mergeCell ref="C541:D541"/>
-    <mergeCell ref="A542:B542"/>
-    <mergeCell ref="C542:D542"/>
-    <mergeCell ref="A543:B543"/>
-    <mergeCell ref="C543:D543"/>
-    <mergeCell ref="A544:B544"/>
-    <mergeCell ref="C544:D544"/>
-    <mergeCell ref="H523:K523"/>
-    <mergeCell ref="H524:K524"/>
-    <mergeCell ref="H525:K525"/>
-    <mergeCell ref="H526:K526"/>
-    <mergeCell ref="H533:K533"/>
-    <mergeCell ref="H534:I534"/>
-    <mergeCell ref="J534:K534"/>
-    <mergeCell ref="H535:I535"/>
-    <mergeCell ref="J535:K535"/>
-    <mergeCell ref="G516:G517"/>
-    <mergeCell ref="H516:K517"/>
-    <mergeCell ref="H519:I519"/>
-    <mergeCell ref="J519:K519"/>
-    <mergeCell ref="H520:I520"/>
-    <mergeCell ref="J520:K520"/>
-    <mergeCell ref="H521:I521"/>
-    <mergeCell ref="J521:K521"/>
-    <mergeCell ref="H522:I522"/>
-    <mergeCell ref="J522:K522"/>
-    <mergeCell ref="A523:D523"/>
-    <mergeCell ref="A524:D524"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A526:D526"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A534:B534"/>
-    <mergeCell ref="C534:D534"/>
-    <mergeCell ref="A535:B535"/>
-    <mergeCell ref="C535:D535"/>
-    <mergeCell ref="A516:D517"/>
-    <mergeCell ref="E516:E517"/>
-    <mergeCell ref="A519:B519"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="A520:B520"/>
-    <mergeCell ref="C520:D520"/>
-    <mergeCell ref="A521:B521"/>
-    <mergeCell ref="C521:D521"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="C522:D522"/>
-    <mergeCell ref="H499:K499"/>
-    <mergeCell ref="H500:K500"/>
-    <mergeCell ref="H501:K501"/>
-    <mergeCell ref="H502:K502"/>
-    <mergeCell ref="H509:K509"/>
-    <mergeCell ref="H510:I510"/>
-    <mergeCell ref="J510:K510"/>
-    <mergeCell ref="H511:I511"/>
-    <mergeCell ref="J511:K511"/>
-    <mergeCell ref="G492:G493"/>
-    <mergeCell ref="H492:K493"/>
-    <mergeCell ref="H495:I495"/>
-    <mergeCell ref="J495:K495"/>
-    <mergeCell ref="H496:I496"/>
-    <mergeCell ref="J496:K496"/>
-    <mergeCell ref="H497:I497"/>
-    <mergeCell ref="J497:K497"/>
-    <mergeCell ref="H498:I498"/>
-    <mergeCell ref="J498:K498"/>
-    <mergeCell ref="A499:D499"/>
-    <mergeCell ref="A500:D500"/>
-    <mergeCell ref="A501:D501"/>
-    <mergeCell ref="A502:D502"/>
-    <mergeCell ref="A509:D509"/>
-    <mergeCell ref="A510:B510"/>
-    <mergeCell ref="C510:D510"/>
-    <mergeCell ref="A511:B511"/>
-    <mergeCell ref="C511:D511"/>
-    <mergeCell ref="A492:D493"/>
-    <mergeCell ref="E492:E493"/>
-    <mergeCell ref="A495:B495"/>
-    <mergeCell ref="C495:D495"/>
-    <mergeCell ref="A496:B496"/>
-    <mergeCell ref="C496:D496"/>
-    <mergeCell ref="A497:B497"/>
-    <mergeCell ref="C497:D497"/>
-    <mergeCell ref="A498:B498"/>
-    <mergeCell ref="C498:D498"/>
-    <mergeCell ref="H476:K476"/>
-    <mergeCell ref="H477:K477"/>
-    <mergeCell ref="H478:K478"/>
-    <mergeCell ref="H479:K479"/>
-    <mergeCell ref="H486:K486"/>
-    <mergeCell ref="H487:I487"/>
-    <mergeCell ref="J487:K487"/>
-    <mergeCell ref="H488:I488"/>
-    <mergeCell ref="J488:K488"/>
-    <mergeCell ref="G469:G470"/>
-    <mergeCell ref="H469:K470"/>
-    <mergeCell ref="H472:I472"/>
-    <mergeCell ref="J472:K472"/>
-    <mergeCell ref="H473:I473"/>
-    <mergeCell ref="J473:K473"/>
-    <mergeCell ref="H474:I474"/>
-    <mergeCell ref="J474:K474"/>
-    <mergeCell ref="H475:I475"/>
-    <mergeCell ref="J475:K475"/>
-    <mergeCell ref="A476:D476"/>
-    <mergeCell ref="A477:D477"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A479:D479"/>
-    <mergeCell ref="A486:D486"/>
-    <mergeCell ref="A487:B487"/>
-    <mergeCell ref="C487:D487"/>
-    <mergeCell ref="A488:B488"/>
-    <mergeCell ref="C488:D488"/>
-    <mergeCell ref="A469:D470"/>
-    <mergeCell ref="E469:E470"/>
-    <mergeCell ref="A472:B472"/>
-    <mergeCell ref="C472:D472"/>
-    <mergeCell ref="A473:B473"/>
-    <mergeCell ref="C473:D473"/>
-    <mergeCell ref="A474:B474"/>
-    <mergeCell ref="C474:D474"/>
-    <mergeCell ref="A475:B475"/>
-    <mergeCell ref="C475:D475"/>
-    <mergeCell ref="H454:K454"/>
-    <mergeCell ref="H456:K456"/>
-    <mergeCell ref="H464:K464"/>
-    <mergeCell ref="H465:I465"/>
-    <mergeCell ref="J465:K465"/>
-    <mergeCell ref="H466:I466"/>
-    <mergeCell ref="J466:K466"/>
-    <mergeCell ref="G447:G448"/>
-    <mergeCell ref="H447:K448"/>
-    <mergeCell ref="H450:I450"/>
-    <mergeCell ref="J450:K450"/>
-    <mergeCell ref="H451:I451"/>
-    <mergeCell ref="J451:K451"/>
-    <mergeCell ref="H452:I452"/>
-    <mergeCell ref="J452:K452"/>
-    <mergeCell ref="H453:I453"/>
-    <mergeCell ref="J453:K453"/>
-    <mergeCell ref="A454:D454"/>
-    <mergeCell ref="H455:K455"/>
-    <mergeCell ref="A456:D456"/>
-    <mergeCell ref="H457:K457"/>
-    <mergeCell ref="A464:D464"/>
-    <mergeCell ref="A465:B465"/>
-    <mergeCell ref="C465:D465"/>
-    <mergeCell ref="A466:B466"/>
-    <mergeCell ref="C466:D466"/>
-    <mergeCell ref="A447:D448"/>
-    <mergeCell ref="E447:E448"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="C450:D450"/>
-    <mergeCell ref="A451:B451"/>
-    <mergeCell ref="C451:D451"/>
-    <mergeCell ref="A452:B452"/>
-    <mergeCell ref="C452:D452"/>
-    <mergeCell ref="A453:B453"/>
-    <mergeCell ref="C453:D453"/>
-    <mergeCell ref="H432:K432"/>
-    <mergeCell ref="H433:K433"/>
-    <mergeCell ref="H434:K434"/>
-    <mergeCell ref="H435:K435"/>
-    <mergeCell ref="H442:K442"/>
-    <mergeCell ref="H443:I443"/>
-    <mergeCell ref="J443:K443"/>
-    <mergeCell ref="H444:I444"/>
-    <mergeCell ref="J444:K444"/>
-    <mergeCell ref="G425:G426"/>
-    <mergeCell ref="H425:K426"/>
-    <mergeCell ref="H428:I428"/>
-    <mergeCell ref="J428:K428"/>
-    <mergeCell ref="H429:I429"/>
-    <mergeCell ref="J429:K429"/>
-    <mergeCell ref="H430:I430"/>
-    <mergeCell ref="J430:K430"/>
-    <mergeCell ref="H431:I431"/>
-    <mergeCell ref="J431:K431"/>
-    <mergeCell ref="A432:D432"/>
-    <mergeCell ref="A433:D433"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A435:D435"/>
-    <mergeCell ref="A442:D442"/>
-    <mergeCell ref="A443:B443"/>
-    <mergeCell ref="C443:D443"/>
-    <mergeCell ref="A444:B444"/>
-    <mergeCell ref="C444:D444"/>
-    <mergeCell ref="A425:D426"/>
-    <mergeCell ref="E425:E426"/>
-    <mergeCell ref="A428:B428"/>
-    <mergeCell ref="C428:D428"/>
-    <mergeCell ref="A429:B429"/>
-    <mergeCell ref="C429:D429"/>
-    <mergeCell ref="A430:B430"/>
-    <mergeCell ref="C430:D430"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="C431:D431"/>
-    <mergeCell ref="H410:K410"/>
-    <mergeCell ref="H411:K411"/>
-    <mergeCell ref="H412:K412"/>
-    <mergeCell ref="H413:K413"/>
-    <mergeCell ref="H420:K420"/>
-    <mergeCell ref="H421:I421"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="H422:I422"/>
-    <mergeCell ref="J422:K422"/>
-    <mergeCell ref="G403:G404"/>
-    <mergeCell ref="H403:K404"/>
-    <mergeCell ref="H406:I406"/>
-    <mergeCell ref="J406:K406"/>
-    <mergeCell ref="H407:I407"/>
-    <mergeCell ref="J407:K407"/>
-    <mergeCell ref="H408:I408"/>
-    <mergeCell ref="J408:K408"/>
-    <mergeCell ref="H409:I409"/>
-    <mergeCell ref="J409:K409"/>
-    <mergeCell ref="A410:D410"/>
-    <mergeCell ref="A411:D411"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A413:D413"/>
-    <mergeCell ref="A420:D420"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="C421:D421"/>
-    <mergeCell ref="A422:B422"/>
-    <mergeCell ref="C422:D422"/>
-    <mergeCell ref="A403:D404"/>
-    <mergeCell ref="E403:E404"/>
-    <mergeCell ref="A406:B406"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="A407:B407"/>
-    <mergeCell ref="C407:D407"/>
-    <mergeCell ref="A408:B408"/>
-    <mergeCell ref="C408:D408"/>
-    <mergeCell ref="A409:B409"/>
-    <mergeCell ref="C409:D409"/>
-    <mergeCell ref="H345:K345"/>
-    <mergeCell ref="H346:K346"/>
-    <mergeCell ref="H347:K347"/>
-    <mergeCell ref="H348:K348"/>
-    <mergeCell ref="H355:K355"/>
-    <mergeCell ref="H356:I356"/>
-    <mergeCell ref="J356:K356"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="J357:K357"/>
-    <mergeCell ref="G338:G339"/>
-    <mergeCell ref="H338:K339"/>
-    <mergeCell ref="H341:I341"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="H342:I342"/>
-    <mergeCell ref="J342:K342"/>
-    <mergeCell ref="H343:I343"/>
-    <mergeCell ref="J343:K343"/>
-    <mergeCell ref="H344:I344"/>
-    <mergeCell ref="J344:K344"/>
-    <mergeCell ref="A345:D345"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A347:D347"/>
-    <mergeCell ref="A348:D348"/>
-    <mergeCell ref="A355:D355"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="C356:D356"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="A338:D339"/>
-    <mergeCell ref="E338:E339"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="H302:K302"/>
-    <mergeCell ref="H303:K303"/>
-    <mergeCell ref="H304:K304"/>
-    <mergeCell ref="H305:K305"/>
-    <mergeCell ref="H312:K312"/>
-    <mergeCell ref="H313:I313"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="H314:I314"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="H319:I319"/>
-    <mergeCell ref="J319:K319"/>
-    <mergeCell ref="H320:I320"/>
-    <mergeCell ref="J320:K320"/>
-    <mergeCell ref="H321:I321"/>
-    <mergeCell ref="J321:K321"/>
-    <mergeCell ref="H322:I322"/>
-    <mergeCell ref="J322:K322"/>
-    <mergeCell ref="G316:G317"/>
-    <mergeCell ref="H316:K317"/>
-    <mergeCell ref="H295:K296"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="J300:K300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="H323:K323"/>
-    <mergeCell ref="H324:K324"/>
-    <mergeCell ref="H325:K325"/>
-    <mergeCell ref="H326:K326"/>
-    <mergeCell ref="H333:K333"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="J334:K334"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="J335:K335"/>
-    <mergeCell ref="E316:E317"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="C319:D319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="C320:D320"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="C321:D321"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="C322:D322"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="C334:D334"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A326:D326"/>
-    <mergeCell ref="A333:D333"/>
-    <mergeCell ref="A302:D302"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A305:D305"/>
-    <mergeCell ref="A312:D312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="C313:D313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="C314:D314"/>
-    <mergeCell ref="A316:D317"/>
-    <mergeCell ref="E274:E275"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:D277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="C300:D300"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="A295:D296"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="C298:D298"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:D299"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="G295:G296"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A291:D291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="C292:D292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="H388:K388"/>
+    <mergeCell ref="H389:K389"/>
+    <mergeCell ref="H390:K390"/>
+    <mergeCell ref="H391:K391"/>
+    <mergeCell ref="H398:K398"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="J399:K399"/>
+    <mergeCell ref="H400:I400"/>
+    <mergeCell ref="J400:K400"/>
+    <mergeCell ref="G381:G382"/>
+    <mergeCell ref="H381:K382"/>
+    <mergeCell ref="H384:I384"/>
+    <mergeCell ref="J384:K384"/>
+    <mergeCell ref="H385:I385"/>
+    <mergeCell ref="J385:K385"/>
+    <mergeCell ref="H386:I386"/>
+    <mergeCell ref="J386:K386"/>
+    <mergeCell ref="H387:I387"/>
+    <mergeCell ref="J387:K387"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="A389:D389"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A391:D391"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A399:B399"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="A400:B400"/>
+    <mergeCell ref="C400:D400"/>
+    <mergeCell ref="A381:D382"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="A385:B385"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="C386:D386"/>
+    <mergeCell ref="A387:B387"/>
+    <mergeCell ref="C387:D387"/>
+    <mergeCell ref="H367:K367"/>
+    <mergeCell ref="H368:K368"/>
+    <mergeCell ref="H369:K369"/>
+    <mergeCell ref="H370:K370"/>
+    <mergeCell ref="H377:K377"/>
+    <mergeCell ref="H378:I378"/>
+    <mergeCell ref="J378:K378"/>
+    <mergeCell ref="H379:I379"/>
+    <mergeCell ref="J379:K379"/>
+    <mergeCell ref="G360:G361"/>
+    <mergeCell ref="H360:K361"/>
+    <mergeCell ref="H363:I363"/>
+    <mergeCell ref="J363:K363"/>
+    <mergeCell ref="H364:I364"/>
+    <mergeCell ref="J364:K364"/>
+    <mergeCell ref="H365:I365"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="H366:I366"/>
+    <mergeCell ref="J366:K366"/>
+    <mergeCell ref="A367:D367"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A369:D369"/>
+    <mergeCell ref="A370:D370"/>
+    <mergeCell ref="A377:D377"/>
+    <mergeCell ref="A378:B378"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="A360:D361"/>
+    <mergeCell ref="E360:E361"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="H238:K238"/>
+    <mergeCell ref="H239:K239"/>
+    <mergeCell ref="H240:K240"/>
+    <mergeCell ref="H241:K241"/>
+    <mergeCell ref="H248:K248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="H231:K232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="A231:D232"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="H217:K217"/>
+    <mergeCell ref="H218:K218"/>
+    <mergeCell ref="H219:K219"/>
+    <mergeCell ref="H220:K220"/>
+    <mergeCell ref="H227:K227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="H210:K211"/>
+    <mergeCell ref="L210:L211"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="A210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="H189:K190"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="H196:K196"/>
+    <mergeCell ref="H197:K197"/>
+    <mergeCell ref="H198:K198"/>
+    <mergeCell ref="H199:K199"/>
+    <mergeCell ref="H206:K206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="H176:K176"/>
+    <mergeCell ref="H177:K177"/>
+    <mergeCell ref="H178:K178"/>
+    <mergeCell ref="H185:K185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="H168:K169"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="H154:K154"/>
+    <mergeCell ref="H155:K155"/>
+    <mergeCell ref="H156:K156"/>
+    <mergeCell ref="H157:K157"/>
+    <mergeCell ref="H164:K164"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="H147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="A147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="H126:K127"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:K106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="F1:F1048576"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="H85:K86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A64:D65"/>
+    <mergeCell ref="H64:K65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="H43:K44"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H253:K254"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="H274:K275"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="H270:K270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="A260:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A270:D270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:D271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:D272"/>
+    <mergeCell ref="A274:D275"/>
     <mergeCell ref="H282:K282"/>
     <mergeCell ref="H283:K283"/>
     <mergeCell ref="H284:K284"/>
@@ -11235,576 +11601,402 @@
     <mergeCell ref="H261:K261"/>
     <mergeCell ref="H262:K262"/>
     <mergeCell ref="H263:K263"/>
-    <mergeCell ref="H274:K275"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="H270:K270"/>
-    <mergeCell ref="H271:I271"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="H272:I272"/>
-    <mergeCell ref="J272:K272"/>
-    <mergeCell ref="A260:D260"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A270:D270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="C271:D271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:D272"/>
-    <mergeCell ref="A274:D275"/>
-    <mergeCell ref="H253:K254"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="H43:K44"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A64:D65"/>
-    <mergeCell ref="H64:K65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="H85:K86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="F1:F1048576"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:K106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="H112:K112"/>
-    <mergeCell ref="H113:K113"/>
-    <mergeCell ref="H114:K114"/>
-    <mergeCell ref="H115:K115"/>
-    <mergeCell ref="H122:K122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="A126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="H133:K133"/>
-    <mergeCell ref="H134:K134"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="H136:K136"/>
-    <mergeCell ref="H143:K143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="H126:K127"/>
-    <mergeCell ref="A147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="H147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="H154:K154"/>
-    <mergeCell ref="H155:K155"/>
-    <mergeCell ref="H156:K156"/>
-    <mergeCell ref="H157:K157"/>
-    <mergeCell ref="H164:K164"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="L168:L169"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="H175:K175"/>
-    <mergeCell ref="H176:K176"/>
-    <mergeCell ref="H177:K177"/>
-    <mergeCell ref="H178:K178"/>
-    <mergeCell ref="H185:K185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="H168:K169"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="H189:K190"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="H196:K196"/>
-    <mergeCell ref="H197:K197"/>
-    <mergeCell ref="H198:K198"/>
-    <mergeCell ref="H199:K199"/>
-    <mergeCell ref="H206:K206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="H210:K211"/>
-    <mergeCell ref="L210:L211"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="H217:K217"/>
-    <mergeCell ref="H218:K218"/>
-    <mergeCell ref="H219:K219"/>
-    <mergeCell ref="H220:K220"/>
-    <mergeCell ref="H227:K227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="A231:D232"/>
-    <mergeCell ref="E231:E232"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="H231:K232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="H238:K238"/>
-    <mergeCell ref="H239:K239"/>
-    <mergeCell ref="H240:K240"/>
-    <mergeCell ref="H241:K241"/>
-    <mergeCell ref="H248:K248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="A360:D361"/>
-    <mergeCell ref="E360:E361"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="C363:D363"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="A365:B365"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="A366:B366"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="A367:D367"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A369:D369"/>
-    <mergeCell ref="A370:D370"/>
-    <mergeCell ref="A377:D377"/>
-    <mergeCell ref="A378:B378"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="A379:B379"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="G360:G361"/>
-    <mergeCell ref="H360:K361"/>
-    <mergeCell ref="H363:I363"/>
-    <mergeCell ref="J363:K363"/>
-    <mergeCell ref="H364:I364"/>
-    <mergeCell ref="J364:K364"/>
-    <mergeCell ref="H365:I365"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="H366:I366"/>
-    <mergeCell ref="J366:K366"/>
-    <mergeCell ref="H367:K367"/>
-    <mergeCell ref="H368:K368"/>
-    <mergeCell ref="H369:K369"/>
-    <mergeCell ref="H370:K370"/>
-    <mergeCell ref="H377:K377"/>
-    <mergeCell ref="H378:I378"/>
-    <mergeCell ref="J378:K378"/>
-    <mergeCell ref="H379:I379"/>
-    <mergeCell ref="J379:K379"/>
-    <mergeCell ref="A381:D382"/>
-    <mergeCell ref="E381:E382"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="C384:D384"/>
-    <mergeCell ref="A385:B385"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="C386:D386"/>
-    <mergeCell ref="A387:B387"/>
-    <mergeCell ref="C387:D387"/>
-    <mergeCell ref="A388:D388"/>
-    <mergeCell ref="A389:D389"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="A398:D398"/>
-    <mergeCell ref="A399:B399"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="A400:B400"/>
-    <mergeCell ref="C400:D400"/>
-    <mergeCell ref="G381:G382"/>
-    <mergeCell ref="H381:K382"/>
-    <mergeCell ref="H384:I384"/>
-    <mergeCell ref="J384:K384"/>
-    <mergeCell ref="H385:I385"/>
-    <mergeCell ref="J385:K385"/>
-    <mergeCell ref="H386:I386"/>
-    <mergeCell ref="J386:K386"/>
-    <mergeCell ref="H387:I387"/>
-    <mergeCell ref="J387:K387"/>
-    <mergeCell ref="H388:K388"/>
-    <mergeCell ref="H389:K389"/>
-    <mergeCell ref="H390:K390"/>
-    <mergeCell ref="H391:K391"/>
-    <mergeCell ref="H398:K398"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="J399:K399"/>
-    <mergeCell ref="H400:I400"/>
-    <mergeCell ref="J400:K400"/>
+    <mergeCell ref="G295:G296"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A291:D291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:D292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:D293"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:D277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="A295:D296"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="C298:D298"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:D299"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A326:D326"/>
+    <mergeCell ref="A333:D333"/>
+    <mergeCell ref="A302:D302"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="C313:D313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="A316:D317"/>
+    <mergeCell ref="E316:E317"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:D319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="C320:D320"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:D321"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="C322:D322"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:D334"/>
+    <mergeCell ref="H323:K323"/>
+    <mergeCell ref="H324:K324"/>
+    <mergeCell ref="H325:K325"/>
+    <mergeCell ref="H326:K326"/>
+    <mergeCell ref="H333:K333"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="J334:K334"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="J335:K335"/>
+    <mergeCell ref="H295:K296"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="J319:K319"/>
+    <mergeCell ref="H320:I320"/>
+    <mergeCell ref="J320:K320"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="J321:K321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="J322:K322"/>
+    <mergeCell ref="G316:G317"/>
+    <mergeCell ref="H316:K317"/>
+    <mergeCell ref="H302:K302"/>
+    <mergeCell ref="H303:K303"/>
+    <mergeCell ref="H304:K304"/>
+    <mergeCell ref="H305:K305"/>
+    <mergeCell ref="H312:K312"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="A338:D339"/>
+    <mergeCell ref="E338:E339"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="A345:D345"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A347:D347"/>
+    <mergeCell ref="A348:D348"/>
+    <mergeCell ref="A355:D355"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="G338:G339"/>
+    <mergeCell ref="H338:K339"/>
+    <mergeCell ref="H341:I341"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="J342:K342"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="J343:K343"/>
+    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="J344:K344"/>
+    <mergeCell ref="H345:K345"/>
+    <mergeCell ref="H346:K346"/>
+    <mergeCell ref="H347:K347"/>
+    <mergeCell ref="H348:K348"/>
+    <mergeCell ref="H355:K355"/>
+    <mergeCell ref="H356:I356"/>
+    <mergeCell ref="J356:K356"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="J357:K357"/>
+    <mergeCell ref="A403:D404"/>
+    <mergeCell ref="E403:E404"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="A407:B407"/>
+    <mergeCell ref="C407:D407"/>
+    <mergeCell ref="A408:B408"/>
+    <mergeCell ref="C408:D408"/>
+    <mergeCell ref="A409:B409"/>
+    <mergeCell ref="C409:D409"/>
+    <mergeCell ref="A410:D410"/>
+    <mergeCell ref="A411:D411"/>
+    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A413:D413"/>
+    <mergeCell ref="A420:D420"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="C421:D421"/>
+    <mergeCell ref="A422:B422"/>
+    <mergeCell ref="C422:D422"/>
+    <mergeCell ref="G403:G404"/>
+    <mergeCell ref="H403:K404"/>
+    <mergeCell ref="H406:I406"/>
+    <mergeCell ref="J406:K406"/>
+    <mergeCell ref="H407:I407"/>
+    <mergeCell ref="J407:K407"/>
+    <mergeCell ref="H408:I408"/>
+    <mergeCell ref="J408:K408"/>
+    <mergeCell ref="H409:I409"/>
+    <mergeCell ref="J409:K409"/>
+    <mergeCell ref="H410:K410"/>
+    <mergeCell ref="H411:K411"/>
+    <mergeCell ref="H412:K412"/>
+    <mergeCell ref="H413:K413"/>
+    <mergeCell ref="H420:K420"/>
+    <mergeCell ref="H421:I421"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="H422:I422"/>
+    <mergeCell ref="J422:K422"/>
+    <mergeCell ref="A425:D426"/>
+    <mergeCell ref="E425:E426"/>
+    <mergeCell ref="A428:B428"/>
+    <mergeCell ref="C428:D428"/>
+    <mergeCell ref="A429:B429"/>
+    <mergeCell ref="C429:D429"/>
+    <mergeCell ref="A430:B430"/>
+    <mergeCell ref="C430:D430"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="C431:D431"/>
+    <mergeCell ref="A432:D432"/>
+    <mergeCell ref="A433:D433"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A435:D435"/>
+    <mergeCell ref="A442:D442"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="C443:D443"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="C444:D444"/>
+    <mergeCell ref="G425:G426"/>
+    <mergeCell ref="H425:K426"/>
+    <mergeCell ref="H428:I428"/>
+    <mergeCell ref="J428:K428"/>
+    <mergeCell ref="H429:I429"/>
+    <mergeCell ref="J429:K429"/>
+    <mergeCell ref="H430:I430"/>
+    <mergeCell ref="J430:K430"/>
+    <mergeCell ref="H431:I431"/>
+    <mergeCell ref="J431:K431"/>
+    <mergeCell ref="H432:K432"/>
+    <mergeCell ref="H433:K433"/>
+    <mergeCell ref="H434:K434"/>
+    <mergeCell ref="H435:K435"/>
+    <mergeCell ref="H442:K442"/>
+    <mergeCell ref="H443:I443"/>
+    <mergeCell ref="J443:K443"/>
+    <mergeCell ref="H444:I444"/>
+    <mergeCell ref="J444:K444"/>
+    <mergeCell ref="A447:D448"/>
+    <mergeCell ref="E447:E448"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="C450:D450"/>
+    <mergeCell ref="A451:B451"/>
+    <mergeCell ref="C451:D451"/>
+    <mergeCell ref="A452:B452"/>
+    <mergeCell ref="C452:D452"/>
+    <mergeCell ref="A453:B453"/>
+    <mergeCell ref="C453:D453"/>
+    <mergeCell ref="A454:D454"/>
+    <mergeCell ref="H455:K455"/>
+    <mergeCell ref="A456:D456"/>
+    <mergeCell ref="H457:K457"/>
+    <mergeCell ref="A464:D464"/>
+    <mergeCell ref="A465:B465"/>
+    <mergeCell ref="C465:D465"/>
+    <mergeCell ref="A466:B466"/>
+    <mergeCell ref="C466:D466"/>
+    <mergeCell ref="H454:K454"/>
+    <mergeCell ref="H456:K456"/>
+    <mergeCell ref="H464:K464"/>
+    <mergeCell ref="H465:I465"/>
+    <mergeCell ref="J465:K465"/>
+    <mergeCell ref="H466:I466"/>
+    <mergeCell ref="J466:K466"/>
+    <mergeCell ref="G447:G448"/>
+    <mergeCell ref="H447:K448"/>
+    <mergeCell ref="H450:I450"/>
+    <mergeCell ref="J450:K450"/>
+    <mergeCell ref="H451:I451"/>
+    <mergeCell ref="J451:K451"/>
+    <mergeCell ref="H452:I452"/>
+    <mergeCell ref="J452:K452"/>
+    <mergeCell ref="H453:I453"/>
+    <mergeCell ref="J453:K453"/>
+    <mergeCell ref="A469:D470"/>
+    <mergeCell ref="E469:E470"/>
+    <mergeCell ref="A472:B472"/>
+    <mergeCell ref="C472:D472"/>
+    <mergeCell ref="A473:B473"/>
+    <mergeCell ref="C473:D473"/>
+    <mergeCell ref="A474:B474"/>
+    <mergeCell ref="C474:D474"/>
+    <mergeCell ref="A475:B475"/>
+    <mergeCell ref="C475:D475"/>
+    <mergeCell ref="A476:D476"/>
+    <mergeCell ref="A477:D477"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A479:D479"/>
+    <mergeCell ref="A486:D486"/>
+    <mergeCell ref="A487:B487"/>
+    <mergeCell ref="C487:D487"/>
+    <mergeCell ref="A488:B488"/>
+    <mergeCell ref="C488:D488"/>
+    <mergeCell ref="G469:G470"/>
+    <mergeCell ref="H469:K470"/>
+    <mergeCell ref="H472:I472"/>
+    <mergeCell ref="J472:K472"/>
+    <mergeCell ref="H473:I473"/>
+    <mergeCell ref="J473:K473"/>
+    <mergeCell ref="H474:I474"/>
+    <mergeCell ref="J474:K474"/>
+    <mergeCell ref="H475:I475"/>
+    <mergeCell ref="J475:K475"/>
+    <mergeCell ref="H476:K476"/>
+    <mergeCell ref="H477:K477"/>
+    <mergeCell ref="H478:K478"/>
+    <mergeCell ref="H479:K479"/>
+    <mergeCell ref="H486:K486"/>
+    <mergeCell ref="H487:I487"/>
+    <mergeCell ref="J487:K487"/>
+    <mergeCell ref="H488:I488"/>
+    <mergeCell ref="J488:K488"/>
+    <mergeCell ref="A492:D493"/>
+    <mergeCell ref="E492:E493"/>
+    <mergeCell ref="A495:B495"/>
+    <mergeCell ref="C495:D495"/>
+    <mergeCell ref="A496:B496"/>
+    <mergeCell ref="C496:D496"/>
+    <mergeCell ref="A497:B497"/>
+    <mergeCell ref="C497:D497"/>
+    <mergeCell ref="A498:B498"/>
+    <mergeCell ref="C498:D498"/>
+    <mergeCell ref="A499:D499"/>
+    <mergeCell ref="A500:D500"/>
+    <mergeCell ref="A501:D501"/>
+    <mergeCell ref="A502:D502"/>
+    <mergeCell ref="A509:D509"/>
+    <mergeCell ref="A510:B510"/>
+    <mergeCell ref="C510:D510"/>
+    <mergeCell ref="A511:B511"/>
+    <mergeCell ref="C511:D511"/>
+    <mergeCell ref="G492:G493"/>
+    <mergeCell ref="H492:K493"/>
+    <mergeCell ref="H495:I495"/>
+    <mergeCell ref="J495:K495"/>
+    <mergeCell ref="H496:I496"/>
+    <mergeCell ref="J496:K496"/>
+    <mergeCell ref="H497:I497"/>
+    <mergeCell ref="J497:K497"/>
+    <mergeCell ref="H498:I498"/>
+    <mergeCell ref="J498:K498"/>
+    <mergeCell ref="H499:K499"/>
+    <mergeCell ref="H500:K500"/>
+    <mergeCell ref="H501:K501"/>
+    <mergeCell ref="H502:K502"/>
+    <mergeCell ref="H509:K509"/>
+    <mergeCell ref="H510:I510"/>
+    <mergeCell ref="J510:K510"/>
+    <mergeCell ref="H511:I511"/>
+    <mergeCell ref="J511:K511"/>
+    <mergeCell ref="A516:D517"/>
+    <mergeCell ref="E516:E517"/>
+    <mergeCell ref="A519:B519"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="C520:D520"/>
+    <mergeCell ref="A521:B521"/>
+    <mergeCell ref="C521:D521"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="C522:D522"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="A524:D524"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A526:D526"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A534:B534"/>
+    <mergeCell ref="C534:D534"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="C535:D535"/>
+    <mergeCell ref="G516:G517"/>
+    <mergeCell ref="H516:K517"/>
+    <mergeCell ref="H519:I519"/>
+    <mergeCell ref="J519:K519"/>
+    <mergeCell ref="H520:I520"/>
+    <mergeCell ref="J520:K520"/>
+    <mergeCell ref="H521:I521"/>
+    <mergeCell ref="J521:K521"/>
+    <mergeCell ref="H522:I522"/>
+    <mergeCell ref="J522:K522"/>
+    <mergeCell ref="H523:K523"/>
+    <mergeCell ref="H524:K524"/>
+    <mergeCell ref="H525:K525"/>
+    <mergeCell ref="H526:K526"/>
+    <mergeCell ref="H533:K533"/>
+    <mergeCell ref="H534:I534"/>
+    <mergeCell ref="J534:K534"/>
+    <mergeCell ref="H535:I535"/>
+    <mergeCell ref="J535:K535"/>
+    <mergeCell ref="A538:D539"/>
+    <mergeCell ref="E538:E539"/>
+    <mergeCell ref="A541:B541"/>
+    <mergeCell ref="C541:D541"/>
+    <mergeCell ref="A542:B542"/>
+    <mergeCell ref="C542:D542"/>
+    <mergeCell ref="A543:B543"/>
+    <mergeCell ref="C543:D543"/>
+    <mergeCell ref="A544:B544"/>
+    <mergeCell ref="C544:D544"/>
+    <mergeCell ref="A545:D545"/>
+    <mergeCell ref="A546:D546"/>
+    <mergeCell ref="A547:D547"/>
+    <mergeCell ref="A548:D548"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A556:B556"/>
+    <mergeCell ref="C556:D556"/>
+    <mergeCell ref="A557:B557"/>
+    <mergeCell ref="C557:D557"/>
+    <mergeCell ref="G538:G539"/>
+    <mergeCell ref="H538:K539"/>
+    <mergeCell ref="H541:I541"/>
+    <mergeCell ref="J541:K541"/>
+    <mergeCell ref="H542:I542"/>
+    <mergeCell ref="J542:K542"/>
+    <mergeCell ref="H543:I543"/>
+    <mergeCell ref="J543:K543"/>
+    <mergeCell ref="H544:I544"/>
+    <mergeCell ref="J544:K544"/>
+    <mergeCell ref="H545:K545"/>
+    <mergeCell ref="H546:K546"/>
+    <mergeCell ref="H547:K547"/>
+    <mergeCell ref="H548:K548"/>
+    <mergeCell ref="H555:K555"/>
+    <mergeCell ref="H556:I556"/>
+    <mergeCell ref="J556:K556"/>
+    <mergeCell ref="H557:I557"/>
+    <mergeCell ref="J557:K557"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
